--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F25B96-ECB8-4E05-8015-1A2E5D9AA483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
+    <sheet name="commodities" sheetId="3" r:id="rId2"/>
+    <sheet name="Efficiency" sheetId="2" r:id="rId3"/>
+    <sheet name="CapacityFactorTech" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +27,433 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="134">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>emissions commodity</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>demand commodity</t>
+  </si>
+  <si>
+    <t>phyisical commodity</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>input_comm</t>
+  </si>
+  <si>
+    <t>output_comm</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>eff_notes</t>
+  </si>
+  <si>
+    <t>Batt_10h_New</t>
+  </si>
+  <si>
+    <t>Batt_2h_New</t>
+  </si>
+  <si>
+    <t>Batt_4h_New</t>
+  </si>
+  <si>
+    <t>Batt_6h_New</t>
+  </si>
+  <si>
+    <t>Batt_8h_New</t>
+  </si>
+  <si>
+    <t>BioPower_New</t>
+  </si>
+  <si>
+    <t>Coal_New</t>
+  </si>
+  <si>
+    <t>CommericalPV_New</t>
+  </si>
+  <si>
+    <t>ConcentratingSolar_New</t>
+  </si>
+  <si>
+    <t>LandWind_New</t>
+  </si>
+  <si>
+    <t>NG_F-Frame_CC_New</t>
+  </si>
+  <si>
+    <t>NG_F-Frame_CT_New</t>
+  </si>
+  <si>
+    <t>NG_H-Frame_CC_New</t>
+  </si>
+  <si>
+    <t>Nuclear-AP1000_New</t>
+  </si>
+  <si>
+    <t>Nuclear-SMR_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_1_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_10_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_11_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_12_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_13_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_14_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_2_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_3_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_4_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_5_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_6_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_7_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_8_New</t>
+  </si>
+  <si>
+    <t>OffshoreWind_9_New</t>
+  </si>
+  <si>
+    <t>ResidentialPV_New</t>
+  </si>
+  <si>
+    <t>UtilityPV_New</t>
+  </si>
+  <si>
+    <t>WAT_HY_New</t>
+  </si>
+  <si>
+    <t>WAT_PS_New</t>
+  </si>
+  <si>
+    <t>AB_ST_Existing</t>
+  </si>
+  <si>
+    <t>BIT_ST_Existing</t>
+  </si>
+  <si>
+    <t>BLQ_ST_Existing</t>
+  </si>
+  <si>
+    <t>DFO_CA_Existing</t>
+  </si>
+  <si>
+    <t>DFO_CT_Existing</t>
+  </si>
+  <si>
+    <t>DFO_GT_Existing</t>
+  </si>
+  <si>
+    <t>DFO_IC_Existing</t>
+  </si>
+  <si>
+    <t>LFG_GT_Existing</t>
+  </si>
+  <si>
+    <t>LFG_IC_Existing</t>
+  </si>
+  <si>
+    <t>MWH_BA1h_Existing</t>
+  </si>
+  <si>
+    <t>MWH_BA2h_Existing</t>
+  </si>
+  <si>
+    <t>NG_CA_Existing</t>
+  </si>
+  <si>
+    <t>NG_CT_Existing</t>
+  </si>
+  <si>
+    <t>NG_GT_Existing</t>
+  </si>
+  <si>
+    <t>NG_ST_Existing</t>
+  </si>
+  <si>
+    <t>NUC_ST_Existing</t>
+  </si>
+  <si>
+    <t>OBG_IC_Existing</t>
+  </si>
+  <si>
+    <t>SUN_PV_Existing</t>
+  </si>
+  <si>
+    <t>WAT_HY_Existing</t>
+  </si>
+  <si>
+    <t>WAT_PS_Existing</t>
+  </si>
+  <si>
+    <t>WDS_ST_Existing</t>
+  </si>
+  <si>
+    <t>WH_ST_Existing</t>
+  </si>
+  <si>
+    <t>WND_WT_Existing</t>
+  </si>
+  <si>
+    <t>Transmission_Interregional</t>
+  </si>
+  <si>
+    <t>Transmission_Regional</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>comm_name</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>comm_desc</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Electricity, physical, to transmission</t>
+  </si>
+  <si>
+    <t>BIO_Input</t>
+  </si>
+  <si>
+    <t>Fuel to bio power</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>Input for solar generation</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>Input for wind generation</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>Input for nuclear generation</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>Input for hydro generation</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>LanfillGas</t>
+  </si>
+  <si>
+    <t>LandfillGas</t>
+  </si>
+  <si>
+    <t>Landfill Gas</t>
+  </si>
+  <si>
+    <t>Trans_A</t>
+  </si>
+  <si>
+    <t>Regional Transmission Output</t>
+  </si>
+  <si>
+    <t>ELCDMD</t>
+  </si>
+  <si>
+    <t>Energy Ready To be Consumed After Demand</t>
+  </si>
+  <si>
+    <t>R1-R2</t>
+  </si>
+  <si>
+    <t>R3-R2</t>
+  </si>
+  <si>
+    <t>comm_labels_description</t>
+  </si>
+  <si>
+    <t>R1-R3</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>CF_T1</t>
+  </si>
+  <si>
+    <t>CF_T2</t>
+  </si>
+  <si>
+    <t>CF_T3</t>
+  </si>
+  <si>
+    <t>CF_T4</t>
+  </si>
+  <si>
+    <t>CF_T5</t>
+  </si>
+  <si>
+    <t>CF_T6</t>
+  </si>
+  <si>
+    <t>CF_T7</t>
+  </si>
+  <si>
+    <t>CF_T8</t>
+  </si>
+  <si>
+    <t>CF_T9</t>
+  </si>
+  <si>
+    <t>CF_T10</t>
+  </si>
+  <si>
+    <t>CF_T11</t>
+  </si>
+  <si>
+    <t>CF_T12</t>
+  </si>
+  <si>
+    <t>CF_T13</t>
+  </si>
+  <si>
+    <t>CF_T14</t>
+  </si>
+  <si>
+    <t>CF_T15</t>
+  </si>
+  <si>
+    <t>CF_T16</t>
+  </si>
+  <si>
+    <t>CF_T17</t>
+  </si>
+  <si>
+    <t>CF_T18</t>
+  </si>
+  <si>
+    <t>CF_T19</t>
+  </si>
+  <si>
+    <t>CF_T20</t>
+  </si>
+  <si>
+    <t>CF_T21</t>
+  </si>
+  <si>
+    <t>CF_T22</t>
+  </si>
+  <si>
+    <t>CF_T23</t>
+  </si>
+  <si>
+    <t>CF_T24</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +479,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +766,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345D6D4-C1C5-41B3-9FA9-983E075A149F}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="27" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F25B96-ECB8-4E05-8015-1A2E5D9AA483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792B3A4-0033-4F7A-95E5-80CBD0F1E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="137">
   <si>
     <t>p</t>
   </si>
@@ -345,9 +345,6 @@
     <t>R1-R3</t>
   </si>
   <si>
-    <t>season</t>
-  </si>
-  <si>
     <t>CF_T1</t>
   </si>
   <si>
@@ -430,6 +427,18 @@
   </si>
   <si>
     <t>S4</t>
+  </si>
+  <si>
+    <t>seasons</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -984,7 +993,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,187 +2255,233 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="27" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="27" width="7.5703125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>35</v>
+      <c r="A8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>36</v>
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>37</v>
+      <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>38</v>
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>39</v>
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>42</v>
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792B3A4-0033-4F7A-95E5-80CBD0F1E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386A4036-A1BA-44AA-B2F5-FF36B840A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
     <sheet name="Efficiency" sheetId="2" r:id="rId3"/>
     <sheet name="CapacityFactorTech" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="113">
   <si>
     <t>p</t>
   </si>
@@ -96,9 +107,6 @@
     <t>CommericalPV_New</t>
   </si>
   <si>
-    <t>ConcentratingSolar_New</t>
-  </si>
-  <si>
     <t>LandWind_New</t>
   </si>
   <si>
@@ -345,107 +353,38 @@
     <t>R1-R3</t>
   </si>
   <si>
-    <t>CF_T1</t>
-  </si>
-  <si>
-    <t>CF_T2</t>
-  </si>
-  <si>
-    <t>CF_T3</t>
-  </si>
-  <si>
-    <t>CF_T4</t>
-  </si>
-  <si>
-    <t>CF_T5</t>
-  </si>
-  <si>
-    <t>CF_T6</t>
-  </si>
-  <si>
-    <t>CF_T7</t>
-  </si>
-  <si>
-    <t>CF_T8</t>
-  </si>
-  <si>
-    <t>CF_T9</t>
-  </si>
-  <si>
-    <t>CF_T10</t>
-  </si>
-  <si>
-    <t>CF_T11</t>
-  </si>
-  <si>
-    <t>CF_T12</t>
-  </si>
-  <si>
-    <t>CF_T13</t>
-  </si>
-  <si>
-    <t>CF_T14</t>
-  </si>
-  <si>
-    <t>CF_T15</t>
-  </si>
-  <si>
-    <t>CF_T16</t>
-  </si>
-  <si>
-    <t>CF_T17</t>
-  </si>
-  <si>
-    <t>CF_T18</t>
-  </si>
-  <si>
-    <t>CF_T19</t>
-  </si>
-  <si>
-    <t>CF_T20</t>
-  </si>
-  <si>
-    <t>CF_T21</t>
-  </si>
-  <si>
-    <t>CF_T22</t>
-  </si>
-  <si>
-    <t>CF_T23</t>
-  </si>
-  <si>
-    <t>CF_T24</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>seasons</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
+    <t>CF Distribution</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF Projections from ATB-23 (CF proportinal to the Global Horizontal Irradiation, Class 6) </t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +402,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +450,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +755,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,145 +807,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1004,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1059,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1079,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1099,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1119,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1139,10 +1104,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1159,10 +1124,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1179,10 +1144,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1199,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1219,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1239,10 +1204,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1259,10 +1224,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1279,10 +1244,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1299,10 +1264,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1319,10 +1284,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1339,10 +1304,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1359,10 +1324,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1379,10 +1344,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1399,10 +1364,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1419,10 +1384,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1439,10 +1404,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1459,10 +1424,10 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1479,10 +1444,10 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1499,10 +1464,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1519,10 +1484,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1539,10 +1504,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1559,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1579,10 +1544,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1599,10 +1564,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1619,10 +1584,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1639,10 +1604,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1659,10 +1624,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1679,10 +1644,10 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1699,10 +1664,10 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1719,10 +1684,10 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1739,10 +1704,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1759,10 +1724,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1779,10 +1744,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1799,10 +1764,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1819,10 +1784,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1839,10 +1804,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1859,10 +1824,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1879,10 +1844,10 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1899,10 +1864,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1919,10 +1884,10 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1939,10 +1904,10 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1959,10 +1924,10 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1979,10 +1944,10 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1999,10 +1964,10 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2019,10 +1984,10 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2039,10 +2004,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2059,10 +2024,10 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2079,10 +2044,10 @@
         <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2099,10 +2064,10 @@
         <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2119,10 +2084,10 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2136,13 +2101,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2159,10 +2124,10 @@
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2170,19 +2135,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2190,19 +2155,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2210,41 +2175,21 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -2255,237 +2200,1494 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11:AK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="27" width="7.5703125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="21.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
+    <col min="7" max="38" width="6.140625" style="5" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2031</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2033</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2037</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2039</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2041</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2043</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2045</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2047</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2049</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.15430339646551175</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.15705576640490826</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.15980813634430477</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.16256050628370128</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.16531287622309779</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.1680652461624943</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.17081761610189081</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.17356998604128732</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.17632235598068383</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.17907472592008034</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.18182709585947687</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.18222237215482356</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.18261764845017026</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.18301292474551695</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.18340820104086364</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.18380347733621033</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.18419875363155702</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.18459402992690371</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.1849893062222504</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.1853845825175971</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.18577985881294379</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.18617513510829048</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.18657041140363717</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.18696568769898386</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.18736096399433055</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.18775624028967725</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.18815151658502394</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.18854679288037063</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.18894206917571732</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.18933734547106401</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>0.18973262176641065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.1531866860427854</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.15482234555945557</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.15645800507612573</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.15809366459279589</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.15972932410946605</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.16136498362613622</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.16300064314280638</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.16463630265947654</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.1662719621761467</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.16790762169281687</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.16954328120948706</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.17015747194198655</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.17077166267448604</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.17138585340698553</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.17200004413948503</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.17261423487198452</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0.17322842560448401</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.1738426163369835</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.17445680706948299</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.17507099780198249</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.17568518853448198</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.17629937926698147</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0.17691356999948096</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0.17752776073198046</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0.17814195146447995</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0.17875614219697944</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0.17937033292947893</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0.17998452366197842</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>0.18059871439447792</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>0.18121290512697741</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0.18182709585947687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.15155102652611524</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.15245063926028382</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.1533502519944524</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.15424986472862098</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.15514947746278956</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.15604909019695815</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.15694870293112673</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.15784831566529531</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.15874792839946389</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.15964754113363247</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.16054715386780105</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.16144676660196963</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.16234637933613821</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.16324599207030679</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0.16414560480447538</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.16504521753864396</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.16594483027281254</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.16684444300698112</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.1677440557411497</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0.16864366847531828</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.16954328120948706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.15049311805235732</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.1510829519952695</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.15167278593818168</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.15226261988109385</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.15285245382400603</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.15344228776691821</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.15403212170983038</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.15462195565274256</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.15521178959565474</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.15580162353856691</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.15013521014437531</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.15036713617930547</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.15059906221423563</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.1508309882491658</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.15106291428409596</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.15129484031902612</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.15152676635395629</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.15175869238888645</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.15199061842381661</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.15222254445874678</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.15245447049367689</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.15265131984306698</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.15284816919245708</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.15304501854184718</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.15324186789123728</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.15343871724062738</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.15363556659001748</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0.15383241593940758</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.15402926528879768</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.15422611463818778</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.15442296398757788</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.15461981333696798</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.15481666268635808</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.15501351203574817</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.15521036138513827</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.15540721073452837</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0.15560406008391847</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.15580090943330857</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.15599775878269867</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0.15619460813208877</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0.15639145748147906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.14990328410944515</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.15003084342865675</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.15015840274786835</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.15028596206707995</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.15041352138629155</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.15054108070550315</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.15066864002471475</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.15079619934392635</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.15092375866313795</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.15105131798234955</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.15117887730156115</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.15130643662077276</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.15143399593998436</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.15156155525919596</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.15168911457840756</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.15181667389761916</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.15194423321683076</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.15207179253604236</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.15219935185525396</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0.15232691117446556</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.15245447049367689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.2407519781827781</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.24497110698504165</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.2491902357873052</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.25340936458956875</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.2576284933918323</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.26184762219409585</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.2660667509963594</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.27028587979862295</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.2745050086008865</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.27872413740314994</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.27933005944098288</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.27993598147881582</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0.28054190351664876</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0.2811478255544817</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.28175374759231464</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0.28235966963014758</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.28296559166798052</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0.28357151370581346</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0.2841774357436464</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0.28478335778147934</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0.28538927981931228</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0.28599520185714522</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>0.28660112389497816</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0.2872070459328111</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>0.28781296797064404</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>0.28841889000847698</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0.28902481204630992</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0.28963073408414286</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0.2902366561219758</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>0.29084257815980902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.23732835039141681</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.23983566529799971</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.24234298020458261</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.24485029511116552</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.24735761001774842</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.24986492492433132</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.25237223983091422</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.25487955473749713</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.25738686964408003</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.25989418455066293</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.26083568219328729</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.26177717983591164</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0.262718677478536</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.26366017512116036</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.26460167276378471</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0.26554317040640907</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.26648466804903342</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0.26742616569165778</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0.26836766333428214</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0.26930916097690649</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0.27025065861953085</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0.2711921562621552</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0.27213365390477956</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0.27307515154740392</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0.27401664919002827</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>0.27495814683265263</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>0.27589964447527698</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0.27684114211790134</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0.2777826397605257</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>0.27872413740314994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.2336927437768716</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.2350717669754922</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0.2364507901741128</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0.2378298133727334</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0.239208836571354</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0.2405878597699746</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0.2419668829685952</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0.2433459061672158</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0.2447249293658364</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0.246103952564457</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0.2474829757630776</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0.24886199896169819</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>0.25024102216031879</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0.25162004535893939</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>0.25299906855755999</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>0.25437809175618059</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0.25575711495480119</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0.25713613815342179</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>0.25851516135204239</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>0.25989418455066293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>0.23653284938051455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+      <c r="AK12" s="6">
+        <v>0.23482103548483391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0.232313720578251</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>0.232313720578251</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386A4036-A1BA-44AA-B2F5-FF36B840A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A71ACF-5D57-4902-BC2F-E18B346237C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="102">
   <si>
     <t>p</t>
   </si>
@@ -125,48 +125,9 @@
     <t>Nuclear-SMR_New</t>
   </si>
   <si>
-    <t>OffshoreWind_1_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_10_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_11_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_12_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_13_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_14_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_2_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_3_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_4_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_5_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_6_New</t>
-  </si>
-  <si>
     <t>OffshoreWind_7_New</t>
   </si>
   <si>
-    <t>OffshoreWind_8_New</t>
-  </si>
-  <si>
-    <t>OffshoreWind_9_New</t>
-  </si>
-  <si>
     <t>ResidentialPV_New</t>
   </si>
   <si>
@@ -378,6 +339,12 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>LAND</t>
+  </si>
+  <si>
+    <t>OFFSHORE</t>
   </si>
 </sst>
 </file>
@@ -442,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,10 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,145 +770,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1024,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1044,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1064,10 +1027,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1084,10 +1047,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1104,10 +1067,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1124,10 +1087,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1144,10 +1107,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1164,10 +1127,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1184,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1204,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1224,10 +1187,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1244,10 +1207,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1264,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1284,10 +1247,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1304,10 +1267,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1324,10 +1287,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1344,10 +1307,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1364,10 +1327,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1384,10 +1347,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1404,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1424,10 +1387,10 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1444,10 +1407,10 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1464,10 +1427,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1484,10 +1447,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1504,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1524,10 +1487,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1544,10 +1507,10 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1564,10 +1527,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1584,10 +1547,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1604,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1624,10 +1587,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1644,10 +1607,10 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1664,10 +1627,10 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1684,10 +1647,10 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1704,10 +1667,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1724,10 +1687,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1744,10 +1707,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1764,10 +1727,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1784,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1804,10 +1767,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1824,10 +1787,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1841,13 +1804,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1861,13 +1824,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
         <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1875,19 +1838,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1895,19 +1858,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1915,281 +1878,21 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61">
         <v>1</v>
       </c>
     </row>
@@ -2200,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:AK13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2211,26 +1914,26 @@
     <col min="1" max="3" width="9.140625" style="5"/>
     <col min="4" max="4" width="21.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
     <col min="7" max="38" width="6.140625" style="5" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>9</v>
@@ -2334,19 +2037,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G2" s="5">
         <v>0.15430339646551175</v>
@@ -2447,19 +2150,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5">
         <v>0.1531866860427854</v>
@@ -2560,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5">
         <v>0.15155102652611524</v>
@@ -2673,19 +2376,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G5" s="5">
         <v>0.15049311805235732</v>
@@ -2786,19 +2489,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5">
         <v>0.15013521014437531</v>
@@ -2899,19 +2602,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5">
         <v>0.14990328410944515</v>
@@ -3007,342 +2710,342 @@
         <v>0.15245447049367689</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="6">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.2407519781827781</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.24497110698504165</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.2491902357873052</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.25340936458956875</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.2576284933918323</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0.26184762219409585</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>0.2660667509963594</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.27028587979862295</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>0.2745050086008865</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.27872413740314994</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>0.27933005944098288</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>0.27993598147881582</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>0.28054190351664876</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>0.2811478255544817</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>0.28175374759231464</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>0.28235966963014758</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>0.28296559166798052</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <v>0.28357151370581346</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <v>0.2841774357436464</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <v>0.28478335778147934</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <v>0.28538927981931228</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="5">
         <v>0.28599520185714522</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="5">
         <v>0.28660112389497816</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <v>0.2872070459328111</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <v>0.28781296797064404</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <v>0.28841889000847698</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="5">
         <v>0.28902481204630992</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="5">
         <v>0.28963073408414286</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="5">
         <v>0.2902366561219758</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="5">
         <v>0.29084257815980902</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="6">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.23732835039141681</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.23983566529799971</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.24234298020458261</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.24485029511116552</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.24735761001774842</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.24986492492433132</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>0.25237223983091422</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0.25487955473749713</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>0.25738686964408003</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>0.25989418455066293</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>0.26083568219328729</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>0.26177717983591164</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>0.262718677478536</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>0.26366017512116036</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>0.26460167276378471</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>0.26554317040640907</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>0.26648466804903342</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>0.26742616569165778</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <v>0.26836766333428214</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <v>0.26930916097690649</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <v>0.27025065861953085</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <v>0.2711921562621552</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <v>0.27213365390477956</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <v>0.27307515154740392</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <v>0.27401664919002827</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <v>0.27495814683265263</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AH9" s="5">
         <v>0.27589964447527698</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <v>0.27684114211790134</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="5">
         <v>0.2777826397605257</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="5">
         <v>0.27872413740314994</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="6">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>0.2336927437768716</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>0.2350717669754922</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>0.2364507901741128</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>0.2378298133727334</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>0.239208836571354</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>0.2405878597699746</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>0.2419668829685952</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>0.2433459061672158</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <v>0.2447249293658364</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <v>0.246103952564457</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <v>0.2474829757630776</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <v>0.24886199896169819</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <v>0.25024102216031879</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <v>0.25162004535893939</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <v>0.25299906855755999</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="5">
         <v>0.25437809175618059</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="5">
         <v>0.25575711495480119</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="5">
         <v>0.25713613815342179</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="5">
         <v>0.25851516135204239</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="5">
         <v>0.25989418455066293</v>
       </c>
     </row>
@@ -3351,111 +3054,111 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="6">
+        <v>68</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="5">
         <v>0.23653284938051455</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="5">
         <v>0.23653284938051455</v>
       </c>
     </row>
@@ -3464,111 +3167,111 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="6">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="5">
         <v>0.23482103548483391</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="5">
         <v>0.23482103548483391</v>
       </c>
     </row>
@@ -3577,112 +3280,1102 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="6">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="5">
         <v>0.232313720578251</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="5">
         <v>0.232313720578251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <v>1</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45D1FC-2B03-4D74-B877-2E99B55C0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CE1B8-99A9-453F-8DA9-A888E4CE2831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="105">
   <si>
     <t>p</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Used for CF Growth Only Data is region dependent and represented in python code Class 8</t>
+  </si>
+  <si>
+    <t>HYDRO</t>
   </si>
 </sst>
 </file>
@@ -925,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4185,6 +4188,232 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8EDEE2-31A6-47C8-97CF-9E332CABB43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5B0B85-65E7-4D13-B695-820C3BDD692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
     <sheet name="commodities" sheetId="3" r:id="rId2"/>
     <sheet name="Efficiency" sheetId="2" r:id="rId3"/>
-    <sheet name="CapacityFactorTech" sheetId="4" r:id="rId4"/>
+    <sheet name="CapacityFactor" sheetId="4" r:id="rId4"/>
+    <sheet name="Emissions_Calculations" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="129">
   <si>
     <t>p</t>
   </si>
@@ -302,9 +303,6 @@
     <t>CF Distribution</t>
   </si>
   <si>
-    <t>GHI</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -369,6 +367,66 @@
   </si>
   <si>
     <t>from EIA 5.2% T%D loss, from duke distribution losses 1.53x transmission</t>
+  </si>
+  <si>
+    <t>Data from NC Average Energy Statistcs from EIA</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Generation 2021 [MWh]</t>
+  </si>
+  <si>
+    <t>Resource Used</t>
+  </si>
+  <si>
+    <t>Petroleum - GT</t>
+  </si>
+  <si>
+    <t>Petroleum - IC</t>
+  </si>
+  <si>
+    <t>Petroleum - ST</t>
+  </si>
+  <si>
+    <t>Petroleum - OTH</t>
+  </si>
+  <si>
+    <t>Natural gas - ST</t>
+  </si>
+  <si>
+    <t>Natural gas - GT</t>
+  </si>
+  <si>
+    <t>Natural gas - CC</t>
+  </si>
+  <si>
+    <t>Other biomass</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>SO2 (short tons)</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nox (short tons)</t>
+  </si>
+  <si>
+    <t>CO2 (thousand metric tons)</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>SOL_EIA930</t>
+  </si>
+  <si>
+    <t>EIA930</t>
   </si>
 </sst>
 </file>
@@ -439,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -979,10 +1040,10 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -1098,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -1211,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -1324,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -1437,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>44</v>
@@ -1550,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
@@ -1663,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -1776,7 +1837,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
@@ -1889,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>36</v>
@@ -2002,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -2115,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
@@ -2228,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>21</v>
@@ -2341,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
@@ -2454,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>40</v>
@@ -2567,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -2680,7 +2741,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>42</v>
@@ -2793,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
@@ -2906,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>32</v>
@@ -3019,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>33</v>
@@ -3132,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>34</v>
@@ -3245,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
@@ -3358,7 +3419,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -3471,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
@@ -3584,7 +3645,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>46</v>
@@ -3694,13 +3755,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>65</v>
@@ -3709,128 +3770,97 @@
         <v>57</v>
       </c>
       <c r="G25" s="7">
-        <f>CapacityFactorTech!G12/CapacityFactorTech!$G$12</f>
         <v>1</v>
       </c>
       <c r="H25" s="7">
-        <f>CapacityFactorTech!H12/CapacityFactorTech!$G$12</f>
-        <v>1.015094099378882</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <f>CapacityFactorTech!I12/CapacityFactorTech!$G$12</f>
-        <v>1.0301881987577641</v>
+        <v>1</v>
       </c>
       <c r="J25" s="7">
-        <f>CapacityFactorTech!J12/CapacityFactorTech!$G$12</f>
-        <v>1.0452822981366461</v>
+        <v>1</v>
       </c>
       <c r="K25" s="7">
-        <f>CapacityFactorTech!K12/CapacityFactorTech!$G$12</f>
-        <v>1.0603763975155278</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
-        <f>CapacityFactorTech!L12/CapacityFactorTech!$G$12</f>
-        <v>1.07547049689441</v>
+        <v>1</v>
       </c>
       <c r="M25" s="7">
-        <f>CapacityFactorTech!M12/CapacityFactorTech!$G$12</f>
-        <v>1.0905645962732919</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <f>CapacityFactorTech!N12/CapacityFactorTech!$G$12</f>
-        <v>1.1056586956521739</v>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
-        <f>CapacityFactorTech!O12/CapacityFactorTech!$G$12</f>
-        <v>1.1207527950310561</v>
+        <v>1</v>
       </c>
       <c r="P25" s="7">
-        <f>CapacityFactorTech!P12/CapacityFactorTech!$G$12</f>
-        <v>1.135846894409938</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="7">
-        <f>CapacityFactorTech!Q12/CapacityFactorTech!$G$12</f>
-        <v>1.15094099378882</v>
+        <v>1</v>
       </c>
       <c r="R25" s="7">
-        <f>CapacityFactorTech!R12/CapacityFactorTech!$G$12</f>
-        <v>1.1561202282608696</v>
+        <v>1</v>
       </c>
       <c r="S25" s="7">
-        <f>CapacityFactorTech!S12/CapacityFactorTech!$G$12</f>
-        <v>1.1612994627329192</v>
+        <v>1</v>
       </c>
       <c r="T25" s="7">
-        <f>CapacityFactorTech!T12/CapacityFactorTech!$G$12</f>
-        <v>1.166478697204969</v>
+        <v>1</v>
       </c>
       <c r="U25" s="7">
-        <f>CapacityFactorTech!U12/CapacityFactorTech!$G$12</f>
-        <v>1.1716579316770186</v>
+        <v>1</v>
       </c>
       <c r="V25" s="7">
-        <f>CapacityFactorTech!V12/CapacityFactorTech!$G$12</f>
-        <v>1.1768371661490684</v>
+        <v>1</v>
       </c>
       <c r="W25" s="7">
-        <f>CapacityFactorTech!W12/CapacityFactorTech!$G$12</f>
-        <v>1.182016400621118</v>
+        <v>1</v>
       </c>
       <c r="X25" s="7">
-        <f>CapacityFactorTech!X12/CapacityFactorTech!$G$12</f>
-        <v>1.1871956350931678</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="7">
-        <f>CapacityFactorTech!Y12/CapacityFactorTech!$G$12</f>
-        <v>1.1923748695652174</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="7">
-        <f>CapacityFactorTech!Z12/CapacityFactorTech!$G$12</f>
-        <v>1.197554104037267</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="7">
-        <f>CapacityFactorTech!AA12/CapacityFactorTech!$G$12</f>
-        <v>1.2027333385093169</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="7">
-        <f>CapacityFactorTech!AB12/CapacityFactorTech!$G$12</f>
-        <v>1.2079125729813665</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="7">
-        <f>CapacityFactorTech!AC12/CapacityFactorTech!$G$12</f>
-        <v>1.2130918074534163</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="7">
-        <f>CapacityFactorTech!AD12/CapacityFactorTech!$G$12</f>
-        <v>1.2182710419254659</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="7">
-        <f>CapacityFactorTech!AE12/CapacityFactorTech!$G$12</f>
-        <v>1.2234502763975157</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="7">
-        <f>CapacityFactorTech!AF12/CapacityFactorTech!$G$12</f>
-        <v>1.2286295108695653</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="7">
-        <f>CapacityFactorTech!AG12/CapacityFactorTech!$G$12</f>
-        <v>1.2338087453416149</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="7">
-        <f>CapacityFactorTech!AH12/CapacityFactorTech!$G$12</f>
-        <v>1.2389879798136647</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="7">
-        <f>CapacityFactorTech!AI12/CapacityFactorTech!$G$12</f>
-        <v>1.2441672142857143</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="7">
-        <f>CapacityFactorTech!AJ12/CapacityFactorTech!$G$12</f>
-        <v>1.2493464487577641</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="7">
-        <f>CapacityFactorTech!AK12/CapacityFactorTech!$G$12</f>
-        <v>1.2545256832298137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3838,13 +3868,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>65</v>
@@ -3853,128 +3883,97 @@
         <v>57</v>
       </c>
       <c r="G26" s="7">
-        <f>CapacityFactorTech!G13/CapacityFactorTech!$G$13</f>
         <v>1</v>
       </c>
       <c r="H26" s="7">
-        <f>CapacityFactorTech!H13/CapacityFactorTech!$G$13</f>
-        <v>1.0074503105590062</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <f>CapacityFactorTech!I13/CapacityFactorTech!$G$13</f>
-        <v>1.0149006211180125</v>
+        <v>1</v>
       </c>
       <c r="J26" s="7">
-        <f>CapacityFactorTech!J13/CapacityFactorTech!$G$13</f>
-        <v>1.0223509316770187</v>
+        <v>1</v>
       </c>
       <c r="K26" s="7">
-        <f>CapacityFactorTech!K13/CapacityFactorTech!$G$13</f>
-        <v>1.0298012422360248</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7">
-        <f>CapacityFactorTech!L13/CapacityFactorTech!$G$13</f>
-        <v>1.037251552795031</v>
+        <v>1</v>
       </c>
       <c r="M26" s="7">
-        <f>CapacityFactorTech!M13/CapacityFactorTech!$G$13</f>
-        <v>1.0447018633540373</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <f>CapacityFactorTech!N13/CapacityFactorTech!$G$13</f>
-        <v>1.0521521739130435</v>
+        <v>1</v>
       </c>
       <c r="O26" s="7">
-        <f>CapacityFactorTech!O13/CapacityFactorTech!$G$13</f>
-        <v>1.0596024844720497</v>
+        <v>1</v>
       </c>
       <c r="P26" s="7">
-        <f>CapacityFactorTech!P13/CapacityFactorTech!$G$13</f>
-        <v>1.067052795031056</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="7">
-        <f>CapacityFactorTech!Q13/CapacityFactorTech!$G$13</f>
-        <v>1.0745031055900622</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7">
-        <f>CapacityFactorTech!R13/CapacityFactorTech!$G$13</f>
-        <v>1.0769207375776397</v>
+        <v>1</v>
       </c>
       <c r="S26" s="7">
-        <f>CapacityFactorTech!S13/CapacityFactorTech!$G$13</f>
-        <v>1.0793383695652172</v>
+        <v>1</v>
       </c>
       <c r="T26" s="7">
-        <f>CapacityFactorTech!T13/CapacityFactorTech!$G$13</f>
-        <v>1.0817560015527952</v>
+        <v>1</v>
       </c>
       <c r="U26" s="7">
-        <f>CapacityFactorTech!U13/CapacityFactorTech!$G$13</f>
-        <v>1.0841736335403727</v>
+        <v>1</v>
       </c>
       <c r="V26" s="7">
-        <f>CapacityFactorTech!V13/CapacityFactorTech!$G$13</f>
-        <v>1.0865912655279504</v>
+        <v>1</v>
       </c>
       <c r="W26" s="7">
-        <f>CapacityFactorTech!W13/CapacityFactorTech!$G$13</f>
-        <v>1.0890088975155281</v>
+        <v>1</v>
       </c>
       <c r="X26" s="7">
-        <f>CapacityFactorTech!X13/CapacityFactorTech!$G$13</f>
-        <v>1.0914265295031058</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="7">
-        <f>CapacityFactorTech!Y13/CapacityFactorTech!$G$13</f>
-        <v>1.0938441614906833</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="7">
-        <f>CapacityFactorTech!Z13/CapacityFactorTech!$G$13</f>
-        <v>1.0962617934782608</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="7">
-        <f>CapacityFactorTech!AA13/CapacityFactorTech!$G$13</f>
-        <v>1.0986794254658385</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="7">
-        <f>CapacityFactorTech!AB13/CapacityFactorTech!$G$13</f>
-        <v>1.1010970574534162</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="7">
-        <f>CapacityFactorTech!AC13/CapacityFactorTech!$G$13</f>
-        <v>1.1035146894409937</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="7">
-        <f>CapacityFactorTech!AD13/CapacityFactorTech!$G$13</f>
-        <v>1.1059323214285715</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="7">
-        <f>CapacityFactorTech!AE13/CapacityFactorTech!$G$13</f>
-        <v>1.1083499534161492</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="7">
-        <f>CapacityFactorTech!AF13/CapacityFactorTech!$G$13</f>
-        <v>1.1107675854037267</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="7">
-        <f>CapacityFactorTech!AG13/CapacityFactorTech!$G$13</f>
-        <v>1.1131852173913044</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="7">
-        <f>CapacityFactorTech!AH13/CapacityFactorTech!$G$13</f>
-        <v>1.1156028493788819</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="7">
-        <f>CapacityFactorTech!AI13/CapacityFactorTech!$G$13</f>
-        <v>1.1180204813664596</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="7">
-        <f>CapacityFactorTech!AJ13/CapacityFactorTech!$G$13</f>
-        <v>1.1204381133540373</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="7">
-        <f>CapacityFactorTech!AK13/CapacityFactorTech!$G$13</f>
-        <v>1.1228557453416148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3982,13 +3981,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>65</v>
@@ -3997,128 +3996,97 @@
         <v>57</v>
       </c>
       <c r="G27" s="7">
-        <f>CapacityFactorTech!G14/CapacityFactorTech!$G$14</f>
         <v>1</v>
       </c>
       <c r="H27" s="7">
-        <f>CapacityFactorTech!H14/CapacityFactorTech!$G$14</f>
-        <v>1.0000018633540373</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <f>CapacityFactorTech!I14/CapacityFactorTech!$G$14</f>
-        <v>1.0000037267080744</v>
+        <v>1</v>
       </c>
       <c r="J27" s="7">
-        <f>CapacityFactorTech!J14/CapacityFactorTech!$G$14</f>
-        <v>1.0000055900621119</v>
+        <v>1</v>
       </c>
       <c r="K27" s="7">
-        <f>CapacityFactorTech!K14/CapacityFactorTech!$G$14</f>
-        <v>1.0000074534161492</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7">
-        <f>CapacityFactorTech!L14/CapacityFactorTech!$G$14</f>
-        <v>1.0000093167701865</v>
+        <v>1</v>
       </c>
       <c r="M27" s="7">
-        <f>CapacityFactorTech!M14/CapacityFactorTech!$G$14</f>
-        <v>1.0000111801242237</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <f>CapacityFactorTech!N14/CapacityFactorTech!$G$14</f>
-        <v>1.0000130434782608</v>
+        <v>1</v>
       </c>
       <c r="O27" s="7">
-        <f>CapacityFactorTech!O14/CapacityFactorTech!$G$14</f>
-        <v>1.0000149068322983</v>
+        <v>1</v>
       </c>
       <c r="P27" s="7">
-        <f>CapacityFactorTech!P14/CapacityFactorTech!$G$14</f>
-        <v>1.0000167701863354</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="7">
-        <f>CapacityFactorTech!Q14/CapacityFactorTech!$G$14</f>
-        <v>1.0000186335403727</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7">
-        <f>CapacityFactorTech!R14/CapacityFactorTech!$G$14</f>
-        <v>1.0011436545031056</v>
+        <v>1</v>
       </c>
       <c r="S27" s="7">
-        <f>CapacityFactorTech!S14/CapacityFactorTech!$G$14</f>
-        <v>1.0022686754658385</v>
+        <v>1</v>
       </c>
       <c r="T27" s="7">
-        <f>CapacityFactorTech!T14/CapacityFactorTech!$G$14</f>
-        <v>1.0033936964285715</v>
+        <v>1</v>
       </c>
       <c r="U27" s="7">
-        <f>CapacityFactorTech!U14/CapacityFactorTech!$G$14</f>
-        <v>1.0045187173913044</v>
+        <v>1</v>
       </c>
       <c r="V27" s="7">
-        <f>CapacityFactorTech!V14/CapacityFactorTech!$G$14</f>
-        <v>1.0056437383540373</v>
+        <v>1</v>
       </c>
       <c r="W27" s="7">
-        <f>CapacityFactorTech!W14/CapacityFactorTech!$G$14</f>
-        <v>1.0067687593167702</v>
+        <v>1</v>
       </c>
       <c r="X27" s="7">
-        <f>CapacityFactorTech!X14/CapacityFactorTech!$G$14</f>
-        <v>1.0078937802795032</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="7">
-        <f>CapacityFactorTech!Y14/CapacityFactorTech!$G$14</f>
-        <v>1.0090188012422361</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="7">
-        <f>CapacityFactorTech!Z14/CapacityFactorTech!$G$14</f>
-        <v>1.010143822204969</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="7">
-        <f>CapacityFactorTech!AA14/CapacityFactorTech!$G$14</f>
-        <v>1.0112688431677019</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="7">
-        <f>CapacityFactorTech!AB14/CapacityFactorTech!$G$14</f>
-        <v>1.0123938641304349</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="7">
-        <f>CapacityFactorTech!AC14/CapacityFactorTech!$G$14</f>
-        <v>1.0135188850931678</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="7">
-        <f>CapacityFactorTech!AD14/CapacityFactorTech!$G$14</f>
-        <v>1.0146439060559005</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="7">
-        <f>CapacityFactorTech!AE14/CapacityFactorTech!$G$14</f>
-        <v>1.0157689270186336</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="7">
-        <f>CapacityFactorTech!AF14/CapacityFactorTech!$G$14</f>
-        <v>1.0168939479813666</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="7">
-        <f>CapacityFactorTech!AG14/CapacityFactorTech!$G$14</f>
-        <v>1.0180189689440995</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="7">
-        <f>CapacityFactorTech!AH14/CapacityFactorTech!$G$14</f>
-        <v>1.0191439899068322</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="7">
-        <f>CapacityFactorTech!AI14/CapacityFactorTech!$G$14</f>
-        <v>1.0202690108695651</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="7">
-        <f>CapacityFactorTech!AJ14/CapacityFactorTech!$G$14</f>
-        <v>1.0213940318322983</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="7">
-        <f>CapacityFactorTech!AK14/CapacityFactorTech!$G$14</f>
-        <v>1.0225190527950312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4126,13 +4094,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>65</v>
@@ -4141,128 +4109,97 @@
         <v>57</v>
       </c>
       <c r="G28" s="7">
-        <f>CapacityFactorTech!G15/CapacityFactorTech!$G$15</f>
         <v>1</v>
       </c>
       <c r="H28" s="7">
-        <f>CapacityFactorTech!H15/CapacityFactorTech!$G$15</f>
-        <v>1.0223638601243115</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <f>CapacityFactorTech!I15/CapacityFactorTech!$G$15</f>
-        <v>1.0420940800566942</v>
+        <v>1</v>
       </c>
       <c r="J28" s="7">
-        <f>CapacityFactorTech!J15/CapacityFactorTech!$G$15</f>
-        <v>1.0601551537242497</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7">
-        <f>CapacityFactorTech!K15/CapacityFactorTech!$G$15</f>
-        <v>1.0770625960331754</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
-        <f>CapacityFactorTech!L15/CapacityFactorTech!$G$15</f>
-        <v>1.093124598380115</v>
+        <v>1</v>
       </c>
       <c r="M28" s="7">
-        <f>CapacityFactorTech!M15/CapacityFactorTech!$G$15</f>
-        <v>1.1085402007831557</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <f>CapacityFactorTech!N15/CapacityFactorTech!$G$15</f>
-        <v>1.123445450704097</v>
+        <v>1</v>
       </c>
       <c r="O28" s="7">
-        <f>CapacityFactorTech!O15/CapacityFactorTech!$G$15</f>
-        <v>1.1379374743267845</v>
+        <v>1</v>
       </c>
       <c r="P28" s="7">
-        <f>CapacityFactorTech!P15/CapacityFactorTech!$G$15</f>
-        <v>1.1520880439596028</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="7">
-        <f>CapacityFactorTech!Q15/CapacityFactorTech!$G$15</f>
-        <v>1.1659517035777609</v>
+        <v>1</v>
       </c>
       <c r="R28" s="7">
-        <f>CapacityFactorTech!R15/CapacityFactorTech!$G$15</f>
-        <v>1.172321446337665</v>
+        <v>1</v>
       </c>
       <c r="S28" s="7">
-        <f>CapacityFactorTech!S15/CapacityFactorTech!$G$15</f>
-        <v>1.1784803566424404</v>
+        <v>1</v>
       </c>
       <c r="T28" s="7">
-        <f>CapacityFactorTech!T15/CapacityFactorTech!$G$15</f>
-        <v>1.1844555779470043</v>
+        <v>1</v>
       </c>
       <c r="U28" s="7">
-        <f>CapacityFactorTech!U15/CapacityFactorTech!$G$15</f>
-        <v>1.1902693230079116</v>
+        <v>1</v>
       </c>
       <c r="V28" s="7">
-        <f>CapacityFactorTech!V15/CapacityFactorTech!$G$15</f>
-        <v>1.1959400007206804</v>
+        <v>1</v>
       </c>
       <c r="W28" s="7">
-        <f>CapacityFactorTech!W15/CapacityFactorTech!$G$15</f>
-        <v>1.2014830383041817</v>
+        <v>1</v>
       </c>
       <c r="X28" s="7">
-        <f>CapacityFactorTech!X15/CapacityFactorTech!$G$15</f>
-        <v>1.206911492636408</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="7">
-        <f>CapacityFactorTech!Y15/CapacityFactorTech!$G$15</f>
-        <v>1.2122365124843073</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="7">
-        <f>CapacityFactorTech!Z15/CapacityFactorTech!$G$15</f>
-        <v>1.2174676932527517</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="7">
-        <f>CapacityFactorTech!AA15/CapacityFactorTech!$G$15</f>
-        <v>1.2226133529198899</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="7">
-        <f>CapacityFactorTech!AB15/CapacityFactorTech!$G$15</f>
-        <v>1.2276807492831265</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="7">
-        <f>CapacityFactorTech!AC15/CapacityFactorTech!$G$15</f>
-        <v>1.2326762528882649</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="7">
-        <f>CapacityFactorTech!AD15/CapacityFactorTech!$G$15</f>
-        <v>1.2376054860680854</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="7">
-        <f>CapacityFactorTech!AE15/CapacityFactorTech!$G$15</f>
-        <v>1.2424734357622051</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="7">
-        <f>CapacityFactorTech!AF15/CapacityFactorTech!$G$15</f>
-        <v>1.2472845458371127</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="7">
-        <f>CapacityFactorTech!AG15/CapacityFactorTech!$G$15</f>
-        <v>1.2520427932207403</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="7">
-        <f>CapacityFactorTech!AH15/CapacityFactorTech!$G$15</f>
-        <v>1.2567517511422179</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="7">
-        <f>CapacityFactorTech!AI15/CapacityFactorTech!$G$15</f>
-        <v>1.2614146420124306</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="7">
-        <f>CapacityFactorTech!AJ15/CapacityFactorTech!$G$15</f>
-        <v>1.2660343819175714</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="7">
-        <f>CapacityFactorTech!AK15/CapacityFactorTech!$G$15</f>
-        <v>1.2706136182732792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4270,13 +4207,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>65</v>
@@ -4285,128 +4222,97 @@
         <v>57</v>
       </c>
       <c r="G29" s="7">
-        <f>CapacityFactorTech!G16/CapacityFactorTech!$G$16</f>
         <v>1</v>
       </c>
       <c r="H29" s="7">
-        <f>CapacityFactorTech!H16/CapacityFactorTech!$G$16</f>
-        <v>1.0178179576106379</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <f>CapacityFactorTech!I16/CapacityFactorTech!$G$16</f>
-        <v>1.0334263125001477</v>
+        <v>1</v>
       </c>
       <c r="J29" s="7">
-        <f>CapacityFactorTech!J16/CapacityFactorTech!$G$16</f>
-        <v>1.0476370464249372</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7">
-        <f>CapacityFactorTech!K16/CapacityFactorTech!$G$16</f>
-        <v>1.0608832951817202</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
-        <f>CapacityFactorTech!L16/CapacityFactorTech!$G$16</f>
-        <v>1.0734236022418564</v>
+        <v>1</v>
       </c>
       <c r="M29" s="7">
-        <f>CapacityFactorTech!M16/CapacityFactorTech!$G$16</f>
-        <v>1.0854247334455152</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <f>CapacityFactorTech!N16/CapacityFactorTech!$G$16</f>
-        <v>1.0970005553376452</v>
+        <v>1</v>
       </c>
       <c r="O29" s="7">
-        <f>CapacityFactorTech!O16/CapacityFactorTech!$G$16</f>
-        <v>1.1082322842902603</v>
+        <v>1</v>
       </c>
       <c r="P29" s="7">
-        <f>CapacityFactorTech!P16/CapacityFactorTech!$G$16</f>
-        <v>1.1191798874687111</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
-        <f>CapacityFactorTech!Q16/CapacityFactorTech!$G$16</f>
-        <v>1.1298889045994522</v>
+        <v>1</v>
       </c>
       <c r="R29" s="7">
-        <f>CapacityFactorTech!R16/CapacityFactorTech!$G$16</f>
-        <v>1.1350823356275892</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
-        <f>CapacityFactorTech!S16/CapacityFactorTech!$G$16</f>
-        <v>1.1401006411624084</v>
+        <v>1</v>
       </c>
       <c r="T29" s="7">
-        <f>CapacityFactorTech!T16/CapacityFactorTech!$G$16</f>
-        <v>1.1449664432856317</v>
+        <v>1</v>
       </c>
       <c r="U29" s="7">
-        <f>CapacityFactorTech!U16/CapacityFactorTech!$G$16</f>
-        <v>1.1496982453971143</v>
+        <v>1</v>
       </c>
       <c r="V29" s="7">
-        <f>CapacityFactorTech!V16/CapacityFactorTech!$G$16</f>
-        <v>1.1543113750871978</v>
+        <v>1</v>
       </c>
       <c r="W29" s="7">
-        <f>CapacityFactorTech!W16/CapacityFactorTech!$G$16</f>
-        <v>1.1588186717431013</v>
+        <v>1</v>
       </c>
       <c r="X29" s="7">
-        <f>CapacityFactorTech!X16/CapacityFactorTech!$G$16</f>
-        <v>1.1632309975772341</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="7">
-        <f>CapacityFactorTech!Y16/CapacityFactorTech!$G$16</f>
-        <v>1.1675576238439811</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="7">
-        <f>CapacityFactorTech!Z16/CapacityFactorTech!$G$16</f>
-        <v>1.1718065271277567</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="7">
-        <f>CapacityFactorTech!AA16/CapacityFactorTech!$G$16</f>
-        <v>1.1759846197155668</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="7">
-        <f>CapacityFactorTech!AB16/CapacityFactorTech!$G$16</f>
-        <v>1.180097930904116</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="7">
-        <f>CapacityFactorTech!AC16/CapacityFactorTech!$G$16</f>
-        <v>1.1841517512709303</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="7">
-        <f>CapacityFactorTech!AD16/CapacityFactorTech!$G$16</f>
-        <v>1.1881507486327629</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="7">
-        <f>CapacityFactorTech!AE16/CapacityFactorTech!$G$16</f>
-        <v>1.1920990621077749</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="7">
-        <f>CapacityFactorTech!AF16/CapacityFactorTech!$G$16</f>
-        <v>1.1960003790629916</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="7">
-        <f>CapacityFactorTech!AG16/CapacityFactorTech!$G$16</f>
-        <v>1.1998579985530629</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="7">
-        <f>CapacityFactorTech!AH16/CapacityFactorTech!$G$16</f>
-        <v>1.2036748839999047</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="7">
-        <f>CapacityFactorTech!AI16/CapacityFactorTech!$G$16</f>
-        <v>1.2074537072312701</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="7">
-        <f>CapacityFactorTech!AJ16/CapacityFactorTech!$G$16</f>
-        <v>1.2111968855252204</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="7">
-        <f>CapacityFactorTech!AK16/CapacityFactorTech!$G$16</f>
-        <v>1.2149066129525192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4414,13 +4320,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>65</v>
@@ -4429,128 +4335,97 @@
         <v>57</v>
       </c>
       <c r="G30" s="7">
-        <f>CapacityFactorTech!G17/CapacityFactorTech!$G$17</f>
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <f>CapacityFactorTech!H17/CapacityFactorTech!$G$17</f>
-        <v>1.0076320210259839</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <f>CapacityFactorTech!I17/CapacityFactorTech!$G$17</f>
-        <v>1.0141406124899213</v>
+        <v>1</v>
       </c>
       <c r="J30" s="7">
-        <f>CapacityFactorTech!J17/CapacityFactorTech!$G$17</f>
-        <v>1.0199421412882141</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7">
-        <f>CapacityFactorTech!K17/CapacityFactorTech!$G$17</f>
-        <v>1.0252576051000952</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
-        <f>CapacityFactorTech!L17/CapacityFactorTech!$G$17</f>
-        <v>1.0302184111679342</v>
+        <v>1</v>
       </c>
       <c r="M30" s="7">
-        <f>CapacityFactorTech!M17/CapacityFactorTech!$G$17</f>
-        <v>1.034909053299125</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <f>CapacityFactorTech!N17/CapacityFactorTech!$G$17</f>
-        <v>1.0393870702142025</v>
+        <v>1</v>
       </c>
       <c r="O30" s="7">
-        <f>CapacityFactorTech!O17/CapacityFactorTech!$G$17</f>
-        <v>1.0436934078445677</v>
+        <v>1</v>
       </c>
       <c r="P30" s="7">
-        <f>CapacityFactorTech!P17/CapacityFactorTech!$G$17</f>
-        <v>1.0478582381517958</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="7">
-        <f>CapacityFactorTech!Q17/CapacityFactorTech!$G$17</f>
-        <v>1.0519044327957534</v>
+        <v>1</v>
       </c>
       <c r="R30" s="7">
-        <f>CapacityFactorTech!R17/CapacityFactorTech!$G$17</f>
-        <v>1.0544960707201581</v>
+        <v>1</v>
       </c>
       <c r="S30" s="7">
-        <f>CapacityFactorTech!S17/CapacityFactorTech!$G$17</f>
-        <v>1.0570008724739939</v>
+        <v>1</v>
       </c>
       <c r="T30" s="7">
-        <f>CapacityFactorTech!T17/CapacityFactorTech!$G$17</f>
-        <v>1.0594301490051803</v>
+        <v>1</v>
       </c>
       <c r="U30" s="7">
-        <f>CapacityFactorTech!U17/CapacityFactorTech!$G$17</f>
-        <v>1.061793140315507</v>
+        <v>1</v>
       </c>
       <c r="V30" s="7">
-        <f>CapacityFactorTech!V17/CapacityFactorTech!$G$17</f>
-        <v>1.0640974915745429</v>
+        <v>1</v>
       </c>
       <c r="W30" s="7">
-        <f>CapacityFactorTech!W17/CapacityFactorTech!$G$17</f>
-        <v>1.0663495998927242</v>
+        <v>1</v>
       </c>
       <c r="X30" s="7">
-        <f>CapacityFactorTech!X17/CapacityFactorTech!$G$17</f>
-        <v>1.0685548717380686</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="7">
-        <f>CapacityFactorTech!Y17/CapacityFactorTech!$G$17</f>
-        <v>1.0707179172675942</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="7">
-        <f>CapacityFactorTech!Z17/CapacityFactorTech!$G$17</f>
-        <v>1.0728426992551154</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="7">
-        <f>CapacityFactorTech!AA17/CapacityFactorTech!$G$17</f>
-        <v>1.0749326487739421</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="7">
-        <f>CapacityFactorTech!AB17/CapacityFactorTech!$G$17</f>
-        <v>1.0769907561571872</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="7">
-        <f>CapacityFactorTech!AC17/CapacityFactorTech!$G$17</f>
-        <v>1.0790196433141956</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="7">
-        <f>CapacityFactorTech!AD17/CapacityFactorTech!$G$17</f>
-        <v>1.0810216218068747</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="7">
-        <f>CapacityFactorTech!AE17/CapacityFactorTech!$G$17</f>
-        <v>1.0829987399223313</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="7">
-        <f>CapacityFactorTech!AF17/CapacityFactorTech!$G$17</f>
-        <v>1.0849528211515347</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="7">
-        <f>CapacityFactorTech!AG17/CapacityFactorTech!$G$17</f>
-        <v>1.0868854958898699</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="7">
-        <f>CapacityFactorTech!AH17/CapacityFactorTech!$G$17</f>
-        <v>1.0887982277431241</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="7">
-        <f>CapacityFactorTech!AI17/CapacityFactorTech!$G$17</f>
-        <v>1.0906923355038916</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="7">
-        <f>CapacityFactorTech!AJ17/CapacityFactorTech!$G$17</f>
-        <v>1.0925690116259459</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="7">
-        <f>CapacityFactorTech!AK17/CapacityFactorTech!$G$17</f>
-        <v>1.0944293378453409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4561,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>50</v>
@@ -4671,10 +4546,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>18</v>
@@ -4686,128 +4561,97 @@
         <v>57</v>
       </c>
       <c r="G32" s="7">
-        <f>CapacityFactorTech!G2/CapacityFactorTech!$G$2</f>
         <v>1</v>
       </c>
       <c r="H32" s="7">
-        <f>CapacityFactorTech!H2/CapacityFactorTech!$G$2</f>
-        <v>1.0178373905075491</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <f>CapacityFactorTech!I2/CapacityFactorTech!$G$2</f>
-        <v>1.0356747810150984</v>
+        <v>1</v>
       </c>
       <c r="J32" s="7">
-        <f>CapacityFactorTech!J2/CapacityFactorTech!$G$2</f>
-        <v>1.0535121715226474</v>
+        <v>1</v>
       </c>
       <c r="K32" s="7">
-        <f>CapacityFactorTech!K2/CapacityFactorTech!$G$2</f>
-        <v>1.0713495620301965</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
-        <f>CapacityFactorTech!L2/CapacityFactorTech!$G$2</f>
-        <v>1.0891869525377456</v>
+        <v>1</v>
       </c>
       <c r="M32" s="7">
-        <f>CapacityFactorTech!M2/CapacityFactorTech!$G$2</f>
-        <v>1.1070243430452948</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <f>CapacityFactorTech!N2/CapacityFactorTech!$G$2</f>
-        <v>1.1248617335528439</v>
+        <v>1</v>
       </c>
       <c r="O32" s="7">
-        <f>CapacityFactorTech!O2/CapacityFactorTech!$G$2</f>
-        <v>1.142699124060393</v>
+        <v>1</v>
       </c>
       <c r="P32" s="7">
-        <f>CapacityFactorTech!P2/CapacityFactorTech!$G$2</f>
-        <v>1.1605365145679423</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="7">
-        <f>CapacityFactorTech!Q2/CapacityFactorTech!$G$2</f>
-        <v>1.1783739050754916</v>
+        <v>1</v>
       </c>
       <c r="R32" s="7">
-        <f>CapacityFactorTech!R2/CapacityFactorTech!$G$2</f>
-        <v>1.1809355874778296</v>
+        <v>1</v>
       </c>
       <c r="S32" s="7">
-        <f>CapacityFactorTech!S2/CapacityFactorTech!$G$2</f>
-        <v>1.1834972698801676</v>
+        <v>1</v>
       </c>
       <c r="T32" s="7">
-        <f>CapacityFactorTech!T2/CapacityFactorTech!$G$2</f>
-        <v>1.1860589522825056</v>
+        <v>1</v>
       </c>
       <c r="U32" s="7">
-        <f>CapacityFactorTech!U2/CapacityFactorTech!$G$2</f>
-        <v>1.1886206346848436</v>
+        <v>1</v>
       </c>
       <c r="V32" s="7">
-        <f>CapacityFactorTech!V2/CapacityFactorTech!$G$2</f>
-        <v>1.1911823170871818</v>
+        <v>1</v>
       </c>
       <c r="W32" s="7">
-        <f>CapacityFactorTech!W2/CapacityFactorTech!$G$2</f>
-        <v>1.1937439994895198</v>
+        <v>1</v>
       </c>
       <c r="X32" s="7">
-        <f>CapacityFactorTech!X2/CapacityFactorTech!$G$2</f>
-        <v>1.1963056818918578</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="7">
-        <f>CapacityFactorTech!Y2/CapacityFactorTech!$G$2</f>
-        <v>1.1988673642941958</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="7">
-        <f>CapacityFactorTech!Z2/CapacityFactorTech!$G$2</f>
-        <v>1.2014290466965338</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="7">
-        <f>CapacityFactorTech!AA2/CapacityFactorTech!$G$2</f>
-        <v>1.2039907290988718</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="7">
-        <f>CapacityFactorTech!AB2/CapacityFactorTech!$G$2</f>
-        <v>1.2065524115012101</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="7">
-        <f>CapacityFactorTech!AC2/CapacityFactorTech!$G$2</f>
-        <v>1.2091140939035481</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="7">
-        <f>CapacityFactorTech!AD2/CapacityFactorTech!$G$2</f>
-        <v>1.2116757763058861</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="7">
-        <f>CapacityFactorTech!AE2/CapacityFactorTech!$G$2</f>
-        <v>1.2142374587082241</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="7">
-        <f>CapacityFactorTech!AF2/CapacityFactorTech!$G$2</f>
-        <v>1.2167991411105621</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="7">
-        <f>CapacityFactorTech!AG2/CapacityFactorTech!$G$2</f>
-        <v>1.2193608235129001</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="7">
-        <f>CapacityFactorTech!AH2/CapacityFactorTech!$G$2</f>
-        <v>1.2219225059152383</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="7">
-        <f>CapacityFactorTech!AI2/CapacityFactorTech!$G$2</f>
-        <v>1.2244841883175763</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="7">
-        <f>CapacityFactorTech!AJ2/CapacityFactorTech!$G$2</f>
-        <v>1.2270458707199143</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="7">
-        <f>CapacityFactorTech!AK2/CapacityFactorTech!$G$2</f>
-        <v>1.2296075531222519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4815,10 +4659,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>18</v>
@@ -4830,128 +4674,97 @@
         <v>57</v>
       </c>
       <c r="G33" s="7">
-        <f>CapacityFactorTech!G3/CapacityFactorTech!$G$3</f>
         <v>1</v>
       </c>
       <c r="H33" s="7">
-        <f>CapacityFactorTech!H3/CapacityFactorTech!$G$3</f>
-        <v>1.0106775566397024</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
-        <f>CapacityFactorTech!I3/CapacityFactorTech!$G$3</f>
-        <v>1.021355113279405</v>
+        <v>1</v>
       </c>
       <c r="J33" s="7">
-        <f>CapacityFactorTech!J3/CapacityFactorTech!$G$3</f>
-        <v>1.0320326699191074</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7">
-        <f>CapacityFactorTech!K3/CapacityFactorTech!$G$3</f>
-        <v>1.04271022655881</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
-        <f>CapacityFactorTech!L3/CapacityFactorTech!$G$3</f>
-        <v>1.0533877831985123</v>
+        <v>1</v>
       </c>
       <c r="M33" s="7">
-        <f>CapacityFactorTech!M3/CapacityFactorTech!$G$3</f>
-        <v>1.0640653398382149</v>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
-        <f>CapacityFactorTech!N3/CapacityFactorTech!$G$3</f>
-        <v>1.0747428964779173</v>
+        <v>1</v>
       </c>
       <c r="O33" s="7">
-        <f>CapacityFactorTech!O3/CapacityFactorTech!$G$3</f>
-        <v>1.0854204531176199</v>
+        <v>1</v>
       </c>
       <c r="P33" s="7">
-        <f>CapacityFactorTech!P3/CapacityFactorTech!$G$3</f>
-        <v>1.0960980097573223</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="7">
-        <f>CapacityFactorTech!Q3/CapacityFactorTech!$G$3</f>
-        <v>1.1067755663970249</v>
+        <v>1</v>
       </c>
       <c r="R33" s="7">
-        <f>CapacityFactorTech!R3/CapacityFactorTech!$G$3</f>
-        <v>1.1107849927275086</v>
+        <v>1</v>
       </c>
       <c r="S33" s="7">
-        <f>CapacityFactorTech!S3/CapacityFactorTech!$G$3</f>
-        <v>1.1147944190579926</v>
+        <v>1</v>
       </c>
       <c r="T33" s="7">
-        <f>CapacityFactorTech!T3/CapacityFactorTech!$G$3</f>
-        <v>1.1188038453884763</v>
+        <v>1</v>
       </c>
       <c r="U33" s="7">
-        <f>CapacityFactorTech!U3/CapacityFactorTech!$G$3</f>
-        <v>1.1228132717189601</v>
+        <v>1</v>
       </c>
       <c r="V33" s="7">
-        <f>CapacityFactorTech!V3/CapacityFactorTech!$G$3</f>
-        <v>1.1268226980494438</v>
+        <v>1</v>
       </c>
       <c r="W33" s="7">
-        <f>CapacityFactorTech!W3/CapacityFactorTech!$G$3</f>
-        <v>1.1308321243799275</v>
+        <v>1</v>
       </c>
       <c r="X33" s="7">
-        <f>CapacityFactorTech!X3/CapacityFactorTech!$G$3</f>
-        <v>1.1348415507104113</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="7">
-        <f>CapacityFactorTech!Y3/CapacityFactorTech!$G$3</f>
-        <v>1.138850977040895</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="7">
-        <f>CapacityFactorTech!Z3/CapacityFactorTech!$G$3</f>
-        <v>1.1428604033713787</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="7">
-        <f>CapacityFactorTech!AA3/CapacityFactorTech!$G$3</f>
-        <v>1.1468698297018625</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="7">
-        <f>CapacityFactorTech!AB3/CapacityFactorTech!$G$3</f>
-        <v>1.1508792560323462</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="7">
-        <f>CapacityFactorTech!AC3/CapacityFactorTech!$G$3</f>
-        <v>1.1548886823628302</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="7">
-        <f>CapacityFactorTech!AD3/CapacityFactorTech!$G$3</f>
-        <v>1.1588981086933139</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="7">
-        <f>CapacityFactorTech!AE3/CapacityFactorTech!$G$3</f>
-        <v>1.1629075350237976</v>
+        <v>1</v>
       </c>
       <c r="AF33" s="7">
-        <f>CapacityFactorTech!AF3/CapacityFactorTech!$G$3</f>
-        <v>1.1669169613542814</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="7">
-        <f>CapacityFactorTech!AG3/CapacityFactorTech!$G$3</f>
-        <v>1.1709263876847651</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="7">
-        <f>CapacityFactorTech!AH3/CapacityFactorTech!$G$3</f>
-        <v>1.1749358140152488</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="7">
-        <f>CapacityFactorTech!AI3/CapacityFactorTech!$G$3</f>
-        <v>1.1789452403457326</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="7">
-        <f>CapacityFactorTech!AJ3/CapacityFactorTech!$G$3</f>
-        <v>1.1829546666762163</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="7">
-        <f>CapacityFactorTech!AK3/CapacityFactorTech!$G$3</f>
-        <v>1.1869640930067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4959,10 +4772,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>18</v>
@@ -4974,128 +4787,97 @@
         <v>57</v>
       </c>
       <c r="G34" s="7">
-        <f>CapacityFactorTech!G4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="H34" s="7">
-        <f>CapacityFactorTech!H4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <f>CapacityFactorTech!I4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="J34" s="7">
-        <f>CapacityFactorTech!J4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="K34" s="7">
-        <f>CapacityFactorTech!K4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="L34" s="7">
-        <f>CapacityFactorTech!L4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="M34" s="7">
-        <f>CapacityFactorTech!M4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <f>CapacityFactorTech!N4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="O34" s="7">
-        <f>CapacityFactorTech!O4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="P34" s="7">
-        <f>CapacityFactorTech!P4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="Q34" s="7">
-        <f>CapacityFactorTech!Q4/CapacityFactorTech!$G$4</f>
         <v>1</v>
       </c>
       <c r="R34" s="7">
-        <f>CapacityFactorTech!R4/CapacityFactorTech!$G$4</f>
-        <v>1.0059360385395579</v>
+        <v>1</v>
       </c>
       <c r="S34" s="7">
-        <f>CapacityFactorTech!S4/CapacityFactorTech!$G$4</f>
-        <v>1.0118720770791159</v>
+        <v>1</v>
       </c>
       <c r="T34" s="7">
-        <f>CapacityFactorTech!T4/CapacityFactorTech!$G$4</f>
-        <v>1.0178081156186738</v>
+        <v>1</v>
       </c>
       <c r="U34" s="7">
-        <f>CapacityFactorTech!U4/CapacityFactorTech!$G$4</f>
-        <v>1.0237441541582315</v>
+        <v>1</v>
       </c>
       <c r="V34" s="7">
-        <f>CapacityFactorTech!V4/CapacityFactorTech!$G$4</f>
-        <v>1.0296801926977894</v>
+        <v>1</v>
       </c>
       <c r="W34" s="7">
-        <f>CapacityFactorTech!W4/CapacityFactorTech!$G$4</f>
-        <v>1.0356162312373474</v>
+        <v>1</v>
       </c>
       <c r="X34" s="7">
-        <f>CapacityFactorTech!X4/CapacityFactorTech!$G$4</f>
-        <v>1.0415522697769053</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="7">
-        <f>CapacityFactorTech!Y4/CapacityFactorTech!$G$4</f>
-        <v>1.0474883083164632</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="7">
-        <f>CapacityFactorTech!Z4/CapacityFactorTech!$G$4</f>
-        <v>1.0534243468560212</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="7">
-        <f>CapacityFactorTech!AA4/CapacityFactorTech!$G$4</f>
-        <v>1.0593603853955789</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="7">
-        <f>CapacityFactorTech!AB4/CapacityFactorTech!$G$4</f>
-        <v>1.0652964239351368</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="7">
-        <f>CapacityFactorTech!AC4/CapacityFactorTech!$G$4</f>
-        <v>1.0712324624746947</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="7">
-        <f>CapacityFactorTech!AD4/CapacityFactorTech!$G$4</f>
-        <v>1.0771685010142527</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="7">
-        <f>CapacityFactorTech!AE4/CapacityFactorTech!$G$4</f>
-        <v>1.0831045395538106</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="7">
-        <f>CapacityFactorTech!AF4/CapacityFactorTech!$G$4</f>
-        <v>1.0890405780933685</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="7">
-        <f>CapacityFactorTech!AG4/CapacityFactorTech!$G$4</f>
-        <v>1.0949766166329264</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="7">
-        <f>CapacityFactorTech!AH4/CapacityFactorTech!$G$4</f>
-        <v>1.1009126551724842</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="7">
-        <f>CapacityFactorTech!AI4/CapacityFactorTech!$G$4</f>
-        <v>1.1068486937120421</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="7">
-        <f>CapacityFactorTech!AJ4/CapacityFactorTech!$G$4</f>
-        <v>1.1127847322516</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="7">
-        <f>CapacityFactorTech!AK4/CapacityFactorTech!$G$4</f>
-        <v>1.1187207707911593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5103,10 +4885,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>24</v>
@@ -5118,128 +4900,97 @@
         <v>57</v>
       </c>
       <c r="G35" s="7">
-        <f>CapacityFactorTech!G5/CapacityFactorTech!$G$5</f>
         <v>1</v>
       </c>
       <c r="H35" s="7">
-        <f>CapacityFactorTech!H5/CapacityFactorTech!$G$5</f>
-        <v>1.0039193416320005</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
-        <f>CapacityFactorTech!I5/CapacityFactorTech!$G$5</f>
-        <v>1.0078386832640012</v>
+        <v>1</v>
       </c>
       <c r="J35" s="7">
-        <f>CapacityFactorTech!J5/CapacityFactorTech!$G$5</f>
-        <v>1.0117580248960016</v>
+        <v>1</v>
       </c>
       <c r="K35" s="7">
-        <f>CapacityFactorTech!K5/CapacityFactorTech!$G$5</f>
-        <v>1.0156773665280021</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7">
-        <f>CapacityFactorTech!L5/CapacityFactorTech!$G$5</f>
-        <v>1.0195967081600028</v>
+        <v>1</v>
       </c>
       <c r="M35" s="7">
-        <f>CapacityFactorTech!M5/CapacityFactorTech!$G$5</f>
-        <v>1.0235160497920033</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <f>CapacityFactorTech!N5/CapacityFactorTech!$G$5</f>
-        <v>1.0274353914240038</v>
+        <v>1</v>
       </c>
       <c r="O35" s="7">
-        <f>CapacityFactorTech!O5/CapacityFactorTech!$G$5</f>
-        <v>1.0313547330560044</v>
+        <v>1</v>
       </c>
       <c r="P35" s="7">
-        <f>CapacityFactorTech!P5/CapacityFactorTech!$G$5</f>
-        <v>1.0352740746880049</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="7">
-        <f>CapacityFactorTech!Q5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="R35" s="7">
-        <f>CapacityFactorTech!R5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="S35" s="7">
-        <f>CapacityFactorTech!S5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="T35" s="7">
-        <f>CapacityFactorTech!T5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="U35" s="7">
-        <f>CapacityFactorTech!U5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="V35" s="7">
-        <f>CapacityFactorTech!V5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="W35" s="7">
-        <f>CapacityFactorTech!W5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="X35" s="7">
-        <f>CapacityFactorTech!X5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="7">
-        <f>CapacityFactorTech!Y5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="7">
-        <f>CapacityFactorTech!Z5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="7">
-        <f>CapacityFactorTech!AA5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="7">
-        <f>CapacityFactorTech!AB5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="7">
-        <f>CapacityFactorTech!AC5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="7">
-        <f>CapacityFactorTech!AD5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="7">
-        <f>CapacityFactorTech!AE5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="7">
-        <f>CapacityFactorTech!AF5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="7">
-        <f>CapacityFactorTech!AG5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="7">
-        <f>CapacityFactorTech!AH5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="7">
-        <f>CapacityFactorTech!AI5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="7">
-        <f>CapacityFactorTech!AJ5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="7">
-        <f>CapacityFactorTech!AK5/CapacityFactorTech!$G$5</f>
-        <v>1.0391934163200052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5247,10 +4998,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>24</v>
@@ -5262,128 +5013,97 @@
         <v>57</v>
       </c>
       <c r="G36" s="7">
-        <f>CapacityFactorTech!G6/CapacityFactorTech!$G$6</f>
         <v>1</v>
       </c>
       <c r="H36" s="7">
-        <f>CapacityFactorTech!H6/CapacityFactorTech!$G$6</f>
-        <v>1.0015447810990317</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <f>CapacityFactorTech!I6/CapacityFactorTech!$G$6</f>
-        <v>1.0030895621980631</v>
+        <v>1</v>
       </c>
       <c r="J36" s="7">
-        <f>CapacityFactorTech!J6/CapacityFactorTech!$G$6</f>
-        <v>1.0046343432970948</v>
+        <v>1</v>
       </c>
       <c r="K36" s="7">
-        <f>CapacityFactorTech!K6/CapacityFactorTech!$G$6</f>
-        <v>1.0061791243961262</v>
+        <v>1</v>
       </c>
       <c r="L36" s="7">
-        <f>CapacityFactorTech!L6/CapacityFactorTech!$G$6</f>
-        <v>1.0077239054951579</v>
+        <v>1</v>
       </c>
       <c r="M36" s="7">
-        <f>CapacityFactorTech!M6/CapacityFactorTech!$G$6</f>
-        <v>1.0092686865941893</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <f>CapacityFactorTech!N6/CapacityFactorTech!$G$6</f>
-        <v>1.010813467693221</v>
+        <v>1</v>
       </c>
       <c r="O36" s="7">
-        <f>CapacityFactorTech!O6/CapacityFactorTech!$G$6</f>
-        <v>1.0123582487922524</v>
+        <v>1</v>
       </c>
       <c r="P36" s="7">
-        <f>CapacityFactorTech!P6/CapacityFactorTech!$G$6</f>
-        <v>1.0139030298912841</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="7">
-        <f>CapacityFactorTech!Q6/CapacityFactorTech!$G$6</f>
-        <v>1.0154478109903153</v>
+        <v>1</v>
       </c>
       <c r="R36" s="7">
-        <f>CapacityFactorTech!R6/CapacityFactorTech!$G$6</f>
-        <v>1.0167589581169674</v>
+        <v>1</v>
       </c>
       <c r="S36" s="7">
-        <f>CapacityFactorTech!S6/CapacityFactorTech!$G$6</f>
-        <v>1.0180701052436194</v>
+        <v>1</v>
       </c>
       <c r="T36" s="7">
-        <f>CapacityFactorTech!T6/CapacityFactorTech!$G$6</f>
-        <v>1.0193812523702714</v>
+        <v>1</v>
       </c>
       <c r="U36" s="7">
-        <f>CapacityFactorTech!U6/CapacityFactorTech!$G$6</f>
-        <v>1.0206923994969235</v>
+        <v>1</v>
       </c>
       <c r="V36" s="7">
-        <f>CapacityFactorTech!V6/CapacityFactorTech!$G$6</f>
-        <v>1.0220035466235755</v>
+        <v>1</v>
       </c>
       <c r="W36" s="7">
-        <f>CapacityFactorTech!W6/CapacityFactorTech!$G$6</f>
-        <v>1.0233146937502275</v>
+        <v>1</v>
       </c>
       <c r="X36" s="7">
-        <f>CapacityFactorTech!X6/CapacityFactorTech!$G$6</f>
-        <v>1.0246258408768796</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="7">
-        <f>CapacityFactorTech!Y6/CapacityFactorTech!$G$6</f>
-        <v>1.0259369880035316</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="7">
-        <f>CapacityFactorTech!Z6/CapacityFactorTech!$G$6</f>
-        <v>1.0272481351301836</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="7">
-        <f>CapacityFactorTech!AA6/CapacityFactorTech!$G$6</f>
-        <v>1.0285592822568357</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="7">
-        <f>CapacityFactorTech!AB6/CapacityFactorTech!$G$6</f>
-        <v>1.0298704293834877</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="7">
-        <f>CapacityFactorTech!AC6/CapacityFactorTech!$G$6</f>
-        <v>1.03118157651014</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="7">
-        <f>CapacityFactorTech!AD6/CapacityFactorTech!$G$6</f>
-        <v>1.032492723636792</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="7">
-        <f>CapacityFactorTech!AE6/CapacityFactorTech!$G$6</f>
-        <v>1.033803870763444</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="7">
-        <f>CapacityFactorTech!AF6/CapacityFactorTech!$G$6</f>
-        <v>1.0351150178900961</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="7">
-        <f>CapacityFactorTech!AG6/CapacityFactorTech!$G$6</f>
-        <v>1.0364261650167481</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="7">
-        <f>CapacityFactorTech!AH6/CapacityFactorTech!$G$6</f>
-        <v>1.0377373121434001</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="7">
-        <f>CapacityFactorTech!AI6/CapacityFactorTech!$G$6</f>
-        <v>1.0390484592700522</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="7">
-        <f>CapacityFactorTech!AJ6/CapacityFactorTech!$G$6</f>
-        <v>1.0403596063967042</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="7">
-        <f>CapacityFactorTech!AK6/CapacityFactorTech!$G$6</f>
-        <v>1.0416707535233576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5391,10 +5111,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>24</v>
@@ -5406,128 +5126,97 @@
         <v>57</v>
       </c>
       <c r="G37" s="7">
-        <f>CapacityFactorTech!G7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="H37" s="7">
-        <f>CapacityFactorTech!H7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <f>CapacityFactorTech!I7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="J37" s="7">
-        <f>CapacityFactorTech!J7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="K37" s="7">
-        <f>CapacityFactorTech!K7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="L37" s="7">
-        <f>CapacityFactorTech!L7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="M37" s="7">
-        <f>CapacityFactorTech!M7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <f>CapacityFactorTech!N7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="O37" s="7">
-        <f>CapacityFactorTech!O7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="P37" s="7">
-        <f>CapacityFactorTech!P7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="Q37" s="7">
-        <f>CapacityFactorTech!Q7/CapacityFactorTech!$G$7</f>
         <v>1</v>
       </c>
       <c r="R37" s="7">
-        <f>CapacityFactorTech!R7/CapacityFactorTech!$G$7</f>
-        <v>1.0008509441268709</v>
+        <v>1</v>
       </c>
       <c r="S37" s="7">
-        <f>CapacityFactorTech!S7/CapacityFactorTech!$G$7</f>
-        <v>1.0017018882537418</v>
+        <v>1</v>
       </c>
       <c r="T37" s="7">
-        <f>CapacityFactorTech!T7/CapacityFactorTech!$G$7</f>
-        <v>1.0025528323806128</v>
+        <v>1</v>
       </c>
       <c r="U37" s="7">
-        <f>CapacityFactorTech!U7/CapacityFactorTech!$G$7</f>
-        <v>1.0034037765074839</v>
+        <v>1</v>
       </c>
       <c r="V37" s="7">
-        <f>CapacityFactorTech!V7/CapacityFactorTech!$G$7</f>
-        <v>1.0042547206343548</v>
+        <v>1</v>
       </c>
       <c r="W37" s="7">
-        <f>CapacityFactorTech!W7/CapacityFactorTech!$G$7</f>
-        <v>1.0051056647612258</v>
+        <v>1</v>
       </c>
       <c r="X37" s="7">
-        <f>CapacityFactorTech!X7/CapacityFactorTech!$G$7</f>
-        <v>1.0059566088880967</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="7">
-        <f>CapacityFactorTech!Y7/CapacityFactorTech!$G$7</f>
-        <v>1.0068075530149676</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="7">
-        <f>CapacityFactorTech!Z7/CapacityFactorTech!$G$7</f>
-        <v>1.0076584971418385</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="7">
-        <f>CapacityFactorTech!AA7/CapacityFactorTech!$G$7</f>
-        <v>1.0085094412687097</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="7">
-        <f>CapacityFactorTech!AB7/CapacityFactorTech!$G$7</f>
-        <v>1.0093603853955806</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="7">
-        <f>CapacityFactorTech!AC7/CapacityFactorTech!$G$7</f>
-        <v>1.0102113295224515</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="7">
-        <f>CapacityFactorTech!AD7/CapacityFactorTech!$G$7</f>
-        <v>1.0110622736493224</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="7">
-        <f>CapacityFactorTech!AE7/CapacityFactorTech!$G$7</f>
-        <v>1.0119132177761934</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="7">
-        <f>CapacityFactorTech!AF7/CapacityFactorTech!$G$7</f>
-        <v>1.0127641619030643</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="7">
-        <f>CapacityFactorTech!AG7/CapacityFactorTech!$G$7</f>
-        <v>1.0136151060299354</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="7">
-        <f>CapacityFactorTech!AH7/CapacityFactorTech!$G$7</f>
-        <v>1.0144660501568064</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="7">
-        <f>CapacityFactorTech!AI7/CapacityFactorTech!$G$7</f>
-        <v>1.0153169942836773</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="7">
-        <f>CapacityFactorTech!AJ7/CapacityFactorTech!$G$7</f>
-        <v>1.0161679384105482</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="7">
-        <f>CapacityFactorTech!AK7/CapacityFactorTech!$G$7</f>
-        <v>1.0170188825374173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5535,10 +5224,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>25</v>
@@ -5550,128 +5239,97 @@
         <v>57</v>
       </c>
       <c r="G38" s="7">
-        <f>CapacityFactorTech!G8/CapacityFactorTech!$G$8</f>
         <v>1</v>
       </c>
       <c r="H38" s="7">
-        <f>CapacityFactorTech!H8/CapacityFactorTech!$G$8</f>
-        <v>1.0178373905075493</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <f>CapacityFactorTech!I8/CapacityFactorTech!$G$8</f>
-        <v>1.0356747810150984</v>
+        <v>1</v>
       </c>
       <c r="J38" s="7">
-        <f>CapacityFactorTech!J8/CapacityFactorTech!$G$8</f>
-        <v>1.0535121715226476</v>
+        <v>1</v>
       </c>
       <c r="K38" s="7">
-        <f>CapacityFactorTech!K8/CapacityFactorTech!$G$8</f>
-        <v>1.0713495620301967</v>
+        <v>1</v>
       </c>
       <c r="L38" s="7">
-        <f>CapacityFactorTech!L8/CapacityFactorTech!$G$8</f>
-        <v>1.089186952537746</v>
+        <v>1</v>
       </c>
       <c r="M38" s="7">
-        <f>CapacityFactorTech!M8/CapacityFactorTech!$G$8</f>
-        <v>1.1070243430452951</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <f>CapacityFactorTech!N8/CapacityFactorTech!$G$8</f>
-        <v>1.1248617335528444</v>
+        <v>1</v>
       </c>
       <c r="O38" s="7">
-        <f>CapacityFactorTech!O8/CapacityFactorTech!$G$8</f>
-        <v>1.1426991240603934</v>
+        <v>1</v>
       </c>
       <c r="P38" s="7">
-        <f>CapacityFactorTech!P8/CapacityFactorTech!$G$8</f>
-        <v>1.1605365145679427</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="7">
-        <f>CapacityFactorTech!Q8/CapacityFactorTech!$G$8</f>
-        <v>1.1783739050754913</v>
+        <v>1</v>
       </c>
       <c r="R38" s="7">
-        <f>CapacityFactorTech!R8/CapacityFactorTech!$G$8</f>
-        <v>1.1809355874778293</v>
+        <v>1</v>
       </c>
       <c r="S38" s="7">
-        <f>CapacityFactorTech!S8/CapacityFactorTech!$G$8</f>
-        <v>1.1834972698801673</v>
+        <v>1</v>
       </c>
       <c r="T38" s="7">
-        <f>CapacityFactorTech!T8/CapacityFactorTech!$G$8</f>
-        <v>1.1860589522825054</v>
+        <v>1</v>
       </c>
       <c r="U38" s="7">
-        <f>CapacityFactorTech!U8/CapacityFactorTech!$G$8</f>
-        <v>1.1886206346848436</v>
+        <v>1</v>
       </c>
       <c r="V38" s="7">
-        <f>CapacityFactorTech!V8/CapacityFactorTech!$G$8</f>
-        <v>1.1911823170871816</v>
+        <v>1</v>
       </c>
       <c r="W38" s="7">
-        <f>CapacityFactorTech!W8/CapacityFactorTech!$G$8</f>
-        <v>1.1937439994895196</v>
+        <v>1</v>
       </c>
       <c r="X38" s="7">
-        <f>CapacityFactorTech!X8/CapacityFactorTech!$G$8</f>
-        <v>1.1963056818918576</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="7">
-        <f>CapacityFactorTech!Y8/CapacityFactorTech!$G$8</f>
-        <v>1.1988673642941956</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="7">
-        <f>CapacityFactorTech!Z8/CapacityFactorTech!$G$8</f>
-        <v>1.2014290466965338</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="7">
-        <f>CapacityFactorTech!AA8/CapacityFactorTech!$G$8</f>
-        <v>1.2039907290988718</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="7">
-        <f>CapacityFactorTech!AB8/CapacityFactorTech!$G$8</f>
-        <v>1.2065524115012098</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="7">
-        <f>CapacityFactorTech!AC8/CapacityFactorTech!$G$8</f>
-        <v>1.2091140939035478</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="7">
-        <f>CapacityFactorTech!AD8/CapacityFactorTech!$G$8</f>
-        <v>1.2116757763058859</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="7">
-        <f>CapacityFactorTech!AE8/CapacityFactorTech!$G$8</f>
-        <v>1.2142374587082239</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="7">
-        <f>CapacityFactorTech!AF8/CapacityFactorTech!$G$8</f>
-        <v>1.2167991411105621</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="7">
-        <f>CapacityFactorTech!AG8/CapacityFactorTech!$G$8</f>
-        <v>1.2193608235129001</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="7">
-        <f>CapacityFactorTech!AH8/CapacityFactorTech!$G$8</f>
-        <v>1.2219225059152381</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="7">
-        <f>CapacityFactorTech!AI8/CapacityFactorTech!$G$8</f>
-        <v>1.2244841883175761</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="7">
-        <f>CapacityFactorTech!AJ8/CapacityFactorTech!$G$8</f>
-        <v>1.2270458707199141</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="7">
-        <f>CapacityFactorTech!AK8/CapacityFactorTech!$G$8</f>
-        <v>1.2296075531222534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5679,10 +5337,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
@@ -5694,128 +5352,97 @@
         <v>57</v>
       </c>
       <c r="G39" s="7">
-        <f>CapacityFactorTech!G9/CapacityFactorTech!$G$9</f>
         <v>1</v>
       </c>
       <c r="H39" s="7">
-        <f>CapacityFactorTech!H9/CapacityFactorTech!$G$9</f>
-        <v>1.0106775566397026</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <f>CapacityFactorTech!I9/CapacityFactorTech!$G$9</f>
-        <v>1.021355113279405</v>
+        <v>1</v>
       </c>
       <c r="J39" s="7">
-        <f>CapacityFactorTech!J9/CapacityFactorTech!$G$9</f>
-        <v>1.0320326699191076</v>
+        <v>1</v>
       </c>
       <c r="K39" s="7">
-        <f>CapacityFactorTech!K9/CapacityFactorTech!$G$9</f>
-        <v>1.04271022655881</v>
+        <v>1</v>
       </c>
       <c r="L39" s="7">
-        <f>CapacityFactorTech!L9/CapacityFactorTech!$G$9</f>
-        <v>1.0533877831985126</v>
+        <v>1</v>
       </c>
       <c r="M39" s="7">
-        <f>CapacityFactorTech!M9/CapacityFactorTech!$G$9</f>
-        <v>1.0640653398382149</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <f>CapacityFactorTech!N9/CapacityFactorTech!$G$9</f>
-        <v>1.0747428964779175</v>
+        <v>1</v>
       </c>
       <c r="O39" s="7">
-        <f>CapacityFactorTech!O9/CapacityFactorTech!$G$9</f>
-        <v>1.0854204531176199</v>
+        <v>1</v>
       </c>
       <c r="P39" s="7">
-        <f>CapacityFactorTech!P9/CapacityFactorTech!$G$9</f>
-        <v>1.0960980097573225</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="7">
-        <f>CapacityFactorTech!Q9/CapacityFactorTech!$G$9</f>
-        <v>1.1067755663970249</v>
+        <v>1</v>
       </c>
       <c r="R39" s="7">
-        <f>CapacityFactorTech!R9/CapacityFactorTech!$G$9</f>
-        <v>1.1107849927275086</v>
+        <v>1</v>
       </c>
       <c r="S39" s="7">
-        <f>CapacityFactorTech!S9/CapacityFactorTech!$G$9</f>
-        <v>1.1147944190579924</v>
+        <v>1</v>
       </c>
       <c r="T39" s="7">
-        <f>CapacityFactorTech!T9/CapacityFactorTech!$G$9</f>
-        <v>1.1188038453884761</v>
+        <v>1</v>
       </c>
       <c r="U39" s="7">
-        <f>CapacityFactorTech!U9/CapacityFactorTech!$G$9</f>
-        <v>1.1228132717189601</v>
+        <v>1</v>
       </c>
       <c r="V39" s="7">
-        <f>CapacityFactorTech!V9/CapacityFactorTech!$G$9</f>
-        <v>1.1268226980494438</v>
+        <v>1</v>
       </c>
       <c r="W39" s="7">
-        <f>CapacityFactorTech!W9/CapacityFactorTech!$G$9</f>
-        <v>1.1308321243799275</v>
+        <v>1</v>
       </c>
       <c r="X39" s="7">
-        <f>CapacityFactorTech!X9/CapacityFactorTech!$G$9</f>
-        <v>1.1348415507104113</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="7">
-        <f>CapacityFactorTech!Y9/CapacityFactorTech!$G$9</f>
-        <v>1.138850977040895</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="7">
-        <f>CapacityFactorTech!Z9/CapacityFactorTech!$G$9</f>
-        <v>1.1428604033713787</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="7">
-        <f>CapacityFactorTech!AA9/CapacityFactorTech!$G$9</f>
-        <v>1.1468698297018627</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="7">
-        <f>CapacityFactorTech!AB9/CapacityFactorTech!$G$9</f>
-        <v>1.1508792560323464</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="7">
-        <f>CapacityFactorTech!AC9/CapacityFactorTech!$G$9</f>
-        <v>1.1548886823628302</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="7">
-        <f>CapacityFactorTech!AD9/CapacityFactorTech!$G$9</f>
-        <v>1.1588981086933139</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="7">
-        <f>CapacityFactorTech!AE9/CapacityFactorTech!$G$9</f>
-        <v>1.1629075350237976</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="7">
-        <f>CapacityFactorTech!AF9/CapacityFactorTech!$G$9</f>
-        <v>1.1669169613542814</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="7">
-        <f>CapacityFactorTech!AG9/CapacityFactorTech!$G$9</f>
-        <v>1.1709263876847651</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="7">
-        <f>CapacityFactorTech!AH9/CapacityFactorTech!$G$9</f>
-        <v>1.174935814015249</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="7">
-        <f>CapacityFactorTech!AI9/CapacityFactorTech!$G$9</f>
-        <v>1.1789452403457328</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="7">
-        <f>CapacityFactorTech!AJ9/CapacityFactorTech!$G$9</f>
-        <v>1.1829546666762165</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="7">
-        <f>CapacityFactorTech!AK9/CapacityFactorTech!$G$9</f>
-        <v>1.1869640930066998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5823,10 +5450,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>25</v>
@@ -5838,128 +5465,97 @@
         <v>57</v>
       </c>
       <c r="G40" s="7">
-        <f>CapacityFactorTech!G10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="H40" s="7">
-        <f>CapacityFactorTech!H10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="I40" s="7">
-        <f>CapacityFactorTech!I10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="J40" s="7">
-        <f>CapacityFactorTech!J10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="K40" s="7">
-        <f>CapacityFactorTech!K10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="L40" s="7">
-        <f>CapacityFactorTech!L10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="M40" s="7">
-        <f>CapacityFactorTech!M10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <f>CapacityFactorTech!N10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="O40" s="7">
-        <f>CapacityFactorTech!O10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="P40" s="7">
-        <f>CapacityFactorTech!P10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="Q40" s="7">
-        <f>CapacityFactorTech!Q10/CapacityFactorTech!$G$10</f>
         <v>1</v>
       </c>
       <c r="R40" s="7">
-        <f>CapacityFactorTech!R10/CapacityFactorTech!$G$10</f>
-        <v>1.0059360385395579</v>
+        <v>1</v>
       </c>
       <c r="S40" s="7">
-        <f>CapacityFactorTech!S10/CapacityFactorTech!$G$10</f>
-        <v>1.0118720770791159</v>
+        <v>1</v>
       </c>
       <c r="T40" s="7">
-        <f>CapacityFactorTech!T10/CapacityFactorTech!$G$10</f>
-        <v>1.017808115618674</v>
+        <v>1</v>
       </c>
       <c r="U40" s="7">
-        <f>CapacityFactorTech!U10/CapacityFactorTech!$G$10</f>
-        <v>1.0237441541582319</v>
+        <v>1</v>
       </c>
       <c r="V40" s="7">
-        <f>CapacityFactorTech!V10/CapacityFactorTech!$G$10</f>
-        <v>1.0296801926977899</v>
+        <v>1</v>
       </c>
       <c r="W40" s="7">
-        <f>CapacityFactorTech!W10/CapacityFactorTech!$G$10</f>
-        <v>1.0356162312373478</v>
+        <v>1</v>
       </c>
       <c r="X40" s="7">
-        <f>CapacityFactorTech!X10/CapacityFactorTech!$G$10</f>
-        <v>1.0415522697769057</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="7">
-        <f>CapacityFactorTech!Y10/CapacityFactorTech!$G$10</f>
-        <v>1.0474883083164637</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="7">
-        <f>CapacityFactorTech!Z10/CapacityFactorTech!$G$10</f>
-        <v>1.0534243468560218</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="7">
-        <f>CapacityFactorTech!AA10/CapacityFactorTech!$G$10</f>
-        <v>1.0593603853955798</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="7">
-        <f>CapacityFactorTech!AB10/CapacityFactorTech!$G$10</f>
-        <v>1.0652964239351377</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="7">
-        <f>CapacityFactorTech!AC10/CapacityFactorTech!$G$10</f>
-        <v>1.0712324624746956</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="7">
-        <f>CapacityFactorTech!AD10/CapacityFactorTech!$G$10</f>
-        <v>1.0771685010142535</v>
+        <v>1</v>
       </c>
       <c r="AE40" s="7">
-        <f>CapacityFactorTech!AE10/CapacityFactorTech!$G$10</f>
-        <v>1.0831045395538115</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="7">
-        <f>CapacityFactorTech!AF10/CapacityFactorTech!$G$10</f>
-        <v>1.0890405780933696</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="7">
-        <f>CapacityFactorTech!AG10/CapacityFactorTech!$G$10</f>
-        <v>1.0949766166329276</v>
+        <v>1</v>
       </c>
       <c r="AH40" s="7">
-        <f>CapacityFactorTech!AH10/CapacityFactorTech!$G$10</f>
-        <v>1.1009126551724855</v>
+        <v>1</v>
       </c>
       <c r="AI40" s="7">
-        <f>CapacityFactorTech!AI10/CapacityFactorTech!$G$10</f>
-        <v>1.1068486937120434</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="7">
-        <f>CapacityFactorTech!AJ10/CapacityFactorTech!$G$10</f>
-        <v>1.1127847322516013</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="7">
-        <f>CapacityFactorTech!AK10/CapacityFactorTech!$G$10</f>
-        <v>1.1187207707911591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5970,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>45</v>
@@ -6083,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>11</v>
@@ -6095,97 +5691,97 @@
         <v>57</v>
       </c>
       <c r="G42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6196,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>12</v>
@@ -6208,97 +5804,97 @@
         <v>57</v>
       </c>
       <c r="G43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6309,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>13</v>
@@ -6321,97 +5917,97 @@
         <v>57</v>
       </c>
       <c r="G44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6018,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>14</v>
@@ -6434,97 +6030,97 @@
         <v>57</v>
       </c>
       <c r="G45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6535,7 +6131,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>15</v>
@@ -6547,97 +6143,97 @@
         <v>57</v>
       </c>
       <c r="G46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6648,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>37</v>
@@ -6660,97 +6256,97 @@
         <v>57</v>
       </c>
       <c r="G47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6761,7 +6357,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>38</v>
@@ -6773,97 +6369,97 @@
         <v>57</v>
       </c>
       <c r="G48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="R48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="V48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="W48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AF48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AJ48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6874,7 +6470,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>47</v>
@@ -6886,97 +6482,97 @@
         <v>57</v>
       </c>
       <c r="G49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6987,7 +6583,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>27</v>
@@ -6999,97 +6595,97 @@
         <v>57</v>
       </c>
       <c r="G50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7100,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>22</v>
@@ -7213,7 +6809,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>23</v>
@@ -7326,7 +6922,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>43</v>
@@ -7439,7 +7035,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>52</v>
@@ -7583,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>53</v>
@@ -7727,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>51</v>
@@ -7840,7 +7436,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>51</v>
@@ -7953,7 +7549,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>51</v>
@@ -8069,32 +7665,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
     <col min="7" max="38" width="6.140625" style="4" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -8204,19 +7800,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G2" s="4">
         <v>0.15430339646551175</v>
@@ -8317,19 +7913,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G3" s="4">
         <v>0.1531866860427854</v>
@@ -8430,19 +8026,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4">
         <v>0.15155102652611524</v>
@@ -8543,19 +8139,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G5" s="4">
         <v>0.15049311805235732</v>
@@ -8656,19 +8252,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G6" s="4">
         <v>0.15013521014437531</v>
@@ -8769,19 +8365,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G7" s="4">
         <v>0.14990328410944515</v>
@@ -8882,112 +8478,112 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G8" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.215</v>
       </c>
       <c r="H8" s="4">
-        <v>0.2407519781827781</v>
+        <v>0.2188350389591231</v>
       </c>
       <c r="I8" s="4">
-        <v>0.24497110698504165</v>
+        <v>0.22267007791824614</v>
       </c>
       <c r="J8" s="4">
-        <v>0.2491902357873052</v>
+        <v>0.22650511687736924</v>
       </c>
       <c r="K8" s="4">
-        <v>0.25340936458956875</v>
+        <v>0.23034015583649228</v>
       </c>
       <c r="L8" s="4">
-        <v>0.2576284933918323</v>
+        <v>0.23417519479561538</v>
       </c>
       <c r="M8" s="4">
-        <v>0.26184762219409585</v>
+        <v>0.23801023375473843</v>
       </c>
       <c r="N8" s="4">
-        <v>0.2660667509963594</v>
+        <v>0.24184527271386153</v>
       </c>
       <c r="O8" s="4">
-        <v>0.27028587979862295</v>
+        <v>0.24568031167298457</v>
       </c>
       <c r="P8" s="4">
-        <v>0.2745050086008865</v>
+        <v>0.24951535063210767</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.27872413740314994</v>
+        <v>0.25335038959123063</v>
       </c>
       <c r="R8" s="4">
-        <v>0.27933005944098288</v>
+        <v>0.25390115130773333</v>
       </c>
       <c r="S8" s="4">
-        <v>0.27993598147881582</v>
+        <v>0.25445191302423598</v>
       </c>
       <c r="T8" s="4">
-        <v>0.28054190351664876</v>
+        <v>0.25500267474073862</v>
       </c>
       <c r="U8" s="4">
-        <v>0.2811478255544817</v>
+        <v>0.25555343645724138</v>
       </c>
       <c r="V8" s="4">
-        <v>0.28175374759231464</v>
+        <v>0.25610419817374402</v>
       </c>
       <c r="W8" s="4">
-        <v>0.28235966963014758</v>
+        <v>0.25665495989024673</v>
       </c>
       <c r="X8" s="4">
-        <v>0.28296559166798052</v>
+        <v>0.25720572160674937</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.28357151370581346</v>
+        <v>0.25775648332325207</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.2841774357436464</v>
+        <v>0.25830724503975477</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.28478335778147934</v>
+        <v>0.25885800675625742</v>
       </c>
       <c r="AB8" s="4">
-        <v>0.28538927981931228</v>
+        <v>0.25940876847276012</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.28599520185714522</v>
+        <v>0.25995953018926277</v>
       </c>
       <c r="AD8" s="4">
-        <v>0.28660112389497816</v>
+        <v>0.26051029190576547</v>
       </c>
       <c r="AE8" s="4">
-        <v>0.2872070459328111</v>
+        <v>0.26106105362226811</v>
       </c>
       <c r="AF8" s="4">
-        <v>0.28781296797064404</v>
+        <v>0.26161181533877087</v>
       </c>
       <c r="AG8" s="4">
-        <v>0.28841889000847698</v>
+        <v>0.26216257705527352</v>
       </c>
       <c r="AH8" s="4">
-        <v>0.28902481204630992</v>
+        <v>0.26271333877177616</v>
       </c>
       <c r="AI8" s="4">
-        <v>0.28963073408414286</v>
+        <v>0.26326410048827886</v>
       </c>
       <c r="AJ8" s="4">
-        <v>0.2902366561219758</v>
+        <v>0.26381486220478151</v>
       </c>
       <c r="AK8" s="4">
-        <v>0.29084257815980902</v>
+        <v>0.26436562392128449</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -8995,112 +8591,112 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G9" s="4">
-        <v>0.23482103548483391</v>
+        <v>0.215</v>
       </c>
       <c r="H9" s="4">
-        <v>0.23732835039141681</v>
+        <v>0.21729567467753605</v>
       </c>
       <c r="I9" s="4">
-        <v>0.23983566529799971</v>
+        <v>0.21959134935507207</v>
       </c>
       <c r="J9" s="4">
-        <v>0.24234298020458261</v>
+        <v>0.22188702403260813</v>
       </c>
       <c r="K9" s="4">
-        <v>0.24485029511116552</v>
+        <v>0.22418269871014415</v>
       </c>
       <c r="L9" s="4">
-        <v>0.24735761001774842</v>
+        <v>0.2264783733876802</v>
       </c>
       <c r="M9" s="4">
-        <v>0.24986492492433132</v>
+        <v>0.2287740480652162</v>
       </c>
       <c r="N9" s="4">
-        <v>0.25237223983091422</v>
+        <v>0.23106972274275228</v>
       </c>
       <c r="O9" s="4">
-        <v>0.25487955473749713</v>
+        <v>0.23336539742028828</v>
       </c>
       <c r="P9" s="4">
-        <v>0.25738686964408003</v>
+        <v>0.23566107209782433</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.25989418455066293</v>
+        <v>0.23795674677536036</v>
       </c>
       <c r="R9" s="4">
-        <v>0.26083568219328729</v>
+        <v>0.23881877343641436</v>
       </c>
       <c r="S9" s="4">
-        <v>0.26177717983591164</v>
+        <v>0.23968080009746837</v>
       </c>
       <c r="T9" s="4">
-        <v>0.262718677478536</v>
+        <v>0.24054282675852237</v>
       </c>
       <c r="U9" s="4">
-        <v>0.26366017512116036</v>
+        <v>0.2414048534195764</v>
       </c>
       <c r="V9" s="4">
-        <v>0.26460167276378471</v>
+        <v>0.24226688008063041</v>
       </c>
       <c r="W9" s="4">
-        <v>0.26554317040640907</v>
+        <v>0.24312890674168441</v>
       </c>
       <c r="X9" s="4">
-        <v>0.26648466804903342</v>
+        <v>0.24399093340273842</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.26742616569165778</v>
+        <v>0.24485296006379242</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.26836766333428214</v>
+        <v>0.24571498672484643</v>
       </c>
       <c r="AA9" s="4">
-        <v>0.26930916097690649</v>
+        <v>0.24657701338590046</v>
       </c>
       <c r="AB9" s="4">
-        <v>0.27025065861953085</v>
+        <v>0.24743904004695447</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.2711921562621552</v>
+        <v>0.24830106670800847</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.27213365390477956</v>
+        <v>0.24916309336906248</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.27307515154740392</v>
+        <v>0.25002512003011651</v>
       </c>
       <c r="AF9" s="4">
-        <v>0.27401664919002827</v>
+        <v>0.25088714669117052</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.27495814683265263</v>
+        <v>0.25174917335222446</v>
       </c>
       <c r="AH9" s="4">
-        <v>0.27589964447527698</v>
+        <v>0.25261120001327853</v>
       </c>
       <c r="AI9" s="4">
-        <v>0.27684114211790134</v>
+        <v>0.25347322667433253</v>
       </c>
       <c r="AJ9" s="4">
-        <v>0.2777826397605257</v>
+        <v>0.25433525333538654</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.27872413740314994</v>
+        <v>0.25519727999644043</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -9108,112 +8704,112 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="H10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="I10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="J10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="K10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="L10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="M10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="N10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="O10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="P10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.232313720578251</v>
+        <v>0.215</v>
       </c>
       <c r="R10" s="4">
-        <v>0.2336927437768716</v>
+        <v>0.21627624828600495</v>
       </c>
       <c r="S10" s="4">
-        <v>0.2350717669754922</v>
+        <v>0.2175524965720099</v>
       </c>
       <c r="T10" s="4">
-        <v>0.2364507901741128</v>
+        <v>0.2188287448580149</v>
       </c>
       <c r="U10" s="4">
-        <v>0.2378298133727334</v>
+        <v>0.22010499314401988</v>
       </c>
       <c r="V10" s="4">
-        <v>0.239208836571354</v>
+        <v>0.22138124143002483</v>
       </c>
       <c r="W10" s="4">
-        <v>0.2405878597699746</v>
+        <v>0.22265748971602978</v>
       </c>
       <c r="X10" s="4">
-        <v>0.2419668829685952</v>
+        <v>0.22393373800203473</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.2433459061672158</v>
+        <v>0.22520998628803968</v>
       </c>
       <c r="Z10" s="4">
-        <v>0.2447249293658364</v>
+        <v>0.22648623457404468</v>
       </c>
       <c r="AA10" s="4">
-        <v>0.246103952564457</v>
+        <v>0.22776248286004963</v>
       </c>
       <c r="AB10" s="4">
-        <v>0.2474829757630776</v>
+        <v>0.22903873114605461</v>
       </c>
       <c r="AC10" s="4">
-        <v>0.24886199896169819</v>
+        <v>0.23031497943205956</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.25024102216031879</v>
+        <v>0.23159122771806451</v>
       </c>
       <c r="AE10" s="4">
-        <v>0.25162004535893939</v>
+        <v>0.23286747600406946</v>
       </c>
       <c r="AF10" s="4">
-        <v>0.25299906855755999</v>
+        <v>0.23414372429007446</v>
       </c>
       <c r="AG10" s="4">
-        <v>0.25437809175618059</v>
+        <v>0.23541997257607941</v>
       </c>
       <c r="AH10" s="4">
-        <v>0.25575711495480119</v>
+        <v>0.23669622086208439</v>
       </c>
       <c r="AI10" s="4">
-        <v>0.25713613815342179</v>
+        <v>0.23797246914808934</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.25851516135204239</v>
+        <v>0.23924871743409429</v>
       </c>
       <c r="AK10" s="4">
-        <v>0.25989418455066293</v>
+        <v>0.24052496572009918</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -9224,109 +8820,109 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="H11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="I11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="J11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="K11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="L11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="M11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="N11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="O11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="P11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="R11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="S11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="T11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="U11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="V11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="W11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="X11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AA11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AB11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AF11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AI11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
       <c r="AK11" s="4">
-        <v>0.23653284938051455</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -9334,16 +8930,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>65</v>
@@ -9447,16 +9043,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>65</v>
@@ -9560,16 +9156,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>65</v>
@@ -9673,16 +9269,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>65</v>
@@ -9786,16 +9382,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>65</v>
@@ -9894,461 +9490,639 @@
         <v>0.45738531979008845</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.36936606079470824</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.37218507033697829</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.37458912312733494</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.37673201096614739</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.37869536289563877</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.3805277162912829</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.38226028029787856</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.3839143077659728</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.38550492273295284</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.3870432696974121</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.38853779667425931</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.38949505976540283</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.3904202485222889</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.39131754082519421</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.39219034961718169</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.39304149876441918</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.39387335114238875</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.39468790371688511</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0.39548685932344563</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0.3962716816762239</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0.39704363809725263</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0.3978038331140944</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0.3985532351710756</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0.39929269808071216</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0.40002297841074425</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0.40074474969684798</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>0.40145861415174433</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0.40216511238173736</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>0.40286473150405272</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>0.40355791197064339</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>0.40424505333809446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AJ18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AK18" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.36936606079470824</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.37218507033697829</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.37458912312733494</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.37673201096614739</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.37869536289563877</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.3805277162912829</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.38226028029787856</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.3839143077659728</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.38550492273295284</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.3870432696974121</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0.38853779667425931</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0.38949505976540283</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0.3904202485222889</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0.39131754082519421</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0.39219034961718169</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0.39304149876441918</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0.39387335114238875</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0.39468790371688511</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0.39548685932344563</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0.3962716816762239</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>0.39704363809725263</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>0.3978038331140944</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>0.3985532351710756</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>0.39929269808071216</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>0.40002297841074425</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>0.40074474969684798</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>0.40145861415174433</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>0.40216511238173736</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>0.40286473150405272</v>
-      </c>
-      <c r="AJ17" s="4">
-        <v>0.40355791197064339</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>0.40424505333809446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AI18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AJ18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AE19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AH19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AI19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AK19" s="7">
+      <c r="AK19" s="9">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7" t="s">
+    <row r="20" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AE20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AH20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AI20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AK20" s="7">
+      <c r="AK20" s="9">
         <v>0.28499999999999998</v>
       </c>
     </row>
+    <row r="21" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3424C4-55BC-4210-8A63-3354D8D11A14}">
+  <dimension ref="I1:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="27.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20404638</v>
+      </c>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35608740</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4263628</v>
+      </c>
+    </row>
+    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7572266</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1">
+        <v>557186</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="1">
+        <v>110398</v>
+      </c>
+    </row>
+    <row r="10" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="11" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18396</v>
+      </c>
+    </row>
+    <row r="12" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60238</v>
+      </c>
+    </row>
+    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1465316</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="1">
+        <v>13990</v>
+      </c>
+      <c r="K18" s="1">
+        <v>17679</v>
+      </c>
+      <c r="L18" s="1">
+        <v>20590</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="1">
+        <v>80</v>
+      </c>
+      <c r="K19" s="1">
+        <v>16009</v>
+      </c>
+      <c r="L19" s="1">
+        <v>20349</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1">
+        <v>302</v>
+      </c>
+      <c r="K20" s="1">
+        <v>464</v>
+      </c>
+      <c r="L20" s="1">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A58409E-0390-4073-8CB6-605ACB471326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3948D6D-1B0F-4381-9A3E-3177E9B7E82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Efficiency" sheetId="2" r:id="rId3"/>
     <sheet name="EmissionActivity" sheetId="6" r:id="rId4"/>
     <sheet name="Emissions_Calculations" sheetId="5" r:id="rId5"/>
-    <sheet name="CapacityFactor" sheetId="4" r:id="rId6"/>
-    <sheet name="StorageDuration" sheetId="7" r:id="rId7"/>
-    <sheet name="EmissionLimit" sheetId="8" r:id="rId8"/>
+    <sheet name="EmissionLimit" sheetId="8" r:id="rId6"/>
+    <sheet name="CapacityFactor" sheetId="4" r:id="rId7"/>
+    <sheet name="StorageDuration" sheetId="7" r:id="rId8"/>
     <sheet name="DiscountRate" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="160">
   <si>
     <t>p</t>
   </si>
@@ -436,9 +436,6 @@
     <t>lbs/MMBtu</t>
   </si>
   <si>
-    <t>MWh/MMBTUs from EIA 923</t>
-  </si>
-  <si>
     <t>MWh/MMBTUs</t>
   </si>
   <si>
@@ -487,13 +484,7 @@
     <t>emis_limit_units</t>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
     <t>Carbon neutrality by the year 2050</t>
-  </si>
-  <si>
-    <t>30% from 2005 levels by the year 2030 - 80.15 MMTC02 on 2005</t>
   </si>
   <si>
     <t>R1+R2+R3</t>
@@ -509,6 +500,30 @@
   </si>
   <si>
     <t>tech_rate_notes</t>
+  </si>
+  <si>
+    <t>WACC from ATB 22</t>
+  </si>
+  <si>
+    <t>WACC Storage Futures Study: Storage Technology Modeling Input Data Report -NREL</t>
+  </si>
+  <si>
+    <t>using global discount rate</t>
+  </si>
+  <si>
+    <t>eff_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from EIA 923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from ATB 22</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>30% from 2005 levels by the year 2030 - 80.15 MMTC02 on 2005 -&gt; kt is US ton</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1827,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,25 +1997,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="4" customWidth="1"/>
-    <col min="7" max="37" width="5.85546875" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
+    <col min="8" max="38" width="5.85546875" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="11" customFormat="1">
+    <row r="1" spans="1:38" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -2008,132 +2023,135 @@
         <v>83</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11">
+      <c r="H1" s="11">
         <v>2020</v>
       </c>
-      <c r="H1" s="11">
+      <c r="I1" s="11">
         <v>2021</v>
       </c>
-      <c r="I1" s="11">
+      <c r="J1" s="11">
         <v>2022</v>
       </c>
-      <c r="J1" s="11">
+      <c r="K1" s="11">
         <v>2023</v>
       </c>
-      <c r="K1" s="11">
+      <c r="L1" s="11">
         <v>2024</v>
       </c>
-      <c r="L1" s="11">
+      <c r="M1" s="11">
         <v>2025</v>
       </c>
-      <c r="M1" s="11">
+      <c r="N1" s="11">
         <v>2026</v>
       </c>
-      <c r="N1" s="11">
+      <c r="O1" s="11">
         <v>2027</v>
       </c>
-      <c r="O1" s="11">
+      <c r="P1" s="11">
         <v>2028</v>
       </c>
-      <c r="P1" s="11">
+      <c r="Q1" s="11">
         <v>2029</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="R1" s="11">
         <v>2030</v>
       </c>
-      <c r="R1" s="11">
+      <c r="S1" s="11">
         <v>2031</v>
       </c>
-      <c r="S1" s="11">
+      <c r="T1" s="11">
         <v>2032</v>
       </c>
-      <c r="T1" s="11">
+      <c r="U1" s="11">
         <v>2033</v>
       </c>
-      <c r="U1" s="11">
+      <c r="V1" s="11">
         <v>2034</v>
       </c>
-      <c r="V1" s="11">
+      <c r="W1" s="11">
         <v>2035</v>
       </c>
-      <c r="W1" s="11">
+      <c r="X1" s="11">
         <v>2036</v>
       </c>
-      <c r="X1" s="11">
+      <c r="Y1" s="11">
         <v>2037</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Z1" s="11">
         <v>2038</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="AA1" s="11">
         <v>2039</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AB1" s="11">
         <v>2040</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AC1" s="11">
         <v>2041</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AD1" s="11">
         <v>2042</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AE1" s="11">
         <v>2043</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AF1" s="11">
         <v>2044</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AG1" s="11">
         <v>2045</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AH1" s="11">
         <v>2046</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AI1" s="11">
         <v>2047</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AJ1" s="11">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AK1" s="11">
         <v>2049</v>
       </c>
-      <c r="AK1" s="11">
+      <c r="AL1" s="11">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4.8886325507251846E-2</v>
       </c>
       <c r="H2" s="4">
         <v>4.8886325507251846E-2</v>
@@ -2225,28 +2243,31 @@
       <c r="AK2" s="4">
         <v>4.8886325507251846E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" s="4">
+        <v>4.8886325507251846E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.18833938153867247</v>
       </c>
       <c r="H3" s="4">
         <v>0.18833938153867247</v>
@@ -2338,28 +2359,31 @@
       <c r="AK3" s="4">
         <v>0.18833938153867247</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="4">
+        <v>0.18833938153867247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9.7702964229772357E-2</v>
       </c>
       <c r="H4" s="4">
         <v>9.7702964229772357E-2</v>
@@ -2451,28 +2475,31 @@
       <c r="AK4" s="4">
         <v>9.7702964229772357E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" s="4">
+        <v>9.7702964229772357E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G5" s="4">
-        <v>9.061632603536629E-2</v>
       </c>
       <c r="H5" s="4">
         <v>9.061632603536629E-2</v>
@@ -2564,28 +2591,31 @@
       <c r="AK5" s="4">
         <v>9.061632603536629E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" s="4">
+        <v>9.061632603536629E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.1130709702382507</v>
       </c>
       <c r="H6" s="4">
         <v>0.1130709702382507</v>
@@ -2677,28 +2707,31 @@
       <c r="AK6" s="4">
         <v>0.1130709702382507</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="4">
+        <v>0.1130709702382507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6.1652581415162257E-2</v>
       </c>
       <c r="H7" s="4">
         <v>6.1652581415162257E-2</v>
@@ -2790,28 +2823,31 @@
       <c r="AK7" s="4">
         <v>6.1652581415162257E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" s="4">
+        <v>6.1652581415162257E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9.4401803149961605E-2</v>
       </c>
       <c r="H8" s="4">
         <v>9.4401803149961605E-2</v>
@@ -2903,28 +2939,31 @@
       <c r="AK8" s="4">
         <v>9.4401803149961605E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="4">
+        <v>9.4401803149961605E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.12549199999999999</v>
       </c>
       <c r="H9" s="4">
         <v>0.12549199999999999</v>
@@ -3016,28 +3055,31 @@
       <c r="AK9" s="4">
         <v>0.12549199999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="4">
+        <v>0.12549199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8.6045161319189351E-2</v>
       </c>
       <c r="H10" s="4">
         <v>8.6045161319189351E-2</v>
@@ -3129,28 +3171,31 @@
       <c r="AK10" s="4">
         <v>8.6045161319189351E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="4">
+        <v>8.6045161319189351E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.10082570200399149</v>
       </c>
       <c r="H11" s="4">
         <v>0.10082570200399149</v>
@@ -3242,28 +3287,31 @@
       <c r="AK11" s="4">
         <v>0.10082570200399149</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="4">
+        <v>0.10082570200399149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9.8294000000000006E-2</v>
       </c>
       <c r="H12" s="4">
         <v>9.8294000000000006E-2</v>
@@ -3355,28 +3403,31 @@
       <c r="AK12" s="4">
         <v>9.8294000000000006E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" s="4">
+        <v>9.8294000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" s="4">
-        <v>8.5760042372321738E-2</v>
       </c>
       <c r="H13" s="4">
         <v>8.5760042372321738E-2</v>
@@ -3468,28 +3519,31 @@
       <c r="AK13" s="4">
         <v>8.5760042372321738E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" s="4">
+        <v>8.5760042372321738E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G14" s="4">
-        <v>8.4611000000000006E-2</v>
       </c>
       <c r="H14" s="4">
         <v>8.4611000000000006E-2</v>
@@ -3581,28 +3635,31 @@
       <c r="AK14" s="4">
         <v>8.4611000000000006E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" s="4">
+        <v>8.4611000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G15" s="4">
-        <v>9.6251902779803084E-2</v>
       </c>
       <c r="H15" s="4">
         <v>9.6251902779803084E-2</v>
@@ -3694,26 +3751,26 @@
       <c r="AK15" s="4">
         <v>9.6251902779803084E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" s="4">
+        <v>9.6251902779803084E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
@@ -3804,26 +3861,26 @@
       <c r="AK16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:37">
+      <c r="AL16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
@@ -3914,26 +3971,26 @@
       <c r="AK17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:37">
+      <c r="AL17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
@@ -4024,26 +4081,26 @@
       <c r="AK18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="AL18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
@@ -4134,26 +4191,26 @@
       <c r="AK19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="AL19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
@@ -4244,26 +4301,26 @@
       <c r="AK20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:37">
+      <c r="AL20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
       <c r="H21" s="4">
         <v>1</v>
       </c>
@@ -4354,26 +4411,26 @@
       <c r="AK21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
@@ -4464,26 +4521,26 @@
       <c r="AK22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AL22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
@@ -4574,26 +4631,26 @@
       <c r="AK23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:37">
+      <c r="AL23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
@@ -4684,26 +4741,26 @@
       <c r="AK24" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
@@ -4794,26 +4851,26 @@
       <c r="AK25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:37">
+      <c r="AL25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
@@ -4904,26 +4961,26 @@
       <c r="AK26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AL26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
@@ -5014,26 +5071,26 @@
       <c r="AK27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AL27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
@@ -5124,26 +5181,26 @@
       <c r="AK28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AL28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
@@ -5234,26 +5291,26 @@
       <c r="AK29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AL29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
@@ -5344,26 +5401,26 @@
       <c r="AK30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
       <c r="H31" s="4">
         <v>1</v>
       </c>
@@ -5454,26 +5511,26 @@
       <c r="AK31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:37">
+      <c r="AL31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
@@ -5564,26 +5621,26 @@
       <c r="AK32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AL32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
       <c r="H33" s="4">
         <v>1</v>
       </c>
@@ -5674,26 +5731,26 @@
       <c r="AK33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="AL33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
       <c r="H34" s="4">
         <v>1</v>
       </c>
@@ -5784,26 +5841,26 @@
       <c r="AK34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:37">
+      <c r="AL34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
@@ -5894,26 +5951,26 @@
       <c r="AK35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:37">
+      <c r="AL35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
       <c r="H36" s="4">
         <v>1</v>
       </c>
@@ -6004,36 +6061,35 @@
       <c r="AK36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:37">
+      <c r="AL36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <f>1-0.021</f>
         <v>0.97899999999999998</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" ref="H37:AK37" si="0">1-0.021</f>
-        <v>0.97899999999999998</v>
-      </c>
       <c r="I37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I37:AL37" si="0">1-0.021</f>
         <v>0.97899999999999998</v>
       </c>
       <c r="J37" s="4">
@@ -6148,36 +6204,36 @@
         <f t="shared" si="0"/>
         <v>0.97899999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:37">
+      <c r="AL37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <f>(1-0.021*1.53)</f>
         <v>0.96787000000000001</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" ref="H38:AK38" si="1">(1-0.021*1.53)</f>
-        <v>0.96787000000000001</v>
-      </c>
       <c r="I38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I38:AL38" si="1">(1-0.021*1.53)</f>
         <v>0.96787000000000001</v>
       </c>
       <c r="J38" s="4">
@@ -6292,29 +6348,30 @@
         <f t="shared" si="1"/>
         <v>0.96787000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:37">
+      <c r="AL38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
@@ -6405,29 +6462,29 @@
       <c r="AK39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:37">
+      <c r="AL39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
@@ -6518,29 +6575,29 @@
       <c r="AK40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:37">
+      <c r="AL40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
@@ -6631,28 +6688,31 @@
       <c r="AK41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:37">
+      <c r="AL41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.10288065843621398</v>
       </c>
       <c r="H42" s="4">
         <v>0.10288065843621398</v>
@@ -6744,28 +6804,31 @@
       <c r="AK42" s="4">
         <v>0.10288065843621398</v>
       </c>
-    </row>
-    <row r="43" spans="1:37">
+      <c r="AL42" s="4">
+        <v>0.10288065843621398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.10288065843621398</v>
       </c>
       <c r="H43" s="4">
         <v>0.10288065843621398</v>
@@ -6857,28 +6920,31 @@
       <c r="AK43" s="4">
         <v>0.10288065843621398</v>
       </c>
-    </row>
-    <row r="44" spans="1:37">
+      <c r="AL43" s="4">
+        <v>0.10288065843621398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.10288065843621398</v>
       </c>
       <c r="H44" s="4">
         <v>0.10288065843621398</v>
@@ -6970,28 +7036,31 @@
       <c r="AK44" s="4">
         <v>0.10288065843621398</v>
       </c>
-    </row>
-    <row r="45" spans="1:37">
+      <c r="AL44" s="4">
+        <v>0.10288065843621398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.15723270440251572</v>
       </c>
       <c r="H45" s="4">
         <v>0.15723270440251572</v>
@@ -7083,28 +7152,31 @@
       <c r="AK45" s="4">
         <v>0.15723270440251572</v>
       </c>
-    </row>
-    <row r="46" spans="1:37">
+      <c r="AL45" s="4">
+        <v>0.15723270440251572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.15723270440251572</v>
       </c>
       <c r="H46" s="4">
         <v>0.15723270440251572</v>
@@ -7196,28 +7268,31 @@
       <c r="AK46" s="4">
         <v>0.15723270440251572</v>
       </c>
-    </row>
-    <row r="47" spans="1:37">
+      <c r="AL46" s="4">
+        <v>0.15723270440251572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.15723270440251572</v>
       </c>
       <c r="H47" s="4">
         <v>0.15723270440251572</v>
@@ -7309,28 +7384,31 @@
       <c r="AK47" s="4">
         <v>0.15723270440251572</v>
       </c>
-    </row>
-    <row r="48" spans="1:37">
+      <c r="AL47" s="4">
+        <v>0.15723270440251572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.16129032258064516</v>
       </c>
       <c r="H48" s="4">
         <v>0.16129032258064516</v>
@@ -7422,28 +7500,31 @@
       <c r="AK48" s="4">
         <v>0.16129032258064516</v>
       </c>
-    </row>
-    <row r="49" spans="1:37">
+      <c r="AL48" s="4">
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.16129032258064516</v>
       </c>
       <c r="H49" s="4">
         <v>0.16129032258064516</v>
@@ -7535,28 +7616,31 @@
       <c r="AK49" s="4">
         <v>0.16129032258064516</v>
       </c>
-    </row>
-    <row r="50" spans="1:37">
+      <c r="AL49" s="4">
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0.16129032258064516</v>
       </c>
       <c r="H50" s="4">
         <v>0.16129032258064516</v>
@@ -7648,28 +7732,31 @@
       <c r="AK50" s="4">
         <v>0.16129032258064516</v>
       </c>
-    </row>
-    <row r="51" spans="1:37">
+      <c r="AL50" s="4">
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.13850415512465375</v>
       </c>
       <c r="H51" s="4">
         <v>0.13850415512465375</v>
@@ -7687,43 +7774,43 @@
         <v>0.13850415512465375</v>
       </c>
       <c r="M51" s="4">
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="N51" s="4">
         <v>0.14144271570014144</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>0.14749262536873156</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <v>0.15060240963855423</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <v>0.15408320493066255</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>0.15772870662460567</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <v>0.16129032258064516</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <v>0.16528925619834711</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <v>0.17006802721088435</v>
       </c>
-      <c r="V51" s="4">
+      <c r="W51" s="4">
         <v>0.17543859649122806</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <v>0.18083182640144665</v>
       </c>
-      <c r="X51" s="4">
+      <c r="Y51" s="4">
         <v>0.18691588785046731</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>0.19305019305019305</v>
       </c>
       <c r="Z51" s="4">
         <v>0.19305019305019305</v>
@@ -7761,28 +7848,31 @@
       <c r="AK51" s="4">
         <v>0.19305019305019305</v>
       </c>
-    </row>
-    <row r="52" spans="1:37">
+      <c r="AL51" s="4">
+        <v>0.19305019305019305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.13850415512465375</v>
       </c>
       <c r="H52" s="4">
         <v>0.13850415512465375</v>
@@ -7800,43 +7890,43 @@
         <v>0.13850415512465375</v>
       </c>
       <c r="M52" s="4">
+        <v>0.13850415512465375</v>
+      </c>
+      <c r="N52" s="4">
         <v>0.13986013986013984</v>
       </c>
-      <c r="N52" s="4">
+      <c r="O52" s="4">
         <v>0.14144271570014144</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <v>0.14285714285714285</v>
       </c>
-      <c r="P52" s="4">
+      <c r="Q52" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="4">
         <v>0.14577259475218657</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <v>0.14749262536873156</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <v>0.14903129657228018</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <v>0.15060240963855423</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <v>0.15267175572519084</v>
       </c>
-      <c r="V52" s="4">
+      <c r="W52" s="4">
         <v>0.15479876160990713</v>
       </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
         <v>0.15698587127158556</v>
       </c>
-      <c r="X52" s="4">
+      <c r="Y52" s="4">
         <v>0.1589825119236884</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>0.16129032258064516</v>
       </c>
       <c r="Z52" s="4">
         <v>0.16129032258064516</v>
@@ -7874,28 +7964,31 @@
       <c r="AK52" s="4">
         <v>0.16129032258064516</v>
       </c>
-    </row>
-    <row r="53" spans="1:37">
+      <c r="AL52" s="4">
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.13850415512465375</v>
       </c>
       <c r="H53" s="4">
         <v>0.13850415512465375</v>
@@ -7987,28 +8080,31 @@
       <c r="AK53" s="4">
         <v>0.13850415512465375</v>
       </c>
-    </row>
-    <row r="54" spans="1:37">
+      <c r="AL53" s="4">
+        <v>0.13850415512465375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.14265335235378032</v>
       </c>
       <c r="H54" s="4">
         <v>0.14265335235378032</v>
@@ -8026,43 +8122,43 @@
         <v>0.14265335235378032</v>
       </c>
       <c r="M54" s="4">
+        <v>0.14265335235378032</v>
+      </c>
+      <c r="N54" s="4">
         <v>0.14513788098693758</v>
       </c>
-      <c r="N54" s="4">
+      <c r="O54" s="4">
         <v>0.14771048744460857</v>
       </c>
-      <c r="O54" s="4">
+      <c r="P54" s="4">
         <v>0.15037593984962405</v>
       </c>
-      <c r="P54" s="4">
+      <c r="Q54" s="4">
         <v>0.15313935681470137</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
         <v>0.15600624024960999</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <v>0.1589825119236884</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <v>0.16207455429497569</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <v>0.16528925619834711</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <v>0.17035775127768313</v>
       </c>
-      <c r="V54" s="4">
+      <c r="W54" s="4">
         <v>0.17543859649122806</v>
       </c>
-      <c r="W54" s="4">
+      <c r="X54" s="4">
         <v>0.18083182640144665</v>
       </c>
-      <c r="X54" s="4">
+      <c r="Y54" s="4">
         <v>0.18691588785046731</v>
-      </c>
-      <c r="Y54" s="4">
-        <v>0.19305019305019305</v>
       </c>
       <c r="Z54" s="4">
         <v>0.19305019305019305</v>
@@ -8100,28 +8196,31 @@
       <c r="AK54" s="4">
         <v>0.19305019305019305</v>
       </c>
-    </row>
-    <row r="55" spans="1:37">
+      <c r="AL54" s="4">
+        <v>0.19305019305019305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0.14265335235378032</v>
       </c>
       <c r="H55" s="4">
         <v>0.14265335235378032</v>
@@ -8139,43 +8238,43 @@
         <v>0.14265335235378032</v>
       </c>
       <c r="M55" s="4">
+        <v>0.14265335235378032</v>
+      </c>
+      <c r="N55" s="4">
         <v>0.14388489208633093</v>
       </c>
-      <c r="N55" s="4">
+      <c r="O55" s="4">
         <v>0.14513788098693758</v>
       </c>
-      <c r="O55" s="4">
+      <c r="P55" s="4">
         <v>0.14641288433382138</v>
       </c>
-      <c r="P55" s="4">
+      <c r="Q55" s="4">
         <v>0.14771048744460857</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="4">
         <v>0.14903129657228018</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <v>0.15037593984962405</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <v>0.15174506828528073</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <v>0.15313935681470137</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <v>0.15527950310559005</v>
       </c>
-      <c r="V55" s="4">
+      <c r="W55" s="4">
         <v>0.15748031496062992</v>
       </c>
-      <c r="W55" s="4">
+      <c r="X55" s="4">
         <v>0.15948963317384371</v>
       </c>
-      <c r="X55" s="4">
+      <c r="Y55" s="4">
         <v>0.16181229773462785</v>
-      </c>
-      <c r="Y55" s="4">
-        <v>0.16420361247947454</v>
       </c>
       <c r="Z55" s="4">
         <v>0.16420361247947454</v>
@@ -8213,28 +8312,31 @@
       <c r="AK55" s="4">
         <v>0.16420361247947454</v>
       </c>
-    </row>
-    <row r="56" spans="1:37">
+      <c r="AL55" s="4">
+        <v>0.16420361247947454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.14265335235378032</v>
       </c>
       <c r="H56" s="4">
         <v>0.14265335235378032</v>
@@ -8326,28 +8428,31 @@
       <c r="AK56" s="4">
         <v>0.14265335235378032</v>
       </c>
-    </row>
-    <row r="57" spans="1:37">
+      <c r="AL56" s="4">
+        <v>0.14265335235378032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.13774104683195593</v>
       </c>
       <c r="H57" s="4">
         <v>0.13774104683195593</v>
@@ -8365,43 +8470,43 @@
         <v>0.13774104683195593</v>
       </c>
       <c r="M57" s="4">
+        <v>0.13774104683195593</v>
+      </c>
+      <c r="N57" s="4">
         <v>0.14064697609001406</v>
       </c>
-      <c r="N57" s="4">
+      <c r="O57" s="4">
         <v>0.14347202295552366</v>
       </c>
-      <c r="O57" s="4">
+      <c r="P57" s="4">
         <v>0.14662756598240467</v>
       </c>
-      <c r="P57" s="4">
+      <c r="Q57" s="4">
         <v>0.14970059880239522</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="4">
         <v>0.15313935681470137</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <v>0.15673981191222572</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <v>0.16025641025641024</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <v>0.16420361247947454</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <v>0.16920473773265651</v>
       </c>
-      <c r="V57" s="4">
+      <c r="W57" s="4">
         <v>0.17452006980802792</v>
       </c>
-      <c r="W57" s="4">
+      <c r="X57" s="4">
         <v>0.18050541516245489</v>
       </c>
-      <c r="X57" s="4">
+      <c r="Y57" s="4">
         <v>0.18656716417910446</v>
-      </c>
-      <c r="Y57" s="4">
-        <v>0.19305019305019305</v>
       </c>
       <c r="Z57" s="4">
         <v>0.19305019305019305</v>
@@ -8439,28 +8544,31 @@
       <c r="AK57" s="4">
         <v>0.19305019305019305</v>
       </c>
-    </row>
-    <row r="58" spans="1:37">
+      <c r="AL57" s="4">
+        <v>0.19305019305019305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0.13774104683195593</v>
       </c>
       <c r="H58" s="4">
         <v>0.13774104683195593</v>
@@ -8478,43 +8586,43 @@
         <v>0.13774104683195593</v>
       </c>
       <c r="M58" s="4">
+        <v>0.13774104683195593</v>
+      </c>
+      <c r="N58" s="4">
         <v>0.13908205841446453</v>
       </c>
-      <c r="N58" s="4">
+      <c r="O58" s="4">
         <v>0.14064697609001406</v>
       </c>
-      <c r="O58" s="4">
+      <c r="P58" s="4">
         <v>0.14204545454545456</v>
       </c>
-      <c r="P58" s="4">
+      <c r="Q58" s="4">
         <v>0.14347202295552366</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="R58" s="4">
         <v>0.14513788098693758</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <v>0.14662756598240467</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <v>0.14814814814814814</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <v>0.14970059880239522</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <v>0.1519756838905775</v>
       </c>
-      <c r="V58" s="4">
+      <c r="W58" s="4">
         <v>0.15408320493066255</v>
       </c>
-      <c r="W58" s="4">
+      <c r="X58" s="4">
         <v>0.15625</v>
       </c>
-      <c r="X58" s="4">
+      <c r="Y58" s="4">
         <v>0.1584786053882726</v>
-      </c>
-      <c r="Y58" s="4">
-        <v>0.16077170418006431</v>
       </c>
       <c r="Z58" s="4">
         <v>0.16077170418006431</v>
@@ -8552,28 +8660,31 @@
       <c r="AK58" s="4">
         <v>0.16077170418006431</v>
       </c>
-    </row>
-    <row r="59" spans="1:37">
+      <c r="AL58" s="4">
+        <v>0.16077170418006431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0.13774104683195593</v>
       </c>
       <c r="H59" s="4">
         <v>0.13774104683195593</v>
@@ -8665,28 +8776,31 @@
       <c r="AK59" s="4">
         <v>0.13774104683195593</v>
       </c>
-    </row>
-    <row r="60" spans="1:37">
+      <c r="AL59" s="4">
+        <v>0.13774104683195593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0.14184397163120568</v>
       </c>
       <c r="H60" s="4">
         <v>0.14184397163120568</v>
@@ -8704,43 +8818,43 @@
         <v>0.14184397163120568</v>
       </c>
       <c r="M60" s="4">
+        <v>0.14184397163120568</v>
+      </c>
+      <c r="N60" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="N60" s="4">
+      <c r="O60" s="4">
         <v>0.14684287812041116</v>
       </c>
-      <c r="O60" s="4">
+      <c r="P60" s="4">
         <v>0.14947683109118085</v>
       </c>
-      <c r="P60" s="4">
+      <c r="Q60" s="4">
         <v>0.15220700152207001</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="4">
         <v>0.15503875968992248</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <v>0.15797788309636651</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <v>0.1610305958132045</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <v>0.16420361247947454</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <v>0.16920473773265651</v>
       </c>
-      <c r="V60" s="4">
+      <c r="W60" s="4">
         <v>0.17482517482517484</v>
       </c>
-      <c r="W60" s="4">
+      <c r="X60" s="4">
         <v>0.18050541516245489</v>
       </c>
-      <c r="X60" s="4">
+      <c r="Y60" s="4">
         <v>0.18656716417910446</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>0.19305019305019305</v>
       </c>
       <c r="Z60" s="4">
         <v>0.19305019305019305</v>
@@ -8778,28 +8892,31 @@
       <c r="AK60" s="4">
         <v>0.19305019305019305</v>
       </c>
-    </row>
-    <row r="61" spans="1:37">
+      <c r="AL60" s="4">
+        <v>0.19305019305019305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.14184397163120568</v>
       </c>
       <c r="H61" s="4">
         <v>0.14184397163120568</v>
@@ -8817,43 +8934,43 @@
         <v>0.14184397163120568</v>
       </c>
       <c r="M61" s="4">
+        <v>0.14184397163120568</v>
+      </c>
+      <c r="N61" s="4">
         <v>0.14306151645207438</v>
       </c>
-      <c r="N61" s="4">
+      <c r="O61" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="O61" s="4">
+      <c r="P61" s="4">
         <v>0.14556040756914118</v>
       </c>
-      <c r="P61" s="4">
+      <c r="Q61" s="4">
         <v>0.14684287812041116</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="4">
         <v>0.14814814814814814</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <v>0.14947683109118085</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <v>0.15082956259426847</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <v>0.15220700152207001</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <v>0.15432098765432098</v>
       </c>
-      <c r="V61" s="4">
+      <c r="W61" s="4">
         <v>0.15673981191222572</v>
       </c>
-      <c r="W61" s="4">
+      <c r="X61" s="4">
         <v>0.1589825119236884</v>
       </c>
-      <c r="X61" s="4">
+      <c r="Y61" s="4">
         <v>0.16129032258064516</v>
-      </c>
-      <c r="Y61" s="4">
-        <v>0.16366612111292961</v>
       </c>
       <c r="Z61" s="4">
         <v>0.16366612111292961</v>
@@ -8891,28 +9008,31 @@
       <c r="AK61" s="4">
         <v>0.16366612111292961</v>
       </c>
-    </row>
-    <row r="62" spans="1:37">
+      <c r="AL61" s="4">
+        <v>0.16366612111292961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38">
       <c r="A62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.14184397163120568</v>
       </c>
       <c r="H62" s="4">
         <v>0.14184397163120568</v>
@@ -9004,28 +9124,31 @@
       <c r="AK62" s="4">
         <v>0.14184397163120568</v>
       </c>
-    </row>
-    <row r="63" spans="1:37">
+      <c r="AL62" s="4">
+        <v>0.14184397163120568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38">
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0.11778563015312131</v>
       </c>
       <c r="H63" s="4">
         <v>0.11778563015312131</v>
@@ -9043,28 +9166,28 @@
         <v>0.11778563015312131</v>
       </c>
       <c r="M63" s="4">
+        <v>0.11778563015312131</v>
+      </c>
+      <c r="N63" s="4">
         <v>0.12019230769230768</v>
       </c>
-      <c r="N63" s="4">
+      <c r="O63" s="4">
         <v>0.12285012285012284</v>
       </c>
-      <c r="O63" s="4">
+      <c r="P63" s="4">
         <v>0.12547051442910917</v>
       </c>
-      <c r="P63" s="4">
+      <c r="Q63" s="4">
         <v>0.12836970474967907</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="4">
         <v>0.13123359580052493</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <v>0.13422818791946309</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <v>0.13755158184319122</v>
-      </c>
-      <c r="T63" s="4">
-        <v>0.14084507042253522</v>
       </c>
       <c r="U63" s="4">
         <v>0.14084507042253522</v>
@@ -9117,28 +9240,31 @@
       <c r="AK63" s="4">
         <v>0.14084507042253522</v>
       </c>
-    </row>
-    <row r="64" spans="1:37">
+      <c r="AL63" s="4">
+        <v>0.14084507042253522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0.11778563015312131</v>
       </c>
       <c r="H64" s="4">
         <v>0.11778563015312131</v>
@@ -9156,28 +9282,28 @@
         <v>0.11778563015312131</v>
       </c>
       <c r="M64" s="4">
+        <v>0.11778563015312131</v>
+      </c>
+      <c r="N64" s="4">
         <v>0.11904761904761904</v>
       </c>
-      <c r="N64" s="4">
+      <c r="O64" s="4">
         <v>0.12019230769230768</v>
       </c>
-      <c r="O64" s="4">
+      <c r="P64" s="4">
         <v>0.12150668286755771</v>
       </c>
-      <c r="P64" s="4">
+      <c r="Q64" s="4">
         <v>0.12285012285012284</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="4">
         <v>0.12406947890818858</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <v>0.12547051442910917</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <v>0.12690355329949238</v>
-      </c>
-      <c r="T64" s="4">
-        <v>0.12836970474967907</v>
       </c>
       <c r="U64" s="4">
         <v>0.12836970474967907</v>
@@ -9230,28 +9356,31 @@
       <c r="AK64" s="4">
         <v>0.12836970474967907</v>
       </c>
-    </row>
-    <row r="65" spans="1:37">
+      <c r="AL64" s="4">
+        <v>0.12836970474967907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.11778563015312131</v>
       </c>
       <c r="H65" s="4">
         <v>0.11778563015312131</v>
@@ -9343,28 +9472,31 @@
       <c r="AK65" s="4">
         <v>0.11778563015312131</v>
       </c>
-    </row>
-    <row r="66" spans="1:37">
+      <c r="AL65" s="4">
+        <v>0.11778563015312131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G66" s="4">
-        <v>9.1407678244972576E-2</v>
       </c>
       <c r="H66" s="4">
         <v>9.1407678244972576E-2</v>
@@ -9382,43 +9514,43 @@
         <v>9.1407678244972576E-2</v>
       </c>
       <c r="M66" s="4">
+        <v>9.1407678244972576E-2</v>
+      </c>
+      <c r="N66" s="4">
         <v>9.3545369504209552E-2</v>
       </c>
-      <c r="N66" s="4">
+      <c r="O66" s="4">
         <v>9.5785440613026823E-2</v>
       </c>
-      <c r="O66" s="4">
+      <c r="P66" s="4">
         <v>9.8039215686274522E-2</v>
       </c>
-      <c r="P66" s="4">
+      <c r="Q66" s="4">
         <v>0.10050251256281408</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="R66" s="4">
         <v>0.10309278350515465</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <v>0.10570824524312895</v>
       </c>
-      <c r="S66" s="4">
+      <c r="T66" s="4">
         <v>0.10857763300760043</v>
       </c>
-      <c r="T66" s="4">
+      <c r="U66" s="4">
         <v>0.11160714285714285</v>
       </c>
-      <c r="U66" s="4">
+      <c r="V66" s="4">
         <v>0.11337868480725623</v>
       </c>
-      <c r="V66" s="4">
+      <c r="W66" s="4">
         <v>0.1152073732718894</v>
       </c>
-      <c r="W66" s="4">
+      <c r="X66" s="4">
         <v>0.117096018735363</v>
       </c>
-      <c r="X66" s="4">
+      <c r="Y66" s="4">
         <v>0.11904761904761904</v>
-      </c>
-      <c r="Y66" s="4">
-        <v>0.12106537530266344</v>
       </c>
       <c r="Z66" s="4">
         <v>0.12106537530266344</v>
@@ -9456,28 +9588,31 @@
       <c r="AK66" s="4">
         <v>0.12106537530266344</v>
       </c>
-    </row>
-    <row r="67" spans="1:37">
+      <c r="AL66" s="4">
+        <v>0.12106537530266344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G67" s="4">
-        <v>9.1407678244972576E-2</v>
       </c>
       <c r="H67" s="4">
         <v>9.1407678244972576E-2</v>
@@ -9495,43 +9630,43 @@
         <v>9.1407678244972576E-2</v>
       </c>
       <c r="M67" s="4">
+        <v>9.1407678244972576E-2</v>
+      </c>
+      <c r="N67" s="4">
         <v>9.2506938020351523E-2</v>
       </c>
-      <c r="N67" s="4">
+      <c r="O67" s="4">
         <v>9.3545369504209552E-2</v>
       </c>
-      <c r="O67" s="4">
+      <c r="P67" s="4">
         <v>9.46073793755913E-2</v>
       </c>
-      <c r="P67" s="4">
+      <c r="Q67" s="4">
         <v>9.5785440613026823E-2</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="R67" s="4">
         <v>9.6899224806201542E-2</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <v>9.8039215686274522E-2</v>
       </c>
-      <c r="S67" s="4">
+      <c r="T67" s="4">
         <v>9.9304865938430978E-2</v>
       </c>
-      <c r="T67" s="4">
+      <c r="U67" s="4">
         <v>0.10050251256281408</v>
       </c>
-      <c r="U67" s="4">
+      <c r="V67" s="4">
         <v>0.10121457489878542</v>
       </c>
-      <c r="V67" s="4">
+      <c r="W67" s="4">
         <v>0.1019367991845056</v>
       </c>
-      <c r="W67" s="4">
+      <c r="X67" s="4">
         <v>0.10266940451745379</v>
       </c>
-      <c r="X67" s="4">
+      <c r="Y67" s="4">
         <v>0.10341261633919338</v>
-      </c>
-      <c r="Y67" s="4">
-        <v>0.10416666666666667</v>
       </c>
       <c r="Z67" s="4">
         <v>0.10416666666666667</v>
@@ -9569,28 +9704,31 @@
       <c r="AK67" s="4">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="68" spans="1:37">
+      <c r="AL67" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G68" s="4">
-        <v>9.1407678244972576E-2</v>
       </c>
       <c r="H68" s="4">
         <v>9.1407678244972576E-2</v>
@@ -9682,28 +9820,31 @@
       <c r="AK68" s="4">
         <v>9.1407678244972576E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:37">
+      <c r="AL68" s="4">
+        <v>9.1407678244972576E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G69" s="4">
-        <v>8.9928057553956844E-2</v>
       </c>
       <c r="H69" s="4">
         <v>8.9928057553956844E-2</v>
@@ -9721,43 +9862,43 @@
         <v>8.9928057553956844E-2</v>
       </c>
       <c r="M69" s="4">
+        <v>8.9928057553956844E-2</v>
+      </c>
+      <c r="N69" s="4">
         <v>9.1996320147194124E-2</v>
       </c>
-      <c r="N69" s="4">
+      <c r="O69" s="4">
         <v>9.4161958568738241E-2</v>
       </c>
-      <c r="O69" s="4">
+      <c r="P69" s="4">
         <v>9.643201542912247E-2</v>
       </c>
-      <c r="P69" s="4">
+      <c r="Q69" s="4">
         <v>9.8716683119447174E-2</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="R69" s="4">
         <v>0.10121457489878542</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <v>0.10384215991692626</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <v>0.10649627263045792</v>
       </c>
-      <c r="T69" s="4">
+      <c r="U69" s="4">
         <v>0.10940919037199125</v>
       </c>
-      <c r="U69" s="4">
+      <c r="V69" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V69" s="4">
+      <c r="W69" s="4">
         <v>0.11286681715575622</v>
       </c>
-      <c r="W69" s="4">
+      <c r="X69" s="4">
         <v>0.1146788990825688</v>
       </c>
-      <c r="X69" s="4">
+      <c r="Y69" s="4">
         <v>0.11655011655011654</v>
-      </c>
-      <c r="Y69" s="4">
-        <v>0.11848341232227488</v>
       </c>
       <c r="Z69" s="4">
         <v>0.11848341232227488</v>
@@ -9795,28 +9936,31 @@
       <c r="AK69" s="4">
         <v>0.11848341232227488</v>
       </c>
-    </row>
-    <row r="70" spans="1:37">
+      <c r="AL69" s="4">
+        <v>0.11848341232227488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G70" s="4">
-        <v>8.9928057553956844E-2</v>
       </c>
       <c r="H70" s="4">
         <v>8.9928057553956844E-2</v>
@@ -9834,43 +9978,43 @@
         <v>8.9928057553956844E-2</v>
       </c>
       <c r="M70" s="4">
+        <v>8.9928057553956844E-2</v>
+      </c>
+      <c r="N70" s="4">
         <v>9.0991810737033663E-2</v>
       </c>
-      <c r="N70" s="4">
+      <c r="O70" s="4">
         <v>9.1996320147194124E-2</v>
       </c>
-      <c r="O70" s="4">
+      <c r="P70" s="4">
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="P70" s="4">
+      <c r="Q70" s="4">
         <v>9.4161958568738241E-2</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="R70" s="4">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="R70" s="4">
+      <c r="S70" s="4">
         <v>9.643201542912247E-2</v>
       </c>
-      <c r="S70" s="4">
+      <c r="T70" s="4">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="T70" s="4">
+      <c r="U70" s="4">
         <v>9.8716683119447174E-2</v>
       </c>
-      <c r="U70" s="4">
+      <c r="V70" s="4">
         <v>9.940357852882703E-2</v>
       </c>
-      <c r="V70" s="4">
+      <c r="W70" s="4">
         <v>0.10010010010010009</v>
       </c>
-      <c r="W70" s="4">
+      <c r="X70" s="4">
         <v>0.10080645161290323</v>
       </c>
-      <c r="X70" s="4">
+      <c r="Y70" s="4">
         <v>0.10152284263959391</v>
-      </c>
-      <c r="Y70" s="4">
-        <v>0.10224948875255624</v>
       </c>
       <c r="Z70" s="4">
         <v>0.10224948875255624</v>
@@ -9908,28 +10052,31 @@
       <c r="AK70" s="4">
         <v>0.10224948875255624</v>
       </c>
-    </row>
-    <row r="71" spans="1:37">
+      <c r="AL70" s="4">
+        <v>0.10224948875255624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G71" s="4">
-        <v>8.9928057553956844E-2</v>
       </c>
       <c r="H71" s="4">
         <v>8.9928057553956844E-2</v>
@@ -10021,36 +10168,38 @@
       <c r="AK71" s="4">
         <v>8.9928057553956844E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:37">
+      <c r="AL71" s="4">
+        <v>8.9928057553956844E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <f>1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="H72" s="4">
-        <f t="shared" ref="H72:AK72" si="2">1/7.2</f>
-        <v>0.1388888888888889</v>
-      </c>
       <c r="I72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I72:AL72" si="2">1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="J72" s="4">
@@ -10165,10 +10314,14 @@
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
+      <c r="AL72" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1388888888888889</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AK23">
-    <sortCondition ref="E2:E23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AL23">
+    <sortCondition ref="F2:F23"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10181,7 +10334,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10460,7 +10613,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>128</v>
@@ -10502,7 +10655,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>128</v>
@@ -10747,7 +10900,7 @@
         <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="9:10">
@@ -10905,7 +11058,7 @@
         <v>114</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -10958,19 +11111,19 @@
         <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -11052,6 +11205,89 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A47CB8-26D7-4384-B67F-C99C96CB6C80}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2030</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1">
+        <v>26505.0756</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
@@ -13337,7 +13573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C1FD3-1933-4825-94FA-30ED0724E508}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -13356,16 +13592,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13456,7 +13692,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13470,90 +13706,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A47CB8-26D7-4384-B67F-C99C96CB6C80}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2030</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="1">
-        <v>53010150900</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2050</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -13566,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13582,13 +13735,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -13691,98 +13844,101 @@
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D2" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E2" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F2" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H2" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I2" s="6">
-        <v>0.05</v>
+        <v>6.3483644739827622E-2</v>
       </c>
       <c r="J2" s="6">
-        <v>0.05</v>
+        <v>6.2454206744882147E-2</v>
       </c>
       <c r="K2" s="6">
-        <v>0.05</v>
+        <v>6.1516326015163603E-2</v>
       </c>
       <c r="L2" s="6">
-        <v>0.05</v>
+        <v>6.0670002550671967E-2</v>
       </c>
       <c r="M2" s="6">
-        <v>0.05</v>
+        <v>5.9915236351407233E-2</v>
       </c>
       <c r="N2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH2" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -13792,98 +13948,101 @@
       <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D3" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E3" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I3" s="6">
-        <v>0.05</v>
+        <v>6.3483644739827622E-2</v>
       </c>
       <c r="J3" s="6">
-        <v>0.05</v>
+        <v>6.2454206744882147E-2</v>
       </c>
       <c r="K3" s="6">
-        <v>0.05</v>
+        <v>6.1516326015163603E-2</v>
       </c>
       <c r="L3" s="6">
-        <v>0.05</v>
+        <v>6.0670002550671967E-2</v>
       </c>
       <c r="M3" s="6">
-        <v>0.05</v>
+        <v>5.9915236351407233E-2</v>
       </c>
       <c r="N3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH3" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -13893,98 +14052,101 @@
       <c r="B4" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D4" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>0.05</v>
+        <v>6.3483644739827622E-2</v>
       </c>
       <c r="J4" s="6">
-        <v>0.05</v>
+        <v>6.2454206744882147E-2</v>
       </c>
       <c r="K4" s="6">
-        <v>0.05</v>
+        <v>6.1516326015163603E-2</v>
       </c>
       <c r="L4" s="6">
-        <v>0.05</v>
+        <v>6.0670002550671967E-2</v>
       </c>
       <c r="M4" s="6">
-        <v>0.05</v>
+        <v>5.9915236351407233E-2</v>
       </c>
       <c r="N4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH4" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -13994,98 +14156,101 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J5" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K5" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L5" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M5" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH5" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14095,98 +14260,101 @@
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I6" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J6" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K6" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L6" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M6" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH6" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -14196,98 +14364,101 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J7" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K7" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L7" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M7" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH7" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -14297,98 +14468,101 @@
       <c r="B8" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J8" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K8" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L8" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M8" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH8" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -14398,98 +14572,101 @@
       <c r="B9" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I9" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J9" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K9" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L9" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M9" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH9" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -14499,98 +14676,101 @@
       <c r="B10" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I10" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J10" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K10" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L10" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M10" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH10" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -14600,98 +14780,101 @@
       <c r="B11" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J11" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K11" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M11" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH11" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -14701,98 +14884,101 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AB12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AF12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AH12" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -14802,98 +14988,101 @@
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AB13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AF13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AH13" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -14903,98 +15092,101 @@
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AB14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AF14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AH14" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -15004,98 +15196,101 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AB15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AF15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AH15" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -15105,98 +15300,101 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="S16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="W16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="X16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AB16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AC16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AF16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AH16" s="6">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -15206,98 +15404,101 @@
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I17" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J17" s="6">
-        <v>0.05</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K17" s="6">
-        <v>0.05</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L17" s="6">
-        <v>0.05</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M17" s="6">
-        <v>0.05</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH17" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -15307,98 +15508,101 @@
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I18" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J18" s="6">
-        <v>0.05</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K18" s="6">
-        <v>0.05</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L18" s="6">
-        <v>0.05</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M18" s="6">
-        <v>0.05</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH18" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -15408,98 +15612,101 @@
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" s="6">
-        <v>0.05</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="E19" s="6">
-        <v>0.05</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="F19" s="6">
-        <v>0.05</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>0.05</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="H19" s="6">
-        <v>0.05</v>
+        <v>5.4717176867835497E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>0.05</v>
+        <v>5.4717176867835497E-2</v>
       </c>
       <c r="J19" s="6">
-        <v>0.05</v>
+        <v>4.8953703285046599E-2</v>
       </c>
       <c r="K19" s="6">
-        <v>0.05</v>
+        <v>5.017114625137091E-2</v>
       </c>
       <c r="L19" s="6">
-        <v>0.05</v>
+        <v>5.1377711004503855E-2</v>
       </c>
       <c r="M19" s="6">
-        <v>0.05</v>
+        <v>5.2573397544445441E-2</v>
       </c>
       <c r="N19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="O19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="P19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Q19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="R19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="S19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="T19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="U19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="V19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="W19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="X19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Y19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Z19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AA19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AB19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AC19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AD19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AE19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AF19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AG19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AH19" s="6">
-        <v>0.05</v>
+        <v>5.3758205871195661E-2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -15509,98 +15716,101 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D20" s="6">
-        <v>0.05</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="E20" s="6">
-        <v>0.05</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="F20" s="6">
-        <v>0.05</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>0.05</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="H20" s="6">
-        <v>0.05</v>
+        <v>5.4975290877219488E-2</v>
       </c>
       <c r="I20" s="6">
-        <v>0.05</v>
+        <v>5.4975290877219488E-2</v>
       </c>
       <c r="J20" s="6">
-        <v>0.05</v>
+        <v>4.9100229521914382E-2</v>
       </c>
       <c r="K20" s="6">
-        <v>0.05</v>
+        <v>5.0319722897432619E-2</v>
       </c>
       <c r="L20" s="6">
-        <v>0.05</v>
+        <v>5.1528342019589127E-2</v>
       </c>
       <c r="M20" s="6">
-        <v>0.05</v>
+        <v>5.27260868883839E-2</v>
       </c>
       <c r="N20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="O20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="P20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Q20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="R20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="S20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="T20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="U20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="V20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="W20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="X20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Y20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Z20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AA20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AB20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AC20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AD20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AE20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AF20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AG20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AH20" s="6">
-        <v>0.05</v>
+        <v>5.3912957503816944E-2</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -15610,98 +15820,101 @@
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D21" s="6">
-        <v>0.05</v>
+        <v>5.2714068831298061E-2</v>
       </c>
       <c r="E21" s="6">
-        <v>0.05</v>
+        <v>5.2714068913427573E-2</v>
       </c>
       <c r="F21" s="6">
-        <v>0.05</v>
+        <v>5.2714067615884028E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>0.05</v>
+        <v>5.2714065265614916E-2</v>
       </c>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>5.1333716316218116E-2</v>
       </c>
       <c r="I21" s="6">
-        <v>0.05</v>
+        <v>5.1333716316218116E-2</v>
       </c>
       <c r="J21" s="6">
-        <v>0.05</v>
+        <v>4.6796974915771457E-2</v>
       </c>
       <c r="K21" s="6">
-        <v>0.05</v>
+        <v>4.7954991225244319E-2</v>
       </c>
       <c r="L21" s="6">
-        <v>0.05</v>
+        <v>4.910151958532237E-2</v>
       </c>
       <c r="M21" s="6">
-        <v>0.05</v>
+        <v>5.0236559996005625E-2</v>
       </c>
       <c r="N21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="O21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="P21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Q21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="R21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="S21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="T21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="U21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="V21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="W21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="X21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Y21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Z21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AA21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AB21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AC21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AD21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AE21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AF21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AG21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AH21" s="6">
-        <v>0.05</v>
+        <v>5.1360112457294049E-2</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -15711,98 +15924,101 @@
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="E22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="F22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="G22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="H22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="J22" s="6">
-        <v>0.05</v>
+        <v>5.0517526083259712E-2</v>
       </c>
       <c r="K22" s="6">
-        <v>0.05</v>
+        <v>5.1880573743356126E-2</v>
       </c>
       <c r="L22" s="6">
-        <v>0.05</v>
+        <v>5.3230604845311058E-2</v>
       </c>
       <c r="M22" s="6">
-        <v>0.05</v>
+        <v>5.4567619389124508E-2</v>
       </c>
       <c r="N22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="O22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="P22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Q22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="R22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="S22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="T22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="U22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="V22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="W22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="X22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Y22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Z22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AA22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AB22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AC22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AD22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AE22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AF22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AG22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AH22" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -15812,98 +16028,101 @@
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="E23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="F23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="G23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="I23" s="6">
-        <v>0.05</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="J23" s="6">
-        <v>0.05</v>
+        <v>5.0517526083259712E-2</v>
       </c>
       <c r="K23" s="6">
-        <v>0.05</v>
+        <v>5.1880573743356126E-2</v>
       </c>
       <c r="L23" s="6">
-        <v>0.05</v>
+        <v>5.3230604845311058E-2</v>
       </c>
       <c r="M23" s="6">
-        <v>0.05</v>
+        <v>5.4567619389124508E-2</v>
       </c>
       <c r="N23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="O23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="P23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Q23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="R23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="S23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="T23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="U23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="V23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="W23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="X23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Y23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Z23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AA23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AB23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AC23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AD23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AE23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AF23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AG23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AH23" s="6">
-        <v>0.05</v>
+        <v>5.5891617374796462E-2</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -15913,98 +16132,101 @@
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D24" s="6">
-        <v>0.05</v>
+        <v>7.1222518716689817E-2</v>
       </c>
       <c r="E24" s="6">
-        <v>0.05</v>
+        <v>6.7488370692059652E-2</v>
       </c>
       <c r="F24" s="6">
-        <v>0.05</v>
+        <v>6.3262373937746669E-2</v>
       </c>
       <c r="G24" s="6">
-        <v>0.05</v>
+        <v>6.3614945854595317E-2</v>
       </c>
       <c r="H24" s="6">
-        <v>0.05</v>
+        <v>6.398782538949381E-2</v>
       </c>
       <c r="I24" s="6">
-        <v>0.05</v>
+        <v>6.398782538949381E-2</v>
       </c>
       <c r="J24" s="6">
-        <v>0.05</v>
+        <v>5.0562860072941751E-2</v>
       </c>
       <c r="K24" s="6">
-        <v>0.05</v>
+        <v>5.1765601994873678E-2</v>
       </c>
       <c r="L24" s="6">
-        <v>0.05</v>
+        <v>5.295762821876851E-2</v>
       </c>
       <c r="M24" s="6">
-        <v>0.05</v>
+        <v>5.4138938744626219E-2</v>
       </c>
       <c r="N24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="O24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="P24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Q24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="R24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="S24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="T24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="U24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="V24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="W24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="X24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Y24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Z24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AA24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AB24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AC24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AD24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AE24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AF24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AG24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AH24" s="6">
-        <v>0.05</v>
+        <v>5.5309533572446834E-2</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -16014,98 +16236,101 @@
       <c r="B25" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="E25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="F25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="G25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="H25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="I25" s="6">
-        <v>0.05</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="J25" s="6">
-        <v>0.05</v>
+        <v>6.6970816000000002E-2</v>
       </c>
       <c r="K25" s="6">
-        <v>0.05</v>
+        <v>6.7683712000000007E-2</v>
       </c>
       <c r="L25" s="6">
-        <v>0.05</v>
+        <v>6.8396608000000012E-2</v>
       </c>
       <c r="M25" s="6">
-        <v>0.05</v>
+        <v>6.9109504000000002E-2</v>
       </c>
       <c r="N25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="O25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="P25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="Q25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="R25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="S25" s="6">
-        <v>0.05</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="T25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="U25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="V25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="W25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="X25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="Y25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="Z25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AA25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AB25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AC25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AD25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AE25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AF25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AG25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AH25" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -16115,98 +16340,101 @@
       <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="C26" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I26" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J26" s="6">
-        <v>0.05</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K26" s="6">
-        <v>0.05</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L26" s="6">
-        <v>0.05</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M26" s="6">
-        <v>0.05</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH26" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -16216,6 +16444,9 @@
       <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C27" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D27" s="6">
         <v>0.05</v>
       </c>
@@ -16317,6 +16548,9 @@
       <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C28" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D28" s="6">
         <v>0.05</v>
       </c>
@@ -16417,6 +16651,9 @@
       </c>
       <c r="B29" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D29" s="6">
         <v>0.05</v>
@@ -16516,6 +16753,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
     <sortCondition descending="1" ref="A2:A29"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3948D6D-1B0F-4381-9A3E-3177E9B7E82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FC755-BEBF-449D-B8C0-F4914FB3C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="CapacityFactor" sheetId="4" r:id="rId7"/>
     <sheet name="StorageDuration" sheetId="7" r:id="rId8"/>
     <sheet name="DiscountRate" sheetId="9" r:id="rId9"/>
+    <sheet name="CapacityCredit" sheetId="10" r:id="rId10"/>
+    <sheet name="PlanningReserveMargin" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="169">
   <si>
     <t>p</t>
   </si>
@@ -77,9 +79,6 @@
   </si>
   <si>
     <t>eff_notes</t>
-  </si>
-  <si>
-    <t>Batt_10h_New</t>
   </si>
   <si>
     <t>Batt_2h_New</t>
@@ -524,6 +523,36 @@
   </si>
   <si>
     <t>30% from 2005 levels by the year 2030 - 80.15 MMTC02 on 2005 -&gt; kt is US ton</t>
+  </si>
+  <si>
+    <t>cf_tech_notes</t>
+  </si>
+  <si>
+    <t>reserve_margin</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>From DEC and DEP Carbon Plan 2022</t>
+  </si>
+  <si>
+    <t>Duke Energy Carolinas and Duke Energy Progress Effective Load Carrying Capability (ELCC) Study 2022</t>
+  </si>
+  <si>
+    <t>Duke Energy Carolinas and Duke Energy Progress Effective Load Carrying Capability (ELCC) Study 2022 and dx.doi.org/10.1021/acs.est.9b04184</t>
+  </si>
+  <si>
+    <t>capacity_credit</t>
+  </si>
+  <si>
+    <t>consistent with Duke Energy Carolinas and Duke Energy Progress Effective Load Carrying Capability (ELCC) Study 2022, used values from dx.doi.org/10.1021/acs.est.9b04184</t>
+  </si>
+  <si>
+    <t>NERC - EFORd&gt; Generating Unit Statistical Brochures</t>
+  </si>
+  <si>
+    <t>average power during winter 21 NC summary Data - principle standard CPUC 2020</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1162,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,6 +1191,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="303">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{481973AC-C099-41F4-B161-C5B6E82139A9}"/>
@@ -1786,10 +1823,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1819,6 +1856,565 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1838,156 +2434,156 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1997,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2017,13 +2613,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
@@ -2139,19 +2735,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4">
         <v>4.8886325507251846E-2</v>
@@ -2255,19 +2851,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4">
         <v>0.18833938153867247</v>
@@ -2371,19 +2967,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4">
         <v>9.7702964229772357E-2</v>
@@ -2487,19 +3083,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4">
         <v>9.061632603536629E-2</v>
@@ -2603,19 +3199,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4">
         <v>0.1130709702382507</v>
@@ -2719,19 +3315,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4">
         <v>6.1652581415162257E-2</v>
@@ -2835,19 +3431,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4">
         <v>9.4401803149961605E-2</v>
@@ -2951,19 +3547,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4">
         <v>0.12549199999999999</v>
@@ -3067,19 +3663,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4">
         <v>8.6045161319189351E-2</v>
@@ -3183,19 +3779,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4">
         <v>0.10082570200399149</v>
@@ -3299,19 +3895,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4">
         <v>9.8294000000000006E-2</v>
@@ -3415,19 +4011,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="4">
         <v>8.5760042372321738E-2</v>
@@ -3531,19 +4127,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4">
         <v>8.4611000000000006E-2</v>
@@ -3647,19 +4243,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="4">
         <v>9.6251902779803084E-2</v>
@@ -3763,13 +4359,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3873,13 +4469,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -3983,13 +4579,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -4093,13 +4689,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -4203,13 +4799,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -4313,13 +4909,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -4423,13 +5019,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -4533,13 +5129,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -4643,13 +5239,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -4756,10 +5352,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -4866,10 +5462,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -4976,10 +5572,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -5086,10 +5682,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -5193,13 +5789,13 @@
         <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -5306,10 +5902,10 @@
         <v>35</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -5413,13 +6009,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -5523,13 +6119,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -5633,13 +6229,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -5746,10 +6342,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -5853,13 +6449,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -5962,107 +6558,141 @@
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <f>1-0.021</f>
+        <v>0.97899999999999998</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <f t="shared" ref="I36:AL36" si="0">1-0.021</f>
+        <v>0.97899999999999998</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="L36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="M36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="N36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="O36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="P36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Q36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="R36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="S36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="T36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="U36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="V36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="W36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="X36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Y36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Z36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AA36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AB36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AC36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AD36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AE36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AF36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AG36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AH36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AI36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AJ36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AK36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AL36" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -6079,298 +6709,267 @@
         <v>48</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" s="4">
-        <f>1-0.021</f>
-        <v>0.97899999999999998</v>
+        <f>(1-0.021*1.53)</f>
+        <v>0.96787000000000001</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:AL37" si="0">1-0.021</f>
-        <v>0.97899999999999998</v>
+        <f t="shared" ref="I37:AL37" si="1">(1-0.021*1.53)</f>
+        <v>0.96787000000000001</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AF37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AI37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AJ37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97899999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.96787000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H38" s="4">
-        <f>(1-0.021*1.53)</f>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38:AL38" si="1">(1-0.021*1.53)</f>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96787000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -6468,22 +7067,22 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -6581,115 +7180,118 @@
     </row>
     <row r="41" spans="1:38">
       <c r="A41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>47</v>
+        <v>156</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="L41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="M41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="N41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="O41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="P41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="Q41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="S41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="T41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="U41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="V41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="W41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="X41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="Y41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="Z41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AA41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AB41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AC41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AD41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AE41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AF41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AG41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AH41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AI41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AJ41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AK41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
       <c r="AL41" s="4">
-        <v>1</v>
+        <v>0.10288065843621398</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -6700,19 +7302,19 @@
         <v>84</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="4">
         <v>0.10288065843621398</v>
@@ -6816,19 +7418,19 @@
         <v>85</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="4">
         <v>0.10288065843621398</v>
@@ -6929,115 +7531,115 @@
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="I44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="J44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="K44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="L44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="M44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="N44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="O44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="P44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="R44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="S44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="T44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="U44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="V44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="W44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="X44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="Y44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="Z44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AA44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AB44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AC44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AD44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AE44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AF44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AG44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AH44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AI44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AJ44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AK44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="AL44" s="4">
-        <v>0.10288065843621398</v>
+        <v>0.15723270440251572</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -7048,19 +7650,19 @@
         <v>84</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="4">
         <v>0.15723270440251572</v>
@@ -7164,19 +7766,19 @@
         <v>85</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="4">
         <v>0.15723270440251572</v>
@@ -7277,115 +7879,115 @@
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="I47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="J47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="K47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="L47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="M47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="N47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="O47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="P47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="R47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="S47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="T47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="U47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="V47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="W47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="X47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Y47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Z47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AA47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AB47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AC47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AD47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AE47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AF47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AG47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AH47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AI47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AJ47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AK47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AL47" s="4">
-        <v>0.15723270440251572</v>
+        <v>0.16129032258064516</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -7396,19 +7998,19 @@
         <v>84</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" s="4">
         <v>0.16129032258064516</v>
@@ -7512,19 +8114,19 @@
         <v>85</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="4">
         <v>0.16129032258064516</v>
@@ -7625,115 +8227,115 @@
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="I50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="J50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="K50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="L50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="M50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="N50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.14144271570014144</v>
       </c>
       <c r="O50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.14430014430014432</v>
       </c>
       <c r="P50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.14749262536873156</v>
       </c>
       <c r="Q50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.15060240963855423</v>
       </c>
       <c r="R50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.15408320493066255</v>
       </c>
       <c r="S50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.15772870662460567</v>
       </c>
       <c r="T50" s="4">
         <v>0.16129032258064516</v>
       </c>
       <c r="U50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.16528925619834711</v>
       </c>
       <c r="V50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="W50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.17543859649122806</v>
       </c>
       <c r="X50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.18083182640144665</v>
       </c>
       <c r="Y50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.18691588785046731</v>
       </c>
       <c r="Z50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AA50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AB50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AC50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AD50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AE50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AF50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AG50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AH50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AI50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AJ50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AK50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AL50" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.19305019305019305</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -7744,19 +8346,19 @@
         <v>84</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="4">
         <v>0.13850415512465375</v>
@@ -7777,79 +8379,79 @@
         <v>0.13850415512465375</v>
       </c>
       <c r="N51" s="4">
+        <v>0.13986013986013984</v>
+      </c>
+      <c r="O51" s="4">
         <v>0.14144271570014144</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q51" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="P51" s="4">
+      <c r="R51" s="4">
+        <v>0.14577259475218657</v>
+      </c>
+      <c r="S51" s="4">
         <v>0.14749262536873156</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="T51" s="4">
+        <v>0.14903129657228018</v>
+      </c>
+      <c r="U51" s="4">
         <v>0.15060240963855423</v>
       </c>
-      <c r="R51" s="4">
-        <v>0.15408320493066255</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0.15772870662460567</v>
-      </c>
-      <c r="T51" s="4">
+      <c r="V51" s="4">
+        <v>0.15267175572519084</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0.15479876160990713</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0.15698587127158556</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>0.1589825119236884</v>
+      </c>
+      <c r="Z51" s="4">
         <v>0.16129032258064516</v>
       </c>
-      <c r="U51" s="4">
-        <v>0.16528925619834711</v>
-      </c>
-      <c r="V51" s="4">
-        <v>0.17006802721088435</v>
-      </c>
-      <c r="W51" s="4">
-        <v>0.17543859649122806</v>
-      </c>
-      <c r="X51" s="4">
-        <v>0.18083182640144665</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>0.19305019305019305</v>
-      </c>
       <c r="AA51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AB51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AC51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AD51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AE51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AF51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AG51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AH51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AI51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AJ51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AK51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AL51" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16129032258064516</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -7860,19 +8462,19 @@
         <v>85</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52" s="4">
         <v>0.13850415512465375</v>
@@ -7893,79 +8495,79 @@
         <v>0.13850415512465375</v>
       </c>
       <c r="N52" s="4">
-        <v>0.13986013986013984</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="O52" s="4">
-        <v>0.14144271570014144</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="P52" s="4">
-        <v>0.14285714285714285</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.14430014430014432</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="R52" s="4">
-        <v>0.14577259475218657</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="S52" s="4">
-        <v>0.14749262536873156</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="T52" s="4">
-        <v>0.14903129657228018</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="U52" s="4">
-        <v>0.15060240963855423</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="V52" s="4">
-        <v>0.15267175572519084</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="W52" s="4">
-        <v>0.15479876160990713</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="X52" s="4">
-        <v>0.15698587127158556</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="Y52" s="4">
-        <v>0.1589825119236884</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="Z52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AA52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AB52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AC52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AD52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AE52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AF52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AG52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AH52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AI52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AJ52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AK52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
       <c r="AL52" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.13850415512465375</v>
       </c>
     </row>
     <row r="53" spans="1:38">
@@ -7973,115 +8575,115 @@
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="I53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="J53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="K53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="L53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="M53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="N53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14513788098693758</v>
       </c>
       <c r="O53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.14771048744460857</v>
       </c>
       <c r="P53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.15313935681470137</v>
       </c>
       <c r="R53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.15600624024960999</v>
       </c>
       <c r="S53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.1589825119236884</v>
       </c>
       <c r="T53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.16207455429497569</v>
       </c>
       <c r="U53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.16528925619834711</v>
       </c>
       <c r="V53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.17035775127768313</v>
       </c>
       <c r="W53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.17543859649122806</v>
       </c>
       <c r="X53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.18083182640144665</v>
       </c>
       <c r="Y53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.18691588785046731</v>
       </c>
       <c r="Z53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AA53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AB53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AC53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AD53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AE53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AF53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AG53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AH53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AI53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AJ53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AK53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AL53" s="4">
-        <v>0.13850415512465375</v>
+        <v>0.19305019305019305</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -8092,19 +8694,19 @@
         <v>84</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="4">
         <v>0.14265335235378032</v>
@@ -8125,79 +8727,79 @@
         <v>0.14265335235378032</v>
       </c>
       <c r="N54" s="4">
+        <v>0.14388489208633093</v>
+      </c>
+      <c r="O54" s="4">
         <v>0.14513788098693758</v>
       </c>
-      <c r="O54" s="4">
+      <c r="P54" s="4">
+        <v>0.14641288433382138</v>
+      </c>
+      <c r="Q54" s="4">
         <v>0.14771048744460857</v>
       </c>
-      <c r="P54" s="4">
+      <c r="R54" s="4">
+        <v>0.14903129657228018</v>
+      </c>
+      <c r="S54" s="4">
         <v>0.15037593984962405</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="T54" s="4">
+        <v>0.15174506828528073</v>
+      </c>
+      <c r="U54" s="4">
         <v>0.15313935681470137</v>
       </c>
-      <c r="R54" s="4">
-        <v>0.15600624024960999</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0.1589825119236884</v>
-      </c>
-      <c r="T54" s="4">
-        <v>0.16207455429497569</v>
-      </c>
-      <c r="U54" s="4">
-        <v>0.16528925619834711</v>
-      </c>
       <c r="V54" s="4">
-        <v>0.17035775127768313</v>
+        <v>0.15527950310559005</v>
       </c>
       <c r="W54" s="4">
-        <v>0.17543859649122806</v>
+        <v>0.15748031496062992</v>
       </c>
       <c r="X54" s="4">
-        <v>0.18083182640144665</v>
+        <v>0.15948963317384371</v>
       </c>
       <c r="Y54" s="4">
-        <v>0.18691588785046731</v>
+        <v>0.16181229773462785</v>
       </c>
       <c r="Z54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AA54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AB54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AC54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AD54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AE54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AF54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AG54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AH54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AI54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AJ54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AK54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="AL54" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16420361247947454</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -8208,19 +8810,19 @@
         <v>85</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="4">
         <v>0.14265335235378032</v>
@@ -8241,79 +8843,79 @@
         <v>0.14265335235378032</v>
       </c>
       <c r="N55" s="4">
-        <v>0.14388489208633093</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="O55" s="4">
-        <v>0.14513788098693758</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="P55" s="4">
-        <v>0.14641288433382138</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="Q55" s="4">
-        <v>0.14771048744460857</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="R55" s="4">
-        <v>0.14903129657228018</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="S55" s="4">
-        <v>0.15037593984962405</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="T55" s="4">
-        <v>0.15174506828528073</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="U55" s="4">
-        <v>0.15313935681470137</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="V55" s="4">
-        <v>0.15527950310559005</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="W55" s="4">
-        <v>0.15748031496062992</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="X55" s="4">
-        <v>0.15948963317384371</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="Y55" s="4">
-        <v>0.16181229773462785</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="Z55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AA55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AB55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AC55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AD55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AE55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AF55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AG55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AH55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AI55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AJ55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AK55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
       <c r="AL55" s="4">
-        <v>0.16420361247947454</v>
+        <v>0.14265335235378032</v>
       </c>
     </row>
     <row r="56" spans="1:38">
@@ -8321,115 +8923,115 @@
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="I56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="J56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="K56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="L56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="M56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="N56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.14064697609001406</v>
       </c>
       <c r="O56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.14347202295552366</v>
       </c>
       <c r="P56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.14662756598240467</v>
       </c>
       <c r="Q56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.14970059880239522</v>
       </c>
       <c r="R56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.15313935681470137</v>
       </c>
       <c r="S56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.15673981191222572</v>
       </c>
       <c r="T56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.16025641025641024</v>
       </c>
       <c r="U56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="V56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.16920473773265651</v>
       </c>
       <c r="W56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.17452006980802792</v>
       </c>
       <c r="X56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.18050541516245489</v>
       </c>
       <c r="Y56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.18656716417910446</v>
       </c>
       <c r="Z56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AA56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AB56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AC56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AD56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AE56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AF56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AG56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AH56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AI56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AJ56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AK56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AL56" s="4">
-        <v>0.14265335235378032</v>
+        <v>0.19305019305019305</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -8440,19 +9042,19 @@
         <v>84</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="4">
         <v>0.13774104683195593</v>
@@ -8473,79 +9075,79 @@
         <v>0.13774104683195593</v>
       </c>
       <c r="N57" s="4">
+        <v>0.13908205841446453</v>
+      </c>
+      <c r="O57" s="4">
         <v>0.14064697609001406</v>
       </c>
-      <c r="O57" s="4">
+      <c r="P57" s="4">
+        <v>0.14204545454545456</v>
+      </c>
+      <c r="Q57" s="4">
         <v>0.14347202295552366</v>
       </c>
-      <c r="P57" s="4">
+      <c r="R57" s="4">
+        <v>0.14513788098693758</v>
+      </c>
+      <c r="S57" s="4">
         <v>0.14662756598240467</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="T57" s="4">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="U57" s="4">
         <v>0.14970059880239522</v>
       </c>
-      <c r="R57" s="4">
-        <v>0.15313935681470137</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0.15673981191222572</v>
-      </c>
-      <c r="T57" s="4">
-        <v>0.16025641025641024</v>
-      </c>
-      <c r="U57" s="4">
-        <v>0.16420361247947454</v>
-      </c>
       <c r="V57" s="4">
-        <v>0.16920473773265651</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="W57" s="4">
-        <v>0.17452006980802792</v>
+        <v>0.15408320493066255</v>
       </c>
       <c r="X57" s="4">
-        <v>0.18050541516245489</v>
+        <v>0.15625</v>
       </c>
       <c r="Y57" s="4">
-        <v>0.18656716417910446</v>
+        <v>0.1584786053882726</v>
       </c>
       <c r="Z57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AA57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AB57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AC57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AD57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AE57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AF57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AG57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AH57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AI57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AJ57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AK57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
       <c r="AL57" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16077170418006431</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -8556,19 +9158,19 @@
         <v>85</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H58" s="4">
         <v>0.13774104683195593</v>
@@ -8589,79 +9191,79 @@
         <v>0.13774104683195593</v>
       </c>
       <c r="N58" s="4">
-        <v>0.13908205841446453</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="O58" s="4">
-        <v>0.14064697609001406</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="P58" s="4">
-        <v>0.14204545454545456</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="Q58" s="4">
-        <v>0.14347202295552366</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="R58" s="4">
-        <v>0.14513788098693758</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="S58" s="4">
-        <v>0.14662756598240467</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="T58" s="4">
-        <v>0.14814814814814814</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="U58" s="4">
-        <v>0.14970059880239522</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="V58" s="4">
-        <v>0.1519756838905775</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="W58" s="4">
-        <v>0.15408320493066255</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="X58" s="4">
-        <v>0.15625</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="Y58" s="4">
-        <v>0.1584786053882726</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="Z58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AA58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AB58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AC58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AD58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AE58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AF58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AG58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AH58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AI58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AJ58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AK58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
       <c r="AL58" s="4">
-        <v>0.16077170418006431</v>
+        <v>0.13774104683195593</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -8669,115 +9271,115 @@
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="I59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="J59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="K59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="L59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="M59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="N59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14430014430014432</v>
       </c>
       <c r="O59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14684287812041116</v>
       </c>
       <c r="P59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.14947683109118085</v>
       </c>
       <c r="Q59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.15220700152207001</v>
       </c>
       <c r="R59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.15503875968992248</v>
       </c>
       <c r="S59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.15797788309636651</v>
       </c>
       <c r="T59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="U59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="V59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.16920473773265651</v>
       </c>
       <c r="W59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.17482517482517484</v>
       </c>
       <c r="X59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.18050541516245489</v>
       </c>
       <c r="Y59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.18656716417910446</v>
       </c>
       <c r="Z59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AA59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AB59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AC59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AD59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AE59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AF59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AG59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AH59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AI59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AJ59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AK59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="AL59" s="4">
-        <v>0.13774104683195593</v>
+        <v>0.19305019305019305</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -8788,19 +9390,19 @@
         <v>84</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H60" s="4">
         <v>0.14184397163120568</v>
@@ -8821,79 +9423,79 @@
         <v>0.14184397163120568</v>
       </c>
       <c r="N60" s="4">
+        <v>0.14306151645207438</v>
+      </c>
+      <c r="O60" s="4">
         <v>0.14430014430014432</v>
       </c>
-      <c r="O60" s="4">
+      <c r="P60" s="4">
+        <v>0.14556040756914118</v>
+      </c>
+      <c r="Q60" s="4">
         <v>0.14684287812041116</v>
       </c>
-      <c r="P60" s="4">
+      <c r="R60" s="4">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="S60" s="4">
         <v>0.14947683109118085</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="T60" s="4">
+        <v>0.15082956259426847</v>
+      </c>
+      <c r="U60" s="4">
         <v>0.15220700152207001</v>
       </c>
-      <c r="R60" s="4">
-        <v>0.15503875968992248</v>
-      </c>
-      <c r="S60" s="4">
-        <v>0.15797788309636651</v>
-      </c>
-      <c r="T60" s="4">
-        <v>0.1610305958132045</v>
-      </c>
-      <c r="U60" s="4">
-        <v>0.16420361247947454</v>
-      </c>
       <c r="V60" s="4">
-        <v>0.16920473773265651</v>
+        <v>0.15432098765432098</v>
       </c>
       <c r="W60" s="4">
-        <v>0.17482517482517484</v>
+        <v>0.15673981191222572</v>
       </c>
       <c r="X60" s="4">
-        <v>0.18050541516245489</v>
+        <v>0.1589825119236884</v>
       </c>
       <c r="Y60" s="4">
-        <v>0.18656716417910446</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Z60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AA60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AB60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AC60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AD60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AE60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AF60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AG60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AH60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AI60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AJ60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AK60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
       <c r="AL60" s="4">
-        <v>0.19305019305019305</v>
+        <v>0.16366612111292961</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -8904,19 +9506,19 @@
         <v>85</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H61" s="4">
         <v>0.14184397163120568</v>
@@ -8937,79 +9539,79 @@
         <v>0.14184397163120568</v>
       </c>
       <c r="N61" s="4">
-        <v>0.14306151645207438</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="O61" s="4">
-        <v>0.14430014430014432</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="P61" s="4">
-        <v>0.14556040756914118</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="Q61" s="4">
-        <v>0.14684287812041116</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="R61" s="4">
-        <v>0.14814814814814814</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="S61" s="4">
-        <v>0.14947683109118085</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="T61" s="4">
-        <v>0.15082956259426847</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="U61" s="4">
-        <v>0.15220700152207001</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="V61" s="4">
-        <v>0.15432098765432098</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="W61" s="4">
-        <v>0.15673981191222572</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="X61" s="4">
-        <v>0.1589825119236884</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="Y61" s="4">
-        <v>0.16129032258064516</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="Z61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AA61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AB61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AC61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AD61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AE61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AF61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AG61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AH61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AI61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AJ61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AK61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="AL61" s="4">
-        <v>0.16366612111292961</v>
+        <v>0.14184397163120568</v>
       </c>
     </row>
     <row r="62" spans="1:38">
@@ -9017,115 +9619,115 @@
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="I62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="J62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="K62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="L62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="M62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="N62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.12019230769230768</v>
       </c>
       <c r="O62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.12285012285012284</v>
       </c>
       <c r="P62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.12547051442910917</v>
       </c>
       <c r="Q62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="R62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.13123359580052493</v>
       </c>
       <c r="S62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.13422818791946309</v>
       </c>
       <c r="T62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.13755158184319122</v>
       </c>
       <c r="U62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="V62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="W62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="X62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="Y62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="Z62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AA62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AB62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AC62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AD62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AE62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AF62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AG62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AH62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AI62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AJ62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AK62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="AL62" s="4">
-        <v>0.14184397163120568</v>
+        <v>0.14084507042253522</v>
       </c>
     </row>
     <row r="63" spans="1:38">
@@ -9136,19 +9738,19 @@
         <v>84</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="4">
         <v>0.11778563015312131</v>
@@ -9169,79 +9771,79 @@
         <v>0.11778563015312131</v>
       </c>
       <c r="N63" s="4">
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="O63" s="4">
         <v>0.12019230769230768</v>
       </c>
-      <c r="O63" s="4">
+      <c r="P63" s="4">
+        <v>0.12150668286755771</v>
+      </c>
+      <c r="Q63" s="4">
         <v>0.12285012285012284</v>
       </c>
-      <c r="P63" s="4">
+      <c r="R63" s="4">
+        <v>0.12406947890818858</v>
+      </c>
+      <c r="S63" s="4">
         <v>0.12547051442910917</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="T63" s="4">
+        <v>0.12690355329949238</v>
+      </c>
+      <c r="U63" s="4">
         <v>0.12836970474967907</v>
       </c>
-      <c r="R63" s="4">
-        <v>0.13123359580052493</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0.13422818791946309</v>
-      </c>
-      <c r="T63" s="4">
-        <v>0.13755158184319122</v>
-      </c>
-      <c r="U63" s="4">
-        <v>0.14084507042253522</v>
-      </c>
       <c r="V63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="W63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="X63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="Y63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="Z63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AA63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AB63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AC63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AD63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AE63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AF63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AG63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AH63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AI63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AJ63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AK63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
       <c r="AL63" s="4">
-        <v>0.14084507042253522</v>
+        <v>0.12836970474967907</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -9252,19 +9854,19 @@
         <v>85</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="4">
         <v>0.11778563015312131</v>
@@ -9285,79 +9887,79 @@
         <v>0.11778563015312131</v>
       </c>
       <c r="N64" s="4">
-        <v>0.11904761904761904</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="O64" s="4">
-        <v>0.12019230769230768</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="P64" s="4">
-        <v>0.12150668286755771</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="Q64" s="4">
-        <v>0.12285012285012284</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="R64" s="4">
-        <v>0.12406947890818858</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="S64" s="4">
-        <v>0.12547051442910917</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="T64" s="4">
-        <v>0.12690355329949238</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="U64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="V64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="W64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="X64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="Y64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="Z64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AA64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AB64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AC64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AD64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AE64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AF64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AG64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AH64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AI64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AJ64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AK64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
       <c r="AL64" s="4">
-        <v>0.12836970474967907</v>
+        <v>0.11778563015312131</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -9365,115 +9967,115 @@
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="I65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="J65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="K65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="L65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="M65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="N65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.3545369504209552E-2</v>
       </c>
       <c r="O65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.5785440613026823E-2</v>
       </c>
       <c r="P65" s="4">
-        <v>0.11778563015312131</v>
+        <v>9.8039215686274522E-2</v>
       </c>
       <c r="Q65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.10050251256281408</v>
       </c>
       <c r="R65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.10309278350515465</v>
       </c>
       <c r="S65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.10570824524312895</v>
       </c>
       <c r="T65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.10857763300760043</v>
       </c>
       <c r="U65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.11160714285714285</v>
       </c>
       <c r="V65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.11337868480725623</v>
       </c>
       <c r="W65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="X65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.117096018735363</v>
       </c>
       <c r="Y65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="Z65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AA65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AB65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AC65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AD65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AE65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AF65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AG65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AH65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AI65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AJ65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AK65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
       <c r="AL65" s="4">
-        <v>0.11778563015312131</v>
+        <v>0.12106537530266344</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -9484,19 +10086,19 @@
         <v>84</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H66" s="4">
         <v>9.1407678244972576E-2</v>
@@ -9517,79 +10119,79 @@
         <v>9.1407678244972576E-2</v>
       </c>
       <c r="N66" s="4">
+        <v>9.2506938020351523E-2</v>
+      </c>
+      <c r="O66" s="4">
         <v>9.3545369504209552E-2</v>
       </c>
-      <c r="O66" s="4">
+      <c r="P66" s="4">
+        <v>9.46073793755913E-2</v>
+      </c>
+      <c r="Q66" s="4">
         <v>9.5785440613026823E-2</v>
       </c>
-      <c r="P66" s="4">
+      <c r="R66" s="4">
+        <v>9.6899224806201542E-2</v>
+      </c>
+      <c r="S66" s="4">
         <v>9.8039215686274522E-2</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="T66" s="4">
+        <v>9.9304865938430978E-2</v>
+      </c>
+      <c r="U66" s="4">
         <v>0.10050251256281408</v>
       </c>
-      <c r="R66" s="4">
-        <v>0.10309278350515465</v>
-      </c>
-      <c r="S66" s="4">
-        <v>0.10570824524312895</v>
-      </c>
-      <c r="T66" s="4">
-        <v>0.10857763300760043</v>
-      </c>
-      <c r="U66" s="4">
-        <v>0.11160714285714285</v>
-      </c>
       <c r="V66" s="4">
-        <v>0.11337868480725623</v>
+        <v>0.10121457489878542</v>
       </c>
       <c r="W66" s="4">
-        <v>0.1152073732718894</v>
+        <v>0.1019367991845056</v>
       </c>
       <c r="X66" s="4">
-        <v>0.117096018735363</v>
+        <v>0.10266940451745379</v>
       </c>
       <c r="Y66" s="4">
-        <v>0.11904761904761904</v>
+        <v>0.10341261633919338</v>
       </c>
       <c r="Z66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AA66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AB66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AC66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AD66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AF66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AG66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AH66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AI66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AJ66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AK66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AL66" s="4">
-        <v>0.12106537530266344</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:38">
@@ -9600,19 +10202,19 @@
         <v>85</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H67" s="4">
         <v>9.1407678244972576E-2</v>
@@ -9633,79 +10235,79 @@
         <v>9.1407678244972576E-2</v>
       </c>
       <c r="N67" s="4">
-        <v>9.2506938020351523E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="O67" s="4">
-        <v>9.3545369504209552E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="P67" s="4">
-        <v>9.46073793755913E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="Q67" s="4">
-        <v>9.5785440613026823E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="R67" s="4">
-        <v>9.6899224806201542E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="S67" s="4">
-        <v>9.8039215686274522E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="T67" s="4">
-        <v>9.9304865938430978E-2</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="U67" s="4">
-        <v>0.10050251256281408</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="V67" s="4">
-        <v>0.10121457489878542</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="W67" s="4">
-        <v>0.1019367991845056</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="X67" s="4">
-        <v>0.10266940451745379</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="Y67" s="4">
-        <v>0.10341261633919338</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="Z67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AA67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AB67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AC67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AD67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AE67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AF67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AG67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AH67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AI67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AJ67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AK67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="AL67" s="4">
-        <v>0.10416666666666667</v>
+        <v>9.1407678244972576E-2</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -9713,115 +10315,115 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="I68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="J68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="K68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="L68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="M68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="N68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>9.1996320147194124E-2</v>
       </c>
       <c r="O68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>9.4161958568738241E-2</v>
       </c>
       <c r="P68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>9.643201542912247E-2</v>
       </c>
       <c r="Q68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>9.8716683119447174E-2</v>
       </c>
       <c r="R68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.10121457489878542</v>
       </c>
       <c r="S68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.10384215991692626</v>
       </c>
       <c r="T68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.10649627263045792</v>
       </c>
       <c r="U68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.10940919037199125</v>
       </c>
       <c r="V68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="W68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11286681715575622</v>
       </c>
       <c r="X68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="Y68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11655011655011654</v>
       </c>
       <c r="Z68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AA68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AB68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AC68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AD68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AE68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AF68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AG68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AH68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AI68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AJ68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AK68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
       <c r="AL68" s="4">
-        <v>9.1407678244972576E-2</v>
+        <v>0.11848341232227488</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -9832,19 +10434,19 @@
         <v>84</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H69" s="4">
         <v>8.9928057553956844E-2</v>
@@ -9865,79 +10467,79 @@
         <v>8.9928057553956844E-2</v>
       </c>
       <c r="N69" s="4">
+        <v>9.0991810737033663E-2</v>
+      </c>
+      <c r="O69" s="4">
         <v>9.1996320147194124E-2</v>
       </c>
-      <c r="O69" s="4">
+      <c r="P69" s="4">
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="Q69" s="4">
         <v>9.4161958568738241E-2</v>
       </c>
-      <c r="P69" s="4">
+      <c r="R69" s="4">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="S69" s="4">
         <v>9.643201542912247E-2</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="T69" s="4">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="U69" s="4">
         <v>9.8716683119447174E-2</v>
       </c>
-      <c r="R69" s="4">
-        <v>0.10121457489878542</v>
-      </c>
-      <c r="S69" s="4">
-        <v>0.10384215991692626</v>
-      </c>
-      <c r="T69" s="4">
-        <v>0.10649627263045792</v>
-      </c>
-      <c r="U69" s="4">
-        <v>0.10940919037199125</v>
-      </c>
       <c r="V69" s="4">
-        <v>0.1111111111111111</v>
+        <v>9.940357852882703E-2</v>
       </c>
       <c r="W69" s="4">
-        <v>0.11286681715575622</v>
+        <v>0.10010010010010009</v>
       </c>
       <c r="X69" s="4">
-        <v>0.1146788990825688</v>
+        <v>0.10080645161290323</v>
       </c>
       <c r="Y69" s="4">
-        <v>0.11655011655011654</v>
+        <v>0.10152284263959391</v>
       </c>
       <c r="Z69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AA69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AB69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AC69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AD69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AE69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AF69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AG69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AH69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AI69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AJ69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AK69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
       <c r="AL69" s="4">
-        <v>0.11848341232227488</v>
+        <v>0.10224948875255624</v>
       </c>
     </row>
     <row r="70" spans="1:38">
@@ -9948,19 +10550,19 @@
         <v>85</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H70" s="4">
         <v>8.9928057553956844E-2</v>
@@ -9981,340 +10583,224 @@
         <v>8.9928057553956844E-2</v>
       </c>
       <c r="N70" s="4">
-        <v>9.0991810737033663E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="O70" s="4">
-        <v>9.1996320147194124E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="P70" s="4">
-        <v>9.3023255813953487E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="Q70" s="4">
-        <v>9.4161958568738241E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="R70" s="4">
-        <v>9.5238095238095233E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="S70" s="4">
-        <v>9.643201542912247E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="T70" s="4">
-        <v>9.7560975609756101E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="U70" s="4">
-        <v>9.8716683119447174E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="V70" s="4">
-        <v>9.940357852882703E-2</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="W70" s="4">
-        <v>0.10010010010010009</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="X70" s="4">
-        <v>0.10080645161290323</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="Y70" s="4">
-        <v>0.10152284263959391</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="Z70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AA70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AB70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AC70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AD70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AE70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AF70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AG70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AH70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AI70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AJ70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AK70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
       <c r="AL70" s="4">
-        <v>0.10224948875255624</v>
+        <v>8.9928057553956844E-2</v>
       </c>
     </row>
     <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>86</v>
+      <c r="B71" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>124</v>
+        <v>155</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="I71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="J71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="K71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="L71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="M71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="N71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="O71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="P71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="R71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="S71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="T71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="U71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="V71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="W71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="X71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="Y71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="Z71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AA71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AB71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AC71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AD71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AE71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AF71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AG71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AH71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AI71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AJ71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AK71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-      <c r="AL71" s="4">
-        <v>8.9928057553956844E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38">
-      <c r="A72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" s="4">
         <f>1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I72" s="4">
-        <f t="shared" ref="I72:AL72" si="2">1/7.2</f>
+      <c r="I71" s="4">
+        <f t="shared" ref="I71:AL71" si="2">1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="R72" s="4">
+      <c r="R71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="S72" s="4">
+      <c r="S71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="T72" s="4">
+      <c r="T71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="U72" s="4">
+      <c r="U71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="V72" s="4">
+      <c r="V71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="W72" s="4">
+      <c r="W71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="X72" s="4">
+      <c r="X71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Y72" s="4">
+      <c r="Y71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Z72" s="4">
+      <c r="Z71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AA72" s="4">
+      <c r="AA71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AB72" s="4">
+      <c r="AB71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AC72" s="4">
+      <c r="AC71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AD72" s="4">
+      <c r="AD71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AE72" s="4">
+      <c r="AE71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AF72" s="4">
+      <c r="AF71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AG72" s="4">
+      <c r="AG71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AH72" s="4">
+      <c r="AH71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AI72" s="4">
+      <c r="AI71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AJ72" s="4">
+      <c r="AJ71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AK72" s="4">
+      <c r="AK71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AL72" s="4">
+      <c r="AL71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
@@ -10334,7 +10820,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A25" sqref="A23:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10350,24 +10836,24 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="8">
         <v>118.6</v>
@@ -10375,13 +10861,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D3" s="8">
         <v>118.62</v>
@@ -10389,13 +10875,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="8">
         <v>118.62</v>
@@ -10403,13 +10889,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D5" s="8">
         <v>5.95</v>
@@ -10417,13 +10903,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D6" s="8">
         <v>5.95</v>
@@ -10431,13 +10917,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D7" s="8">
         <v>3.56</v>
@@ -10445,13 +10931,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="8">
         <v>3.58</v>
@@ -10459,13 +10945,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="8">
         <v>202.32</v>
@@ -10473,13 +10959,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D10" s="8">
         <v>10.198</v>
@@ -10487,13 +10973,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D11" s="8">
         <v>2.1059999999999999</v>
@@ -10501,13 +10987,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -10515,13 +11001,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -10529,13 +11015,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -10543,13 +11029,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -10557,13 +11043,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -10571,13 +11057,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -10585,13 +11071,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -10599,13 +11085,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -10613,13 +11099,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="8">
         <v>119.41764496915395</v>
@@ -10627,13 +11113,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D21" s="8">
         <v>119.41764496915395</v>
@@ -10641,13 +11127,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D22" s="8">
         <v>119.41764496915395</v>
@@ -10655,13 +11141,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D23" s="8">
         <v>229.51879128207057</v>
@@ -10669,13 +11155,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D24" s="8">
         <v>229.51879128207057</v>
@@ -10683,13 +11169,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D25" s="8">
         <v>229.51879128207057</v>
@@ -10697,13 +11183,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D26" s="8">
         <v>214.12654767006592</v>
@@ -10897,23 +11383,23 @@
   <sheetData>
     <row r="1" spans="9:10">
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="9:10">
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1">
         <v>20404638</v>
@@ -10921,7 +11407,7 @@
     </row>
     <row r="5" spans="9:10">
       <c r="I5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1">
         <v>35608740</v>
@@ -10929,7 +11415,7 @@
     </row>
     <row r="6" spans="9:10">
       <c r="I6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1">
         <v>4263628</v>
@@ -10937,7 +11423,7 @@
     </row>
     <row r="7" spans="9:10">
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1">
         <v>7572266</v>
@@ -10945,7 +11431,7 @@
     </row>
     <row r="8" spans="9:10">
       <c r="I8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1">
         <v>557186</v>
@@ -10953,7 +11439,7 @@
     </row>
     <row r="9" spans="9:10">
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1">
         <v>110398</v>
@@ -10961,7 +11447,7 @@
     </row>
     <row r="10" spans="9:10">
       <c r="I10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="1">
         <v>5710</v>
@@ -10969,7 +11455,7 @@
     </row>
     <row r="11" spans="9:10">
       <c r="I11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="1">
         <v>18396</v>
@@ -10977,7 +11463,7 @@
     </row>
     <row r="12" spans="9:10">
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1">
         <v>60238</v>
@@ -10985,7 +11471,7 @@
     </row>
     <row r="13" spans="9:10">
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1">
         <v>1465316</v>
@@ -10993,21 +11479,21 @@
     </row>
     <row r="17" spans="9:14">
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="9:14">
       <c r="I18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1">
         <v>13990</v>
@@ -11021,7 +11507,7 @@
     </row>
     <row r="19" spans="9:14">
       <c r="I19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -11035,7 +11521,7 @@
     </row>
     <row r="20" spans="9:14">
       <c r="I20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1">
         <v>302</v>
@@ -11049,21 +11535,21 @@
     </row>
     <row r="23" spans="9:14">
       <c r="I23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="9:14">
       <c r="I24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1">
         <v>13990</v>
@@ -11078,7 +11564,7 @@
     </row>
     <row r="25" spans="9:14">
       <c r="I25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J25" s="1">
         <v>80</v>
@@ -11093,7 +11579,7 @@
     </row>
     <row r="26" spans="9:14">
       <c r="I26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="1">
         <v>302</v>
@@ -11108,27 +11594,27 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="9:14">
       <c r="I30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1">
         <f>J4</f>
@@ -11152,7 +11638,7 @@
     </row>
     <row r="31" spans="9:14">
       <c r="I31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(J5:J7)</f>
@@ -11176,7 +11662,7 @@
     </row>
     <row r="32" spans="9:14">
       <c r="I32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1">
         <f>SUM(J9:J12)</f>
@@ -11208,7 +11694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A47CB8-26D7-4384-B67F-C99C96CB6C80}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -11223,62 +11709,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1">
         <v>2030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>2050</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -11292,7 +11778,7 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="B1:J31"/>
+      <selection activeCell="G17" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11308,19 +11794,19 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -11424,19 +11910,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="4">
         <v>0.15430339646551175</v>
@@ -11537,19 +12023,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="4">
         <v>0.1531866860427854</v>
@@ -11650,19 +12136,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="4">
         <v>0.15155102652611524</v>
@@ -11763,19 +12249,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="4">
         <v>0.15049311805235732</v>
@@ -11876,19 +12362,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="4">
         <v>0.15013521014437531</v>
@@ -11989,19 +12475,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4">
         <v>0.14990328410944515</v>
@@ -12102,19 +12588,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="4">
         <v>0.215</v>
@@ -12215,19 +12701,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="4">
         <v>0.215</v>
@@ -12328,19 +12814,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4">
         <v>0.215</v>
@@ -12444,16 +12930,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="4">
         <v>0.2145</v>
@@ -12554,19 +13040,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="4">
         <v>0.32200000000000001</v>
@@ -12667,19 +13153,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4">
         <v>0.32200000000000001</v>
@@ -12780,19 +13266,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="4">
         <v>0.32200000000000001</v>
@@ -12893,19 +13379,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4">
         <v>0.37934004705557728</v>
@@ -13006,22 +13492,22 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4">
-        <v>0.3764777596185197</v>
+        <v>0.37647775961851998</v>
       </c>
       <c r="H16" s="4">
         <v>0.38318582438075044</v>
@@ -13119,19 +13605,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4">
         <v>0.36936606079470824</v>
@@ -13235,16 +13721,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4">
         <v>0.27800000000000002</v>
@@ -13348,16 +13834,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4">
         <v>0.28499999999999998</v>
@@ -13461,16 +13947,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4">
         <v>0.28499999999999998</v>
@@ -13575,10 +14061,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C1FD3-1933-4825-94FA-30ED0724E508}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13592,16 +14078,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13612,7 +14098,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13623,7 +14109,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13634,7 +14120,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13645,7 +14131,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13653,10 +14139,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13667,7 +14153,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13675,10 +14161,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13686,27 +14175,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -13717,10 +14192,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13735,13 +14210,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -13842,10 +14317,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="6">
         <v>6.5421499999999994E-2</v>
@@ -13946,10 +14421,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14050,10 +14525,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14154,10 +14629,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14258,10 +14733,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14362,10 +14837,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14466,10 +14941,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14570,10 +15045,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14674,10 +15149,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14778,10 +15253,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14882,10 +15357,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="6">
         <v>6.5000000000000002E-2</v>
@@ -14986,10 +15461,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15090,10 +15565,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15194,10 +15669,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15298,114 +15773,114 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH16" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="6">
         <v>5.7877100000000001E-2</v>
@@ -15506,103 +15981,103 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="E18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="F18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.6412210360996473E-2</v>
       </c>
       <c r="H18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.4717176867835497E-2</v>
       </c>
       <c r="I18" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.4717176867835497E-2</v>
       </c>
       <c r="J18" s="6">
-        <v>5.8074927246929288E-2</v>
+        <v>4.8953703285046599E-2</v>
       </c>
       <c r="K18" s="6">
-        <v>5.8311333612130881E-2</v>
+        <v>5.017114625137091E-2</v>
       </c>
       <c r="L18" s="6">
-        <v>5.8586319095604758E-2</v>
+        <v>5.1377711004503855E-2</v>
       </c>
       <c r="M18" s="6">
-        <v>5.8899883697350941E-2</v>
+        <v>5.2573397544445441E-2</v>
       </c>
       <c r="N18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="O18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="P18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Q18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="R18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="S18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="T18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="U18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="V18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="W18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="X18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Y18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="Z18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AA18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AB18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AC18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AD18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AE18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AF18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AG18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
       <c r="AH18" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>5.3758205871195661E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -15610,103 +16085,103 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="6">
-        <v>5.6412210360996473E-2</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="E19" s="6">
-        <v>5.6412210360996473E-2</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="F19" s="6">
-        <v>5.6412210360996473E-2</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>5.6412210360996473E-2</v>
+        <v>5.6698294578795688E-2</v>
       </c>
       <c r="H19" s="6">
-        <v>5.4717176867835497E-2</v>
+        <v>5.4975290877219488E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>5.4717176867835497E-2</v>
+        <v>5.4975290877219488E-2</v>
       </c>
       <c r="J19" s="6">
-        <v>4.8953703285046599E-2</v>
+        <v>4.9100229521914382E-2</v>
       </c>
       <c r="K19" s="6">
-        <v>5.017114625137091E-2</v>
+        <v>5.0319722897432619E-2</v>
       </c>
       <c r="L19" s="6">
-        <v>5.1377711004503855E-2</v>
+        <v>5.1528342019589127E-2</v>
       </c>
       <c r="M19" s="6">
-        <v>5.2573397544445441E-2</v>
+        <v>5.27260868883839E-2</v>
       </c>
       <c r="N19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="O19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="P19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Q19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="R19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="S19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="T19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="U19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="V19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="W19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="X19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Y19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="Z19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AA19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AB19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AC19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AD19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AE19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AF19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AG19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
       <c r="AH19" s="6">
-        <v>5.3758205871195661E-2</v>
+        <v>5.3912957503816944E-2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -15717,204 +16192,204 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="6">
-        <v>5.6698294578795688E-2</v>
+        <v>5.2714068831298061E-2</v>
       </c>
       <c r="E20" s="6">
-        <v>5.6698294578795688E-2</v>
+        <v>5.2714068913427573E-2</v>
       </c>
       <c r="F20" s="6">
-        <v>5.6698294578795688E-2</v>
+        <v>5.2714067615884028E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>5.6698294578795688E-2</v>
+        <v>5.2714065265614916E-2</v>
       </c>
       <c r="H20" s="6">
-        <v>5.4975290877219488E-2</v>
+        <v>5.1333716316218116E-2</v>
       </c>
       <c r="I20" s="6">
-        <v>5.4975290877219488E-2</v>
+        <v>5.1333716316218116E-2</v>
       </c>
       <c r="J20" s="6">
-        <v>4.9100229521914382E-2</v>
+        <v>4.6796974915771457E-2</v>
       </c>
       <c r="K20" s="6">
-        <v>5.0319722897432619E-2</v>
+        <v>4.7954991225244319E-2</v>
       </c>
       <c r="L20" s="6">
-        <v>5.1528342019589127E-2</v>
+        <v>4.910151958532237E-2</v>
       </c>
       <c r="M20" s="6">
-        <v>5.27260868883839E-2</v>
+        <v>5.0236559996005625E-2</v>
       </c>
       <c r="N20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="O20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="P20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Q20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="R20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="S20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="T20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="U20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="V20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="W20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="X20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Y20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="Z20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AA20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AB20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AC20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AD20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AE20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AF20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AG20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
       <c r="AH20" s="6">
-        <v>5.3912957503816944E-2</v>
+        <v>5.1360112457294049E-2</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="6">
-        <v>5.2714068831298061E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="E21" s="6">
-        <v>5.2714068913427573E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="F21" s="6">
-        <v>5.2714067615884028E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>5.2714065265614916E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="H21" s="6">
-        <v>5.1333716316218116E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="I21" s="6">
-        <v>5.1333716316218116E-2</v>
+        <v>5.4287470296592102E-2</v>
       </c>
       <c r="J21" s="6">
-        <v>4.6796974915771457E-2</v>
+        <v>5.0517526083259712E-2</v>
       </c>
       <c r="K21" s="6">
-        <v>4.7954991225244319E-2</v>
+        <v>5.1880573743356126E-2</v>
       </c>
       <c r="L21" s="6">
-        <v>4.910151958532237E-2</v>
+        <v>5.3230604845311058E-2</v>
       </c>
       <c r="M21" s="6">
-        <v>5.0236559996005625E-2</v>
+        <v>5.4567619389124508E-2</v>
       </c>
       <c r="N21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="O21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="P21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Q21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="R21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="S21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="T21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="U21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="V21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="W21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="X21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Y21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="Z21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AA21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AB21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AC21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AD21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AE21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AF21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AG21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
       <c r="AH21" s="6">
-        <v>5.1360112457294049E-2</v>
+        <v>5.5891617374796462E-2</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -15925,7 +16400,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="6">
         <v>5.4287470296592102E-2</v>
@@ -16025,104 +16500,104 @@
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>27</v>
+      <c r="B23" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>7.1222518716689817E-2</v>
       </c>
       <c r="E23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>6.7488370692059652E-2</v>
       </c>
       <c r="F23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>6.3262373937746669E-2</v>
       </c>
       <c r="G23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>6.3614945854595317E-2</v>
       </c>
       <c r="H23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>6.398782538949381E-2</v>
       </c>
       <c r="I23" s="6">
-        <v>5.4287470296592102E-2</v>
+        <v>6.398782538949381E-2</v>
       </c>
       <c r="J23" s="6">
-        <v>5.0517526083259712E-2</v>
+        <v>5.0562860072941751E-2</v>
       </c>
       <c r="K23" s="6">
-        <v>5.1880573743356126E-2</v>
+        <v>5.1765601994873678E-2</v>
       </c>
       <c r="L23" s="6">
-        <v>5.3230604845311058E-2</v>
+        <v>5.295762821876851E-2</v>
       </c>
       <c r="M23" s="6">
-        <v>5.4567619389124508E-2</v>
+        <v>5.4138938744626219E-2</v>
       </c>
       <c r="N23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="O23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="P23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Q23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="R23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="S23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="T23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="U23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="V23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="W23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="X23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Y23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="Z23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AA23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AB23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AC23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AD23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AE23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AF23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AG23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
       <c r="AH23" s="6">
-        <v>5.5891617374796462E-2</v>
+        <v>5.5309533572446834E-2</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -16133,204 +16608,204 @@
         <v>93</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="6">
-        <v>7.1222518716689817E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="E24" s="6">
-        <v>6.7488370692059652E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="F24" s="6">
-        <v>6.3262373937746669E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="G24" s="6">
-        <v>6.3614945854595317E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="H24" s="6">
-        <v>6.398782538949381E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="I24" s="6">
-        <v>6.398782538949381E-2</v>
+        <v>6.6257919999999998E-2</v>
       </c>
       <c r="J24" s="6">
-        <v>5.0562860072941751E-2</v>
+        <v>6.6970816000000002E-2</v>
       </c>
       <c r="K24" s="6">
-        <v>5.1765601994873678E-2</v>
+        <v>6.7683712000000007E-2</v>
       </c>
       <c r="L24" s="6">
-        <v>5.295762821876851E-2</v>
+        <v>6.8396608000000012E-2</v>
       </c>
       <c r="M24" s="6">
-        <v>5.4138938744626219E-2</v>
+        <v>6.9109504000000002E-2</v>
       </c>
       <c r="N24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="O24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="P24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="Q24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="R24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="S24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>6.9822400000000007E-2</v>
       </c>
       <c r="T24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="U24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="V24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="W24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="X24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="Y24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="Z24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AA24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AB24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AC24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AD24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AE24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AF24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AG24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="AH24" s="6">
-        <v>5.5309533572446834E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>94</v>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I25" s="6">
-        <v>6.6257919999999998E-2</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J25" s="6">
-        <v>6.6970816000000002E-2</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K25" s="6">
-        <v>6.7683712000000007E-2</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L25" s="6">
-        <v>6.8396608000000012E-2</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M25" s="6">
-        <v>6.9109504000000002E-2</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S25" s="6">
-        <v>6.9822400000000007E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -16338,103 +16813,103 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I26" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J26" s="6">
-        <v>5.8074927246929288E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K26" s="6">
-        <v>5.8311333612130881E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L26" s="6">
-        <v>5.8586319095604758E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M26" s="6">
-        <v>5.8899883697350941E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Y26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AA26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AC26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AD26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AE26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AF26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AG26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AH26" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -16445,7 +16920,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="6">
         <v>0.05</v>
@@ -16549,7 +17024,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="6">
         <v>0.05</v>
@@ -16645,113 +17120,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="W29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition descending="1" ref="A2:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition descending="1" ref="A2:A28"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FC755-BEBF-449D-B8C0-F4914FB3C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923068B-82D8-4C87-9362-D2BD9E5E59C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,12 @@
     <sheet name="DiscountRate" sheetId="9" r:id="rId9"/>
     <sheet name="CapacityCredit" sheetId="10" r:id="rId10"/>
     <sheet name="PlanningReserveMargin" sheetId="12" r:id="rId11"/>
+    <sheet name="tech_curtailment" sheetId="13" r:id="rId12"/>
+    <sheet name="MaxCapacity" sheetId="17" r:id="rId13"/>
+    <sheet name="MinCapacity" sheetId="18" r:id="rId14"/>
+    <sheet name="MaxActivity" sheetId="20" r:id="rId15"/>
+    <sheet name="MinActivity" sheetId="19" r:id="rId16"/>
+    <sheet name="MaxResource" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="195">
   <si>
     <t>p</t>
   </si>
@@ -553,6 +559,84 @@
   </si>
   <si>
     <t>average power during winter 21 NC summary Data - principle standard CPUC 2020</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaic - Non residential</t>
+  </si>
+  <si>
+    <t>Conventional Hydroelectric</t>
+  </si>
+  <si>
+    <t>Onshore Wind Turbine Class 8</t>
+  </si>
+  <si>
+    <t>NREL ATB Commercial Solar PV</t>
+  </si>
+  <si>
+    <t>NREL ATB Land Wind Turbine Class 8 NREL AT22</t>
+  </si>
+  <si>
+    <t>NREL ATB Offshore Wind Turbine Class 6 NREL AT22</t>
+  </si>
+  <si>
+    <t>NREL ATB Residential Solar PV</t>
+  </si>
+  <si>
+    <t>NREL ATB Utility Solar PV</t>
+  </si>
+  <si>
+    <t>maxcap_units</t>
+  </si>
+  <si>
+    <t>maxres</t>
+  </si>
+  <si>
+    <t>maxres_units</t>
+  </si>
+  <si>
+    <t>maxres_notes</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>maxcap</t>
+  </si>
+  <si>
+    <t>maxcap_notes</t>
+  </si>
+  <si>
+    <t>mincap</t>
+  </si>
+  <si>
+    <t>mincap_units</t>
+  </si>
+  <si>
+    <t>mincap_notes</t>
+  </si>
+  <si>
+    <t>minact</t>
+  </si>
+  <si>
+    <t>minact_units</t>
+  </si>
+  <si>
+    <t>minact_notes</t>
+  </si>
+  <si>
+    <t>maxact</t>
+  </si>
+  <si>
+    <t>maxact_units</t>
+  </si>
+  <si>
+    <t>maxact_notes</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1246,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1191,14 +1275,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="303">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{481973AC-C099-41F4-B161-C5B6E82139A9}"/>
@@ -1812,7 +1888,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,510 +1939,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="26.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="4">
         <v>0.87390000000000001</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="4">
         <v>0.87390000000000001</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="4">
         <v>0.87390000000000001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="4">
         <v>0.97840000000000005</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="4">
         <v>0.94210000000000005</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="4">
         <v>0.88249999999999995</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="4">
         <v>0.97840000000000005</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="4">
         <v>0.97840000000000005</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="4">
         <v>0.94210000000000005</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="4">
         <v>0.7</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="4">
         <v>0.7</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="4">
         <v>0.7</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="4">
         <v>0.7</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="4">
         <v>0.7</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="4">
         <v>0.7</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2381,7 +2457,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2411,6 +2487,290 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FBD8C2-7885-48CF-A6D2-8373F214E00B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C4599-8E56-4B8C-B62A-B58663B6C1E8}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEEE4BE-FD88-49A2-A041-525121977217}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F4522F-FAB8-47C5-AC73-9230BD225687}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -11695,7 +12055,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11728,7 +12088,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="1">
@@ -11748,7 +12108,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="1">
@@ -11778,7 +12138,7 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G15:G17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14063,8 +14423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C1FD3-1933-4825-94FA-30ED0724E508}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923068B-82D8-4C87-9362-D2BD9E5E59C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A84468F-7BED-4EA0-8291-8C7E6769B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="5295" windowWidth="21015" windowHeight="10200" tabRatio="849" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="196">
   <si>
     <t>p</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>maxact_notes</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -2456,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1">
         <v>0.17</v>
@@ -14423,7 +14426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C1FD3-1933-4825-94FA-30ED0724E508}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A84468F-7BED-4EA0-8291-8C7E6769B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8BFAB-9F8F-4460-A8C4-E63D655DF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="5295" windowWidth="21015" windowHeight="10200" tabRatio="849" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -2459,7 +2459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2501,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FBD8C2-7885-48CF-A6D2-8373F214E00B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +2786,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:AL71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11183,7 +11183,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A23:A25"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8BFAB-9F8F-4460-A8C4-E63D655DF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A4D3D-328A-451C-B3FB-5DA8E8125FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="195">
   <si>
     <t>p</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>Petroleum</t>
-  </si>
-  <si>
-    <t>LanfillGas</t>
   </si>
   <si>
     <t>LandfillGas</t>
@@ -1905,7 +1902,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1959,10 +1956,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1973,7 +1970,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1984,18 +1981,18 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="4">
         <v>0.87390000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2006,7 +2003,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2017,7 +2014,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2028,7 +2025,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2039,18 +2036,18 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2061,7 +2058,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2072,7 +2069,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2083,7 +2080,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2094,7 +2091,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2105,7 +2102,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2116,7 +2113,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2127,7 +2124,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2138,7 +2135,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2149,7 +2146,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2160,7 +2157,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2171,73 +2168,73 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2248,7 +2245,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2259,7 +2256,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2270,7 +2267,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2281,7 +2278,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2292,7 +2289,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2303,7 +2300,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2314,7 +2311,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2325,7 +2322,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2336,7 +2333,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2347,7 +2344,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2358,29 +2355,29 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2391,7 +2388,7 @@
         <v>0.7</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2402,7 +2399,7 @@
         <v>0.7</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2413,7 +2410,7 @@
         <v>0.7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2424,7 +2421,7 @@
         <v>0.7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2435,7 +2432,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2446,7 +2443,7 @@
         <v>0.7</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2472,24 +2469,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1">
         <v>0.17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FBD8C2-7885-48CF-A6D2-8373F214E00B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2515,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2523,7 +2520,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2531,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2539,7 +2536,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2547,23 +2544,23 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2571,7 +2568,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2579,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2587,7 +2584,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2611,22 +2608,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" t="s">
-        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
         <v>184</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2649,22 +2646,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" t="s">
-        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
         <v>186</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>187</v>
-      </c>
-      <c r="F1" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2687,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" t="s">
-        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>193</v>
-      </c>
-      <c r="F1" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2722,22 +2719,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" t="s">
-        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2761,19 +2758,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>180</v>
-      </c>
-      <c r="E1" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2783,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2907,46 +2904,46 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2958,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2976,13 +2973,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
@@ -3098,10 +3095,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
@@ -3214,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>29</v>
@@ -3330,10 +3327,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>39</v>
@@ -3446,10 +3443,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>43</v>
@@ -3562,10 +3559,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>44</v>
@@ -3678,10 +3675,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
@@ -3794,10 +3791,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
@@ -3910,13 +3907,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>62</v>
@@ -4026,10 +4023,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>36</v>
@@ -4142,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
@@ -4258,13 +4255,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>68</v>
@@ -4374,10 +4371,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>30</v>
@@ -4490,10 +4487,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
@@ -4606,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
@@ -4942,7 +4939,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>60</v>
@@ -5052,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>60</v>
@@ -6922,7 +6919,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>47</v>
@@ -6931,7 +6928,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H36" s="4">
         <f>1-0.021</f>
@@ -7066,16 +7063,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="4">
         <f>(1-0.021*1.53)</f>
@@ -7204,19 +7201,19 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>52</v>
@@ -7317,19 +7314,19 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>52</v>
@@ -7430,19 +7427,19 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>52</v>
@@ -7546,13 +7543,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>19</v>
@@ -7662,13 +7659,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>19</v>
@@ -7778,13 +7775,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>19</v>
@@ -7894,13 +7891,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>18</v>
@@ -8010,13 +8007,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>18</v>
@@ -8126,13 +8123,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>18</v>
@@ -8242,13 +8239,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>20</v>
@@ -8358,13 +8355,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>20</v>
@@ -8474,13 +8471,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>20</v>
@@ -8590,16 +8587,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>62</v>
@@ -8706,16 +8703,16 @@
         <v>6</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>62</v>
@@ -8822,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>62</v>
@@ -8938,16 +8935,16 @@
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>62</v>
@@ -9054,16 +9051,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>62</v>
@@ -9170,16 +9167,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>62</v>
@@ -9286,16 +9283,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>62</v>
@@ -9402,16 +9399,16 @@
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>62</v>
@@ -9518,16 +9515,16 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>62</v>
@@ -9634,16 +9631,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>62</v>
@@ -9750,16 +9747,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>62</v>
@@ -9866,16 +9863,16 @@
         <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>62</v>
@@ -9982,13 +9979,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>16</v>
@@ -10098,13 +10095,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>16</v>
@@ -10214,13 +10211,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>16</v>
@@ -10330,16 +10327,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>56</v>
@@ -10446,16 +10443,16 @@
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>56</v>
@@ -10562,16 +10559,16 @@
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>56</v>
@@ -10678,16 +10675,16 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>56</v>
@@ -10794,16 +10791,16 @@
         <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>56</v>
@@ -10910,16 +10907,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>56</v>
@@ -11029,10 +11026,10 @@
         <v>6</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>15</v>
@@ -11199,13 +11196,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11213,10 +11210,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="8">
         <v>118.6</v>
@@ -11227,10 +11224,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D3" s="8">
         <v>118.62</v>
@@ -11241,10 +11238,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="8">
         <v>118.62</v>
@@ -11252,13 +11249,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D5" s="8">
         <v>5.95</v>
@@ -11266,13 +11263,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="8">
         <v>5.95</v>
@@ -11280,13 +11277,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D7" s="8">
         <v>3.56</v>
@@ -11294,13 +11291,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D8" s="8">
         <v>3.58</v>
@@ -11311,10 +11308,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D9" s="8">
         <v>202.32</v>
@@ -11322,13 +11319,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D10" s="8">
         <v>10.198</v>
@@ -11336,13 +11333,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D11" s="8">
         <v>2.1059999999999999</v>
@@ -11353,10 +11350,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -11367,10 +11364,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -11381,10 +11378,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -11395,10 +11392,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -11409,10 +11406,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -11423,10 +11420,10 @@
         <v>44</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -11437,10 +11434,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -11451,10 +11448,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -11462,13 +11459,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D20" s="8">
         <v>119.41764496915395</v>
@@ -11479,10 +11476,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D21" s="8">
         <v>119.41764496915395</v>
@@ -11493,10 +11490,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D22" s="8">
         <v>119.41764496915395</v>
@@ -11504,13 +11501,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D23" s="8">
         <v>229.51879128207057</v>
@@ -11521,10 +11518,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D24" s="8">
         <v>229.51879128207057</v>
@@ -11535,10 +11532,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="8">
         <v>229.51879128207057</v>
@@ -11549,10 +11546,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D26" s="8">
         <v>214.12654767006592</v>
@@ -11746,18 +11743,18 @@
   <sheetData>
     <row r="1" spans="9:10">
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="9:10">
@@ -11770,7 +11767,7 @@
     </row>
     <row r="5" spans="9:10">
       <c r="I5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="1">
         <v>35608740</v>
@@ -11778,7 +11775,7 @@
     </row>
     <row r="6" spans="9:10">
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1">
         <v>4263628</v>
@@ -11786,7 +11783,7 @@
     </row>
     <row r="7" spans="9:10">
       <c r="I7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1">
         <v>7572266</v>
@@ -11794,7 +11791,7 @@
     </row>
     <row r="8" spans="9:10">
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="1">
         <v>557186</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="9" spans="9:10">
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1">
         <v>110398</v>
@@ -11810,7 +11807,7 @@
     </row>
     <row r="10" spans="9:10">
       <c r="I10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1">
         <v>5710</v>
@@ -11818,7 +11815,7 @@
     </row>
     <row r="11" spans="9:10">
       <c r="I11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1">
         <v>18396</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="12" spans="9:10">
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1">
         <v>60238</v>
@@ -11834,7 +11831,7 @@
     </row>
     <row r="13" spans="9:10">
       <c r="I13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1">
         <v>1465316</v>
@@ -11842,16 +11839,16 @@
     </row>
     <row r="17" spans="9:14">
       <c r="I17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="9:14">
@@ -11870,7 +11867,7 @@
     </row>
     <row r="19" spans="9:14">
       <c r="I19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -11898,16 +11895,16 @@
     </row>
     <row r="23" spans="9:14">
       <c r="I23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -11927,7 +11924,7 @@
     </row>
     <row r="25" spans="9:14">
       <c r="I25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J25" s="1">
         <v>80</v>
@@ -11957,22 +11954,22 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -12001,7 +11998,7 @@
     </row>
     <row r="31" spans="9:14">
       <c r="I31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(J5:J7)</f>
@@ -12072,62 +12069,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1">
         <v>2030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>2050</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -12157,19 +12154,19 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -12273,19 +12270,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="4">
         <v>0.15430339646551175</v>
@@ -12386,19 +12383,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4">
         <v>0.1531866860427854</v>
@@ -12499,19 +12496,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4">
         <v>0.15155102652611524</v>
@@ -12612,19 +12609,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4">
         <v>0.15049311805235732</v>
@@ -12725,19 +12722,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="4">
         <v>0.15013521014437531</v>
@@ -12838,19 +12835,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4">
         <v>0.14990328410944515</v>
@@ -12951,19 +12948,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="4">
         <v>0.215</v>
@@ -13064,19 +13061,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4">
         <v>0.215</v>
@@ -13177,19 +13174,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="4">
         <v>0.215</v>
@@ -13293,16 +13290,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="4">
         <v>0.2145</v>
@@ -13403,16 +13400,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>60</v>
@@ -13516,16 +13513,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>60</v>
@@ -13629,16 +13626,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>60</v>
@@ -13742,16 +13739,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>60</v>
@@ -13855,16 +13852,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>60</v>
@@ -13968,16 +13965,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>60</v>
@@ -14084,13 +14081,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>60</v>
@@ -14197,13 +14194,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>66</v>
@@ -14310,13 +14307,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>66</v>
@@ -14441,16 +14438,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14530,7 +14527,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14544,7 +14541,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -14573,13 +14570,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -14683,7 +14680,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14784,10 +14781,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14888,10 +14885,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14995,7 +14992,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15099,7 +15096,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15203,7 +15200,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15304,10 +15301,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15408,10 +15405,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15512,10 +15509,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15616,10 +15613,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15723,7 +15720,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15827,7 +15824,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15931,7 +15928,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16035,7 +16032,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16139,7 +16136,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16243,7 +16240,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16347,7 +16344,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="6">
         <v>5.6412210360996473E-2</v>
@@ -16451,7 +16448,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="6">
         <v>5.6698294578795688E-2</v>
@@ -16555,7 +16552,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="6">
         <v>5.2714068831298061E-2</v>
@@ -16659,7 +16656,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6">
         <v>5.4287470296592102E-2</v>
@@ -16763,7 +16760,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="6">
         <v>5.4287470296592102E-2</v>
@@ -16864,10 +16861,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="6">
         <v>7.1222518716689817E-2</v>
@@ -16968,10 +16965,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="6">
         <v>6.6257919999999998E-2</v>
@@ -17075,7 +17072,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6">
         <v>5.7877100000000001E-2</v>
@@ -17179,7 +17176,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="6">
         <v>0.05</v>
@@ -17283,7 +17280,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="6">
         <v>0.05</v>
@@ -17387,7 +17384,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="6">
         <v>0.05</v>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A4D3D-328A-451C-B3FB-5DA8E8125FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B796F0C-14C0-4555-ADF7-6F8742120125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="198">
   <si>
     <t>p</t>
   </si>
@@ -264,12 +264,6 @@
     <t>Petroleum</t>
   </si>
   <si>
-    <t>LandfillGas</t>
-  </si>
-  <si>
-    <t>Landfill Gas</t>
-  </si>
-  <si>
     <t>Trans_A</t>
   </si>
   <si>
@@ -597,12 +591,6 @@
     <t>maxres_notes</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
     <t>maxcap</t>
   </si>
   <si>
@@ -637,6 +625,27 @@
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>BIOMASS_Dummy_Aggregator</t>
+  </si>
+  <si>
+    <t>BIO_Input_A</t>
+  </si>
+  <si>
+    <t>Used to aggregate bioinput Technologies</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>Max amount of thermal units of bio input</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1255,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1273,6 +1282,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1888,7 +1900,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1902,7 +1914,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1956,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1970,7 +1982,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1981,18 +1993,18 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>0.87390000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2003,7 +2015,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2014,7 +2026,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2025,7 +2037,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2036,18 +2048,18 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2058,7 +2070,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2069,7 +2081,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2080,7 +2092,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2091,7 +2103,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2102,7 +2114,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2113,7 +2125,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2124,7 +2136,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2135,7 +2147,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2146,7 +2158,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2157,7 +2169,7 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2168,73 +2180,73 @@
         <v>0.88249999999999995</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2245,7 +2257,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2256,7 +2268,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2267,7 +2279,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2278,7 +2290,7 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2289,7 +2301,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2300,7 +2312,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2311,7 +2323,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2322,7 +2334,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2333,7 +2345,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2344,7 +2356,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2355,29 +2367,29 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2388,7 +2400,7 @@
         <v>0.7</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2399,7 +2411,7 @@
         <v>0.7</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2410,7 +2422,7 @@
         <v>0.7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2421,7 +2433,7 @@
         <v>0.7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2432,7 +2444,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2443,7 +2455,7 @@
         <v>0.7</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2469,24 +2481,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1">
         <v>0.17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2520,7 +2532,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2528,7 +2540,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2536,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2544,23 +2556,23 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2568,7 +2580,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2576,7 +2588,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2584,7 +2596,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2610,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2608,22 +2620,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2648,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,22 +2658,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2671,39 +2683,181 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" t="s">
-        <v>193</v>
+      <c r="D2">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4">
+        <v>2030</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6">
+        <v>2040</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7">
+        <v>2045</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8">
+        <v>124.06851712928901</v>
+      </c>
+      <c r="E8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2712,29 +2866,29 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2901,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,19 +2912,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2783,13 +2937,13 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2816,134 +2970,134 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2953,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H4:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2973,13 +3127,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
@@ -3095,10 +3249,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
@@ -3211,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>29</v>
@@ -3327,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>39</v>
@@ -3443,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>43</v>
@@ -3559,10 +3713,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>44</v>
@@ -3675,16 +3829,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>52</v>
@@ -3791,16 +3945,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>52</v>
@@ -3907,13 +4061,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>62</v>
@@ -4023,10 +4177,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>36</v>
@@ -4139,10 +4293,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
@@ -4255,13 +4409,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>68</v>
@@ -4371,10 +4525,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>30</v>
@@ -4487,10 +4641,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
@@ -4603,10 +4757,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
@@ -4939,7 +5093,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>60</v>
@@ -5049,7 +5203,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>60</v>
@@ -6919,7 +7073,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>47</v>
@@ -6928,7 +7082,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H36" s="4">
         <f>1-0.021</f>
@@ -7063,16 +7217,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H37" s="4">
         <f>(1-0.021*1.53)</f>
@@ -7201,19 +7355,19 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>52</v>
@@ -7314,19 +7468,19 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>52</v>
@@ -7427,19 +7581,19 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>52</v>
@@ -7543,13 +7697,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>19</v>
@@ -7659,13 +7813,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>19</v>
@@ -7775,13 +7929,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>19</v>
@@ -7891,13 +8045,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>18</v>
@@ -8007,13 +8161,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>18</v>
@@ -8123,13 +8277,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>18</v>
@@ -8239,13 +8393,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>20</v>
@@ -8355,13 +8509,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>20</v>
@@ -8471,13 +8625,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>20</v>
@@ -8587,16 +8741,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>62</v>
@@ -8703,16 +8857,16 @@
         <v>6</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>62</v>
@@ -8819,16 +8973,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>62</v>
@@ -8935,16 +9089,16 @@
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>62</v>
@@ -9051,16 +9205,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>62</v>
@@ -9167,16 +9321,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>62</v>
@@ -9283,16 +9437,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>62</v>
@@ -9399,16 +9553,16 @@
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>62</v>
@@ -9515,16 +9669,16 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>62</v>
@@ -9631,16 +9785,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>62</v>
@@ -9747,16 +9901,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>62</v>
@@ -9863,16 +10017,16 @@
         <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>62</v>
@@ -9979,13 +10133,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>16</v>
@@ -10095,13 +10249,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>16</v>
@@ -10211,13 +10365,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>16</v>
@@ -10327,16 +10481,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>56</v>
@@ -10443,16 +10597,16 @@
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>56</v>
@@ -10559,16 +10713,16 @@
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>56</v>
@@ -10675,16 +10829,16 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>56</v>
@@ -10791,16 +10945,16 @@
         <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>56</v>
@@ -10907,16 +11061,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>56</v>
@@ -11026,10 +11180,10 @@
         <v>6</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>15</v>
@@ -11163,6 +11317,119 @@
       <c r="AL71" s="4">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38">
+      <c r="A72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
+        <v>1</v>
+      </c>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+      <c r="U72" s="4">
+        <v>1</v>
+      </c>
+      <c r="V72" s="4">
+        <v>1</v>
+      </c>
+      <c r="W72" s="4">
+        <v>1</v>
+      </c>
+      <c r="X72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11180,7 +11447,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="D19" sqref="D19:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11196,13 +11463,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11210,10 +11477,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="8">
         <v>118.6</v>
@@ -11224,10 +11491,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8">
         <v>118.62</v>
@@ -11238,10 +11505,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8">
         <v>118.62</v>
@@ -11249,13 +11516,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8">
         <v>5.95</v>
@@ -11263,13 +11530,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8">
         <v>5.95</v>
@@ -11277,13 +11544,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8">
         <v>3.56</v>
@@ -11291,13 +11558,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8">
         <v>3.58</v>
@@ -11308,10 +11575,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8">
         <v>202.32</v>
@@ -11319,13 +11586,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8">
         <v>10.198</v>
@@ -11333,13 +11600,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8">
         <v>2.1059999999999999</v>
@@ -11347,111 +11614,111 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>119.41764496915395</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
+        <v>119.41764496915395</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>119.41764496915395</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>229.51879128207057</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>229.51879128207057</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>229.51879128207057</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="8">
-        <v>0</v>
+        <v>214.12654767006592</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -11459,141 +11726,101 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="8">
-        <v>119.41764496915395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="8">
-        <v>119.41764496915395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D22" s="8">
-        <v>119.41764496915395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="8">
-        <v>229.51879128207057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="8">
-        <v>229.51879128207057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="8">
-        <v>229.51879128207057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="8">
-        <v>214.12654767006592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7"/>
@@ -11743,18 +11970,18 @@
   <sheetData>
     <row r="1" spans="9:10">
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="9:10">
@@ -11767,7 +11994,7 @@
     </row>
     <row r="5" spans="9:10">
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1">
         <v>35608740</v>
@@ -11775,7 +12002,7 @@
     </row>
     <row r="6" spans="9:10">
       <c r="I6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1">
         <v>4263628</v>
@@ -11783,7 +12010,7 @@
     </row>
     <row r="7" spans="9:10">
       <c r="I7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1">
         <v>7572266</v>
@@ -11791,7 +12018,7 @@
     </row>
     <row r="8" spans="9:10">
       <c r="I8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1">
         <v>557186</v>
@@ -11799,7 +12026,7 @@
     </row>
     <row r="9" spans="9:10">
       <c r="I9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1">
         <v>110398</v>
@@ -11807,7 +12034,7 @@
     </row>
     <row r="10" spans="9:10">
       <c r="I10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1">
         <v>5710</v>
@@ -11815,7 +12042,7 @@
     </row>
     <row r="11" spans="9:10">
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1">
         <v>18396</v>
@@ -11823,7 +12050,7 @@
     </row>
     <row r="12" spans="9:10">
       <c r="I12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" s="1">
         <v>60238</v>
@@ -11831,7 +12058,7 @@
     </row>
     <row r="13" spans="9:10">
       <c r="I13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1">
         <v>1465316</v>
@@ -11839,16 +12066,16 @@
     </row>
     <row r="17" spans="9:14">
       <c r="I17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="9:14">
@@ -11867,7 +12094,7 @@
     </row>
     <row r="19" spans="9:14">
       <c r="I19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -11895,16 +12122,16 @@
     </row>
     <row r="23" spans="9:14">
       <c r="I23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="9:14">
@@ -11924,7 +12151,7 @@
     </row>
     <row r="25" spans="9:14">
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J25" s="1">
         <v>80</v>
@@ -11954,22 +12181,22 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" spans="9:14">
@@ -11998,7 +12225,7 @@
     </row>
     <row r="31" spans="9:14">
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(J5:J7)</f>
@@ -12052,10 +12279,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A47CB8-26D7-4384-B67F-C99C96CB6C80}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12069,62 +12296,122 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1">
         <v>2030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1">
+        <v>2035</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1">
+        <v>26505.0756</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2040</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1">
+        <v>26505.0756</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2045</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26505.0756</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1">
         <v>2050</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>144</v>
+      <c r="E6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -12138,7 +12425,7 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12154,19 +12441,19 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -12270,19 +12557,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="4">
         <v>0.15430339646551175</v>
@@ -12383,19 +12670,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="4">
         <v>0.1531866860427854</v>
@@ -12496,19 +12783,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="4">
         <v>0.15155102652611524</v>
@@ -12609,19 +12896,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="4">
         <v>0.15049311805235732</v>
@@ -12722,19 +13009,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="4">
         <v>0.15013521014437531</v>
@@ -12835,19 +13122,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4">
         <v>0.14990328410944515</v>
@@ -12948,19 +13235,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="4">
         <v>0.215</v>
@@ -13061,19 +13348,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4">
         <v>0.215</v>
@@ -13174,19 +13461,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="4">
         <v>0.215</v>
@@ -13290,16 +13577,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="4">
         <v>0.2145</v>
@@ -13400,16 +13687,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>60</v>
@@ -13513,16 +13800,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>60</v>
@@ -13626,16 +13913,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>60</v>
@@ -13739,16 +14026,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>60</v>
@@ -13852,16 +14139,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>60</v>
@@ -13965,16 +14252,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>60</v>
@@ -14081,13 +14368,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>60</v>
@@ -14194,13 +14481,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>66</v>
@@ -14307,13 +14594,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>66</v>
@@ -14438,16 +14725,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14527,7 +14814,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14541,7 +14828,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -14552,10 +14839,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14570,13 +14857,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -14680,7 +14967,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14781,10 +15068,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14885,10 +15172,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6">
         <v>6.5421499999999994E-2</v>
@@ -14992,7 +15279,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15096,7 +15383,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15200,7 +15487,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15301,10 +15588,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15405,10 +15692,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15509,10 +15796,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15613,10 +15900,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15720,7 +16007,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15824,7 +16111,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6">
         <v>6.5000000000000002E-2</v>
@@ -15928,7 +16215,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16032,7 +16319,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16136,7 +16423,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16240,7 +16527,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16344,7 +16631,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="6">
         <v>5.6412210360996473E-2</v>
@@ -16448,7 +16735,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="6">
         <v>5.6698294578795688E-2</v>
@@ -16552,7 +16839,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="6">
         <v>5.2714068831298061E-2</v>
@@ -16656,7 +16943,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="6">
         <v>5.4287470296592102E-2</v>
@@ -16760,7 +17047,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="6">
         <v>5.4287470296592102E-2</v>
@@ -16861,10 +17148,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="6">
         <v>7.1222518716689817E-2</v>
@@ -16965,10 +17252,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="6">
         <v>6.6257919999999998E-2</v>
@@ -17072,7 +17359,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="6">
         <v>5.7877100000000001E-2</v>
@@ -17176,7 +17463,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D26" s="6">
         <v>0.05</v>
@@ -17280,7 +17567,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="6">
         <v>0.05</v>
@@ -17384,7 +17671,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="6">
         <v>0.05</v>
@@ -17477,6 +17764,110 @@
         <v>0.05</v>
       </c>
       <c r="AH28" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH29" s="6">
         <v>0.05</v>
       </c>
     </row>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B796F0C-14C0-4555-ADF7-6F8742120125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5708D6-6B8A-4E86-8984-9E553957480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="232">
   <si>
     <t>p</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Batt_8h_New</t>
   </si>
   <si>
-    <t>BioPower_New</t>
-  </si>
-  <si>
     <t>Coal_New</t>
   </si>
   <si>
@@ -216,30 +213,15 @@
     <t>Electricity, physical, to transmission</t>
   </si>
   <si>
-    <t>BIO_Input</t>
-  </si>
-  <si>
-    <t>Fuel to bio power</t>
-  </si>
-  <si>
     <t>COAL</t>
   </si>
   <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>Input for solar generation</t>
-  </si>
-  <si>
     <t>WIND</t>
   </si>
   <si>
-    <t>Input for wind generation</t>
-  </si>
-  <si>
     <t>NaturalGas</t>
   </si>
   <si>
@@ -426,9 +408,6 @@
     <t>emission_act</t>
   </si>
   <si>
-    <t>co2</t>
-  </si>
-  <si>
     <t>lbs/MMBtu</t>
   </si>
   <si>
@@ -627,15 +606,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>BIOMASS_Dummy_Aggregator</t>
-  </si>
-  <si>
-    <t>BIO_Input_A</t>
-  </si>
-  <si>
-    <t>Used to aggregate bioinput Technologies</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
@@ -646,6 +616,138 @@
   </si>
   <si>
     <t>dummy</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>General Input to Fuel Technology</t>
+  </si>
+  <si>
+    <t>SOL_RES</t>
+  </si>
+  <si>
+    <t>Input for residential solar generation</t>
+  </si>
+  <si>
+    <t>SOL_UT</t>
+  </si>
+  <si>
+    <t>Input for utility solar generation</t>
+  </si>
+  <si>
+    <t>SOL_COM</t>
+  </si>
+  <si>
+    <t>Input for commercial solar generation</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OF</t>
+  </si>
+  <si>
+    <t>Input for wind generation onshore</t>
+  </si>
+  <si>
+    <t>Input for wind generation offshore</t>
+  </si>
+  <si>
+    <t>captured co2</t>
+  </si>
+  <si>
+    <t>co2_capu</t>
+  </si>
+  <si>
+    <t>co2_at</t>
+  </si>
+  <si>
+    <t>atmospheric Co2</t>
+  </si>
+  <si>
+    <t>co2_stored</t>
+  </si>
+  <si>
+    <t>stored co2</t>
+  </si>
+  <si>
+    <t>CO2_Storage</t>
+  </si>
+  <si>
+    <t>FT_Hydro</t>
+  </si>
+  <si>
+    <t>FT_Solar_Res</t>
+  </si>
+  <si>
+    <t>FT_Solar_Com</t>
+  </si>
+  <si>
+    <t>FT_Solar_Utility</t>
+  </si>
+  <si>
+    <t>FT_WindOF</t>
+  </si>
+  <si>
+    <t>FT_WindON</t>
+  </si>
+  <si>
+    <t>FT_NG</t>
+  </si>
+  <si>
+    <t>FT_Coal</t>
+  </si>
+  <si>
+    <t>FT_Petroleum</t>
+  </si>
+  <si>
+    <t>FT_Nuclear</t>
+  </si>
+  <si>
+    <t>Used just to control fuel cost</t>
+  </si>
+  <si>
+    <t>for each kt of co2_stored I consume 1tk of carbon captured</t>
+  </si>
+  <si>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Fuel for biomass</t>
+  </si>
+  <si>
+    <t>Biomass_New</t>
+  </si>
+  <si>
+    <t>Biomass_CCS90_New</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from EIA 923 assume a 13.2% increase in MMBTU/MWh due to CCS following Reeds estimates</t>
+  </si>
+  <si>
+    <t>FT_BIOMASS</t>
+  </si>
+  <si>
+    <t>data from ATB22</t>
+  </si>
+  <si>
+    <t>Data from NC Average Energy Statistcs from EIA 2021 and EIA 923- check Emission_calculations</t>
+  </si>
+  <si>
+    <t>kt/kt Co2_stored/co2_capu</t>
+  </si>
+  <si>
+    <t>Convert Co2 capture to CO2 stored, to accunt for transportation cost</t>
+  </si>
+  <si>
+    <t>Assume equal MMBTU of Landfill, waste and wood</t>
+  </si>
+  <si>
+    <t>Assume equal MMBTU of Landfill, waste and wood -Virginia Department of Environmental Quality https://www.pfpi.net/wp-content/uploads/2018/04/PFPIetal.CapandTradeComments4.9.2018.pdf</t>
+  </si>
+  <si>
+    <t>All carbon that is captured must be stored</t>
   </si>
 </sst>
 </file>
@@ -658,7 +760,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +950,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1255,7 +1363,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1273,19 +1381,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -1911,10 +2031,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1949,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1968,307 +2088,307 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4">
         <v>0.87390000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <v>0.87390000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
         <v>0.87390000000000001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>0.97840000000000005</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>0.29199999999999998</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4">
         <v>0.94210000000000005</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4">
         <v>0.64700000000000002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B21" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B23" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4">
         <v>0.88249999999999995</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B26" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4">
         <v>0.90800000000000003</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4">
-        <v>0.64700000000000002</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2279,18 +2399,18 @@
         <v>0.97840000000000005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.97840000000000005</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2298,32 +2418,32 @@
         <v>25</v>
       </c>
       <c r="B31" s="4">
-        <v>0.29199999999999998</v>
+        <v>0.94210000000000005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4">
-        <v>0.94210000000000005</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2334,106 +2454,106 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B37" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4">
-        <v>0.39500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="4">
         <v>0.7</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4">
         <v>0.7</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="4">
         <v>0.7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B43" s="4">
         <v>0.7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2444,18 +2564,29 @@
         <v>0.7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="B45" s="4">
-        <v>0.7</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2481,24 +2612,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1">
         <v>0.17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2524,79 +2655,79 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2620,22 +2751,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2658,22 +2789,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2685,173 +2816,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>191</v>
+      <c r="C2" t="s">
+        <v>224</v>
       </c>
       <c r="D2">
         <v>124.06851712928901</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>191</v>
+      <c r="C3" t="s">
+        <v>224</v>
       </c>
       <c r="D3">
         <v>124.06851712928901</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B4">
         <v>2030</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>191</v>
+      <c r="C4" t="s">
+        <v>224</v>
       </c>
       <c r="D4">
         <v>124.06851712928901</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>2035</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>191</v>
+      <c r="C5" t="s">
+        <v>224</v>
       </c>
       <c r="D5">
         <v>124.06851712928901</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B6">
         <v>2040</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>191</v>
+      <c r="C6" t="s">
+        <v>224</v>
       </c>
       <c r="D6">
         <v>124.06851712928901</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B7">
         <v>2045</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>191</v>
+      <c r="C7" t="s">
+        <v>224</v>
       </c>
       <c r="D7">
         <v>124.06851712928901</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>2050</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>191</v>
+      <c r="C8" t="s">
+        <v>224</v>
       </c>
       <c r="D8">
         <v>124.06851712928901</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2873,22 +3007,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2912,19 +3046,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2934,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345D6D4-C1C5-41B3-9FA9-983E075A149F}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2948,156 +3082,211 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3107,17 +3296,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H4:H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
     <col min="2" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
@@ -3125,119 +3314,119 @@
     <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="11" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:38" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="8">
         <v>2020</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="8">
         <v>2021</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="8">
         <v>2022</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="8">
         <v>2023</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="8">
         <v>2024</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="8">
         <v>2025</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="8">
         <v>2026</v>
       </c>
-      <c r="O1" s="11">
+      <c r="O1" s="8">
         <v>2027</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="8">
         <v>2028</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="8">
         <v>2029</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="8">
         <v>2030</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="8">
         <v>2031</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="8">
         <v>2032</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="8">
         <v>2033</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="8">
         <v>2034</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="8">
         <v>2035</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="8">
         <v>2036</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="8">
         <v>2037</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="8">
         <v>2038</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="8">
         <v>2039</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="8">
         <v>2040</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="8">
         <v>2041</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="8">
         <v>2042</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AE1" s="8">
         <v>2043</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="8">
         <v>2044</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="8">
         <v>2045</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AH1" s="8">
         <v>2046</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AI1" s="8">
         <v>2047</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AJ1" s="8">
         <v>2048</v>
       </c>
-      <c r="AK1" s="11">
+      <c r="AK1" s="8">
         <v>2049</v>
       </c>
-      <c r="AL1" s="11">
+      <c r="AL1" s="8">
         <v>2050</v>
       </c>
     </row>
@@ -3249,19 +3438,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4">
         <v>4.8886325507251846E-2</v>
@@ -3365,19 +3554,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4">
         <v>0.18833938153867247</v>
@@ -3481,19 +3670,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4">
         <v>9.7702964229772357E-2</v>
@@ -3597,19 +3786,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4">
         <v>9.061632603536629E-2</v>
@@ -3713,19 +3902,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4">
         <v>0.1130709702382507</v>
@@ -3829,19 +4018,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4">
         <v>6.1652581415162257E-2</v>
@@ -3945,19 +4134,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4">
         <v>9.4401803149961605E-2</v>
@@ -4061,19 +4250,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>0.12549199999999999</v>
@@ -4177,19 +4366,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4">
         <v>8.6045161319189351E-2</v>
@@ -4293,19 +4482,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="4">
         <v>0.10082570200399149</v>
@@ -4409,19 +4598,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="4">
         <v>9.8294000000000006E-2</v>
@@ -4525,19 +4714,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="4">
         <v>8.5760042372321738E-2</v>
@@ -4641,19 +4830,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="4">
         <v>8.4611000000000006E-2</v>
@@ -4757,19 +4946,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="4">
         <v>9.6251902779803084E-2</v>
@@ -4873,13 +5062,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -4983,13 +5172,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -5093,13 +5282,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -5203,13 +5392,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -5313,13 +5502,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -5423,13 +5612,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -5533,13 +5722,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -5643,13 +5832,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -5753,13 +5942,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -5866,10 +6055,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -5976,10 +6165,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -6086,10 +6275,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -6196,10 +6385,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -6303,13 +6492,13 @@
         <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -6413,13 +6602,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -6523,13 +6712,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -6633,13 +6822,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -6743,13 +6932,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -6853,13 +7042,13 @@
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -6963,13 +7152,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -7073,16 +7262,16 @@
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4">
         <f>1-0.021</f>
@@ -7217,16 +7406,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H37" s="4">
         <f>(1-0.021*1.53)</f>
@@ -7355,22 +7544,22 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -7468,22 +7657,22 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -7581,22 +7770,22 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -7697,22 +7886,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H41" s="4">
         <v>0.10288065843621398</v>
@@ -7813,22 +8002,22 @@
         <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="4">
         <v>0.10288065843621398</v>
@@ -7929,22 +8118,22 @@
         <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="4">
         <v>0.10288065843621398</v>
@@ -8045,22 +8234,22 @@
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="4">
         <v>0.15723270440251572</v>
@@ -8161,22 +8350,22 @@
         <v>6</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="4">
         <v>0.15723270440251572</v>
@@ -8277,22 +8466,22 @@
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H46" s="4">
         <v>0.15723270440251572</v>
@@ -8393,22 +8582,22 @@
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" s="4">
         <v>0.16129032258064516</v>
@@ -8509,22 +8698,22 @@
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" s="4">
         <v>0.16129032258064516</v>
@@ -8625,22 +8814,22 @@
         <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="4">
         <v>0.16129032258064516</v>
@@ -8741,22 +8930,22 @@
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="4">
         <v>0.13850415512465375</v>
@@ -8857,22 +9046,22 @@
         <v>6</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="4">
         <v>0.13850415512465375</v>
@@ -8973,22 +9162,22 @@
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" s="4">
         <v>0.13850415512465375</v>
@@ -9089,22 +9278,22 @@
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="4">
         <v>0.14265335235378032</v>
@@ -9205,22 +9394,22 @@
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" s="4">
         <v>0.14265335235378032</v>
@@ -9321,22 +9510,22 @@
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="4">
         <v>0.14265335235378032</v>
@@ -9437,22 +9626,22 @@
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="4">
         <v>0.13774104683195593</v>
@@ -9553,22 +9742,22 @@
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" s="4">
         <v>0.13774104683195593</v>
@@ -9669,22 +9858,22 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" s="4">
         <v>0.13774104683195593</v>
@@ -9785,22 +9974,22 @@
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" s="4">
         <v>0.14184397163120568</v>
@@ -9901,22 +10090,22 @@
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="4">
         <v>0.14184397163120568</v>
@@ -10017,22 +10206,22 @@
         <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="4">
         <v>0.14184397163120568</v>
@@ -10133,22 +10322,22 @@
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H62" s="4">
         <v>0.11778563015312131</v>
@@ -10249,22 +10438,22 @@
         <v>6</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="4">
         <v>0.11778563015312131</v>
@@ -10365,22 +10554,22 @@
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" s="4">
         <v>0.11778563015312131</v>
@@ -10481,22 +10670,22 @@
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H65" s="4">
         <v>9.1407678244972576E-2</v>
@@ -10597,22 +10786,22 @@
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H66" s="4">
         <v>9.1407678244972576E-2</v>
@@ -10713,22 +10902,22 @@
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H67" s="4">
         <v>9.1407678244972576E-2</v>
@@ -10829,22 +11018,22 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" s="4">
         <v>8.9928057553956844E-2</v>
@@ -10945,22 +11134,22 @@
         <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" s="4">
         <v>8.9928057553956844E-2</v>
@@ -11056,379 +11245,1769 @@
         <v>0.10224948875255624</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:38" s="9" customFormat="1">
+      <c r="A70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="B70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="R70" s="4">
+      <c r="R70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="T70" s="4">
+      <c r="T70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="U70" s="4">
+      <c r="U70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="V70" s="4">
+      <c r="V70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="W70" s="4">
+      <c r="W70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="X70" s="4">
+      <c r="X70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="Y70" s="4">
+      <c r="Y70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="Z70" s="4">
+      <c r="Z70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AA70" s="4">
+      <c r="AA70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AB70" s="4">
+      <c r="AB70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AC70" s="4">
+      <c r="AC70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AD70" s="4">
+      <c r="AD70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AE70" s="4">
+      <c r="AE70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AF70" s="4">
+      <c r="AF70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AG70" s="4">
+      <c r="AG70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AH70" s="4">
+      <c r="AH70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AI70" s="4">
+      <c r="AI70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AJ70" s="4">
+      <c r="AJ70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AK70" s="4">
+      <c r="AK70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
-      <c r="AL70" s="4">
+      <c r="AL70" s="9">
         <v>8.9928057553956844E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:38" s="9" customFormat="1">
+      <c r="A71" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="C71" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" s="9">
         <f>1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="9">
         <f t="shared" ref="I71:AL71" si="2">1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="R71" s="4">
+      <c r="R71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="S71" s="4">
+      <c r="S71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="T71" s="4">
+      <c r="T71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="U71" s="4">
+      <c r="U71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="V71" s="4">
+      <c r="V71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="W71" s="4">
+      <c r="W71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="X71" s="4">
+      <c r="X71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Y71" s="4">
+      <c r="Y71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Z71" s="4">
+      <c r="Z71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AA71" s="4">
+      <c r="AA71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AB71" s="4">
+      <c r="AB71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AC71" s="4">
+      <c r="AC71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AD71" s="4">
+      <c r="AD71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AE71" s="4">
+      <c r="AE71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AF71" s="4">
+      <c r="AF71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AG71" s="4">
+      <c r="AG71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AH71" s="4">
+      <c r="AH71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AI71" s="4">
+      <c r="AI71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AJ71" s="4">
+      <c r="AJ71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AK71" s="4">
+      <c r="AK71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AL71" s="4">
+      <c r="AL71" s="9">
         <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:38" s="12" customFormat="1">
+      <c r="A72" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="C72" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="12">
+        <f>H71*1/1.137</f>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" ref="I72:AL72" si="3">I71*1/1.137</f>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="J72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="K72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="L72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="M72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="O72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="Q72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="R72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="S72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="T72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="U72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="V72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="W72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="X72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="Y72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="Z72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AA72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AB72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AC72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AD72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AE72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AF72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AG72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AH72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AI72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AJ72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AK72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+      <c r="AL72" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1221538160852145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38">
+      <c r="A73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>1</v>
+      </c>
+      <c r="R73" s="4">
+        <v>1</v>
+      </c>
+      <c r="S73" s="4">
+        <v>1</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>1</v>
+      </c>
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38">
+      <c r="A74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1</v>
+      </c>
+      <c r="S74" s="4">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4">
+        <v>1</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+      <c r="W74" s="4">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38">
+      <c r="A75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4">
+        <v>1</v>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
+        <v>1</v>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+      <c r="W75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>1</v>
+      </c>
+      <c r="R76" s="4">
+        <v>1</v>
+      </c>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+      <c r="T76" s="4">
+        <v>1</v>
+      </c>
+      <c r="U76" s="4">
+        <v>1</v>
+      </c>
+      <c r="V76" s="4">
+        <v>1</v>
+      </c>
+      <c r="W76" s="4">
+        <v>1</v>
+      </c>
+      <c r="X76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="4">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
-      </c>
-      <c r="L72" s="4">
-        <v>1</v>
-      </c>
-      <c r="M72" s="4">
-        <v>1</v>
-      </c>
-      <c r="N72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4">
-        <v>1</v>
-      </c>
-      <c r="P72" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>1</v>
-      </c>
-      <c r="R72" s="4">
-        <v>1</v>
-      </c>
-      <c r="S72" s="4">
-        <v>1</v>
-      </c>
-      <c r="T72" s="4">
-        <v>1</v>
-      </c>
-      <c r="U72" s="4">
-        <v>1</v>
-      </c>
-      <c r="V72" s="4">
-        <v>1</v>
-      </c>
-      <c r="W72" s="4">
-        <v>1</v>
-      </c>
-      <c r="X72" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="4">
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>1</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1</v>
+      </c>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <v>1</v>
+      </c>
+      <c r="U77" s="4">
+        <v>1</v>
+      </c>
+      <c r="V77" s="4">
+        <v>1</v>
+      </c>
+      <c r="W77" s="4">
+        <v>1</v>
+      </c>
+      <c r="X77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38">
+      <c r="A78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
+        <v>1</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>1</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1</v>
+      </c>
+      <c r="T78" s="4">
+        <v>1</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1</v>
+      </c>
+      <c r="V78" s="4">
+        <v>1</v>
+      </c>
+      <c r="W78" s="4">
+        <v>1</v>
+      </c>
+      <c r="X78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38">
+      <c r="A79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1</v>
+      </c>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+      <c r="T79" s="4">
+        <v>1</v>
+      </c>
+      <c r="U79" s="4">
+        <v>1</v>
+      </c>
+      <c r="V79" s="4">
+        <v>1</v>
+      </c>
+      <c r="W79" s="4">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38">
+      <c r="A80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4">
+        <v>1</v>
+      </c>
+      <c r="S80" s="4">
+        <v>1</v>
+      </c>
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+      <c r="U80" s="4">
+        <v>1</v>
+      </c>
+      <c r="V80" s="4">
+        <v>1</v>
+      </c>
+      <c r="W80" s="4">
+        <v>1</v>
+      </c>
+      <c r="X80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38">
+      <c r="A81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1</v>
+      </c>
+      <c r="O81" s="4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>1</v>
+      </c>
+      <c r="R81" s="4">
+        <v>1</v>
+      </c>
+      <c r="S81" s="4">
+        <v>1</v>
+      </c>
+      <c r="T81" s="4">
+        <v>1</v>
+      </c>
+      <c r="U81" s="4">
+        <v>1</v>
+      </c>
+      <c r="V81" s="4">
+        <v>1</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1</v>
+      </c>
+      <c r="X81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38">
+      <c r="A82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
+        <v>1</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1</v>
+      </c>
+      <c r="O82" s="4">
+        <v>1</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>1</v>
+      </c>
+      <c r="R82" s="4">
+        <v>1</v>
+      </c>
+      <c r="S82" s="4">
+        <v>1</v>
+      </c>
+      <c r="T82" s="4">
+        <v>1</v>
+      </c>
+      <c r="U82" s="4">
+        <v>1</v>
+      </c>
+      <c r="V82" s="4">
+        <v>1</v>
+      </c>
+      <c r="W82" s="4">
+        <v>1</v>
+      </c>
+      <c r="X82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38">
+      <c r="A83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
+        <v>1</v>
+      </c>
+      <c r="N83" s="4">
+        <v>1</v>
+      </c>
+      <c r="O83" s="4">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1</v>
+      </c>
+      <c r="R83" s="4">
+        <v>1</v>
+      </c>
+      <c r="S83" s="4">
+        <v>1</v>
+      </c>
+      <c r="T83" s="4">
+        <v>1</v>
+      </c>
+      <c r="U83" s="4">
+        <v>1</v>
+      </c>
+      <c r="V83" s="4">
+        <v>1</v>
+      </c>
+      <c r="W83" s="4">
+        <v>1</v>
+      </c>
+      <c r="X83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38">
+      <c r="A84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>1</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+      <c r="T84" s="4">
+        <v>1</v>
+      </c>
+      <c r="U84" s="4">
+        <v>1</v>
+      </c>
+      <c r="V84" s="4">
+        <v>1</v>
+      </c>
+      <c r="W84" s="4">
+        <v>1</v>
+      </c>
+      <c r="X84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11444,503 +13023,720 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8BE285-5D8E-4DFA-BA36-7C02503E1408}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="17">
+        <v>118.6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17">
+        <v>118.62</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="17">
+        <v>118.62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="17">
+        <v>202.32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="17">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="17">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="17">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="8">
-        <v>118.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="8">
-        <v>118.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="8">
-        <v>118.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="8">
-        <v>202.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10.198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2.1059999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="8">
-        <v>119.41764496915395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="8">
-        <v>119.41764496915395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="8">
-        <v>119.41764496915395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="D9" s="17">
         <v>229.51879128207057</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="E9" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="17">
+        <v>229.51879128207057</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B11" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="17">
         <v>229.51879128207057</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="E11" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="17">
+        <v>214.12654767006592</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="8">
-        <v>229.51879128207057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="8">
-        <v>214.12654767006592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B18" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="8">
+    <row r="19" spans="1:11">
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="8">
+    <row r="20" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="17">
+        <f>118.6*0.05</f>
+        <v>5.93</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="17">
+        <f>118.6*0.95</f>
+        <v>112.66999999999999</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="17">
+        <f>118.6*0.05</f>
+        <v>5.93</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="17">
+        <f>118.6*0.95</f>
+        <v>112.66999999999999</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="17">
+        <f>118.6*0.03</f>
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="17">
+        <f>118.6*0.97</f>
+        <v>115.04199999999999</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="17">
+        <f>118.6*0.03</f>
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="17">
+        <f>118.6*0.97</f>
+        <v>115.04199999999999</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="17">
+        <f>202.32*0.05</f>
+        <v>10.116</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="17">
+        <f>202.32*0.95</f>
+        <v>192.20399999999998</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="17">
+        <f>202.32*0.01</f>
+        <v>2.0232000000000001</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="17">
+        <f>202.32*0.99</f>
+        <v>200.29679999999999</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="14">
+        <f>-188.97*0.9</f>
+        <v>-170.07300000000001</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="14">
+        <f>188.97*0.9</f>
+        <v>170.07300000000001</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11953,7 +13749,7 @@
   <dimension ref="I1:N32"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11970,23 +13766,23 @@
   <sheetData>
     <row r="1" spans="9:10">
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="9:10">
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1">
         <v>20404638</v>
@@ -11994,7 +13790,7 @@
     </row>
     <row r="5" spans="9:10">
       <c r="I5" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1">
         <v>35608740</v>
@@ -12002,7 +13798,7 @@
     </row>
     <row r="6" spans="9:10">
       <c r="I6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1">
         <v>4263628</v>
@@ -12010,7 +13806,7 @@
     </row>
     <row r="7" spans="9:10">
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1">
         <v>7572266</v>
@@ -12018,7 +13814,7 @@
     </row>
     <row r="8" spans="9:10">
       <c r="I8" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1">
         <v>557186</v>
@@ -12026,7 +13822,7 @@
     </row>
     <row r="9" spans="9:10">
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1">
         <v>110398</v>
@@ -12034,7 +13830,7 @@
     </row>
     <row r="10" spans="9:10">
       <c r="I10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1">
         <v>5710</v>
@@ -12042,7 +13838,7 @@
     </row>
     <row r="11" spans="9:10">
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J11" s="1">
         <v>18396</v>
@@ -12050,7 +13846,7 @@
     </row>
     <row r="12" spans="9:10">
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1">
         <v>60238</v>
@@ -12058,7 +13854,7 @@
     </row>
     <row r="13" spans="9:10">
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1">
         <v>1465316</v>
@@ -12066,21 +13862,21 @@
     </row>
     <row r="17" spans="9:14">
       <c r="I17" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="9:14">
       <c r="I18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1">
         <v>13990</v>
@@ -12094,7 +13890,7 @@
     </row>
     <row r="19" spans="9:14">
       <c r="I19" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -12108,7 +13904,7 @@
     </row>
     <row r="20" spans="9:14">
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1">
         <v>302</v>
@@ -12122,21 +13918,21 @@
     </row>
     <row r="23" spans="9:14">
       <c r="I23" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="9:14">
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1">
         <v>13990</v>
@@ -12151,7 +13947,7 @@
     </row>
     <row r="25" spans="9:14">
       <c r="I25" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J25" s="1">
         <v>80</v>
@@ -12166,7 +13962,7 @@
     </row>
     <row r="26" spans="9:14">
       <c r="I26" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1">
         <v>302</v>
@@ -12181,27 +13977,27 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="9:14">
       <c r="I30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J30" s="1">
         <f>J4</f>
@@ -12225,7 +14021,7 @@
     </row>
     <row r="31" spans="9:14">
       <c r="I31" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J31" s="1">
         <f>SUM(J5:J7)</f>
@@ -12249,7 +14045,7 @@
     </row>
     <row r="32" spans="9:14">
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J32" s="1">
         <f>SUM(J9:J12)</f>
@@ -12279,10 +14075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A47CB8-26D7-4384-B67F-C99C96CB6C80}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12296,122 +14092,262 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1">
         <v>2030</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
+      <c r="C2" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1">
         <v>2035</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>124</v>
+      <c r="C3" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D3" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1">
         <v>2040</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
+      <c r="C4" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D4" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
         <v>2045</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>124</v>
+      <c r="C5" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D5" s="1">
         <v>26505.0756</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1">
         <v>2050</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>124</v>
+      <c r="C6" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2030</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2035</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2040</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2045</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2050</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -12425,7 +14361,7 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E13" sqref="E12:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12441,19 +14377,19 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -12557,19 +14493,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4">
         <v>0.15430339646551175</v>
@@ -12670,19 +14606,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="4">
         <v>0.1531866860427854</v>
@@ -12783,19 +14719,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4">
         <v>0.15155102652611524</v>
@@ -12896,19 +14832,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4">
         <v>0.15049311805235732</v>
@@ -13009,19 +14945,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G6" s="4">
         <v>0.15013521014437531</v>
@@ -13122,19 +15058,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="4">
         <v>0.14990328410944515</v>
@@ -13235,19 +15171,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" s="4">
         <v>0.215</v>
@@ -13348,19 +15284,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4">
         <v>0.215</v>
@@ -13461,19 +15397,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10" s="4">
         <v>0.215</v>
@@ -13577,16 +15513,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4">
         <v>0.2145</v>
@@ -13687,19 +15623,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4">
         <v>0.32200000000000001</v>
@@ -13800,19 +15736,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" s="4">
         <v>0.32200000000000001</v>
@@ -13913,19 +15849,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" s="4">
         <v>0.32200000000000001</v>
@@ -14026,19 +15962,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4">
         <v>0.37934004705557728</v>
@@ -14139,19 +16075,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G16" s="4">
         <v>0.37647775961851998</v>
@@ -14252,19 +16188,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="4">
         <v>0.36936606079470824</v>
@@ -14368,16 +16304,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4">
         <v>0.27800000000000002</v>
@@ -14481,16 +16417,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4">
         <v>0.28499999999999998</v>
@@ -14594,16 +16530,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G20" s="4">
         <v>0.28499999999999998</v>
@@ -14725,16 +16661,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14786,7 +16722,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -14797,7 +16733,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -14808,13 +16744,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14822,13 +16758,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -14839,10 +16775,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14857,13 +16793,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3">
         <v>2020</v>
@@ -14964,10 +16900,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D2" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15068,10 +17004,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D3" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15172,10 +17108,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D4" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15276,10 +17212,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15380,10 +17316,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D6" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15484,10 +17420,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15588,10 +17524,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D8" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15692,10 +17628,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15796,10 +17732,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6">
         <v>6.5421499999999994E-2</v>
@@ -15900,10 +17836,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D11" s="6">
         <v>6.5421499999999994E-2</v>
@@ -16007,7 +17943,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16111,7 +18047,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16215,7 +18151,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16319,7 +18255,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D15" s="6">
         <v>6.5000000000000002E-2</v>
@@ -16420,10 +18356,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D16" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16524,10 +18460,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D17" s="6">
         <v>5.7877100000000001E-2</v>
@@ -16628,10 +18564,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D18" s="6">
         <v>5.6412210360996473E-2</v>
@@ -16732,10 +18668,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6">
         <v>5.6698294578795688E-2</v>
@@ -16836,10 +18772,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D20" s="6">
         <v>5.2714068831298061E-2</v>
@@ -16940,10 +18876,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D21" s="6">
         <v>5.4287470296592102E-2</v>
@@ -17044,10 +18980,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D22" s="6">
         <v>5.4287470296592102E-2</v>
@@ -17148,10 +19084,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D23" s="6">
         <v>7.1222518716689817E-2</v>
@@ -17252,10 +19188,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D24" s="6">
         <v>6.6257919999999998E-2</v>
@@ -17356,103 +19292,103 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I25" s="6">
-        <v>5.7877100000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J25" s="6">
-        <v>5.8074927246929288E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K25" s="6">
-        <v>5.8311333612130881E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L25" s="6">
-        <v>5.8586319095604758E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="6">
-        <v>5.8899883697350941E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Y25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AA25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AC25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AD25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AE25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AF25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AG25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AH25" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -17463,7 +19399,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D26" s="6">
         <v>0.05</v>
@@ -17567,7 +19503,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D27" s="6">
         <v>0.05</v>
@@ -17668,10 +19604,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D28" s="6">
         <v>0.05</v>
@@ -17772,10 +19708,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D29" s="6">
         <v>0.05</v>
@@ -17869,6 +19805,1254 @@
       </c>
       <c r="AH29" s="6">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L40" s="6">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M40" s="6">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I41" s="6">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J41" s="6">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K41" s="6">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L41" s="6">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M41" s="6">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5708D6-6B8A-4E86-8984-9E553957480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFF29C-C61C-4D3C-B30B-3B44F2B92C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="235">
   <si>
     <t>p</t>
   </si>
@@ -669,9 +669,6 @@
     <t>co2_stored</t>
   </si>
   <si>
-    <t>stored co2</t>
-  </si>
-  <si>
     <t>CO2_Storage</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
     <t>Data from NC Average Energy Statistcs from EIA 2021 and EIA 923- check Emission_calculations</t>
   </si>
   <si>
-    <t>kt/kt Co2_stored/co2_capu</t>
-  </si>
-  <si>
     <t>Convert Co2 capture to CO2 stored, to accunt for transportation cost</t>
   </si>
   <si>
@@ -748,6 +742,21 @@
   </si>
   <si>
     <t>All carbon that is captured must be stored</t>
+  </si>
+  <si>
+    <t>kt/kt</t>
+  </si>
+  <si>
+    <t>stored Co2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>GW</t>
   </si>
 </sst>
 </file>
@@ -760,7 +769,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,8 +969,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,8 +1012,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1028,6 +1048,21 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,7 +1398,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,27 +1420,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -2020,7 +2050,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2569,7 +2599,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="4">
         <v>0.64700000000000002</v>
@@ -2580,7 +2610,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="4">
         <v>0.64700000000000002</v>
@@ -2738,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2769,7 +2799,365 @@
         <v>173</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>2030</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <v>2040</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>2045</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11">
+        <v>2030</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12">
+        <v>2035</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>2040</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14">
+        <v>2045</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18">
+        <v>2030</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19">
+        <v>2035</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20">
+        <v>2040</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <v>2045</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22">
+        <v>2050</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2779,7 +3167,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2856,7 +3244,7 @@
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2">
         <v>124.06851712928901</v>
@@ -2876,7 +3264,7 @@
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <v>124.06851712928901</v>
@@ -2896,7 +3284,7 @@
         <v>2030</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>124.06851712928901</v>
@@ -2916,7 +3304,7 @@
         <v>2035</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5">
         <v>124.06851712928901</v>
@@ -2936,7 +3324,7 @@
         <v>2040</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>124.06851712928901</v>
@@ -2956,7 +3344,7 @@
         <v>2045</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7">
         <v>124.06851712928901</v>
@@ -2976,7 +3364,7 @@
         <v>2050</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8">
         <v>124.06851712928901</v>
@@ -3071,7 +3459,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3247,13 +3635,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3286,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3298,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3447,7 +3835,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3563,7 +3951,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
@@ -3679,7 +4067,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>51</v>
@@ -3795,7 +4183,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>51</v>
@@ -3911,7 +4299,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>51</v>
@@ -4027,7 +4415,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>51</v>
@@ -4143,7 +4531,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>51</v>
@@ -11375,10 +11763,10 @@
         <v>145</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>51</v>
@@ -11508,149 +11896,149 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="12" customFormat="1">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:38">
+      <c r="A72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E72" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>219</v>
+      <c r="E72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="4">
         <f>H71*1/1.137</f>
         <v>0.1221538160852145</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="4">
         <f t="shared" ref="I72:AL72" si="3">I71*1/1.137</f>
         <v>0.1221538160852145</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="Q72" s="12">
+      <c r="Q72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="R72" s="12">
+      <c r="R72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="S72" s="12">
+      <c r="S72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="T72" s="12">
+      <c r="T72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="U72" s="12">
+      <c r="U72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="V72" s="12">
+      <c r="V72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="W72" s="12">
+      <c r="W72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="X72" s="12">
+      <c r="X72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="Y72" s="12">
+      <c r="Y72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="Z72" s="12">
+      <c r="Z72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AA72" s="12">
+      <c r="AA72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AB72" s="12">
+      <c r="AB72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AC72" s="12">
+      <c r="AC72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AD72" s="12">
+      <c r="AD72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AE72" s="12">
+      <c r="AE72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AF72" s="12">
+      <c r="AF72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AG72" s="12">
+      <c r="AG72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AH72" s="12">
+      <c r="AH72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AI72" s="12">
+      <c r="AI72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AJ72" s="12">
+      <c r="AJ72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AK72" s="12">
+      <c r="AK72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
-      <c r="AL72" s="12">
+      <c r="AL72" s="4">
         <f t="shared" si="3"/>
         <v>0.1221538160852145</v>
       </c>
@@ -11662,14 +12050,17 @@
       <c r="B73" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C73" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="D73" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>188</v>
+        <v>205</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>204</v>
@@ -11776,10 +12167,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>188</v>
@@ -11889,10 +12280,10 @@
         <v>6</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>188</v>
@@ -12002,10 +12393,10 @@
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>188</v>
@@ -12115,10 +12506,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>188</v>
@@ -12228,10 +12619,10 @@
         <v>6</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>188</v>
@@ -12341,10 +12732,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>188</v>
@@ -12454,10 +12845,10 @@
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>188</v>
@@ -12567,10 +12958,10 @@
         <v>6</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>188</v>
@@ -12680,10 +13071,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>188</v>
@@ -12793,10 +13184,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>188</v>
@@ -12906,16 +13297,16 @@
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>188</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H84" s="4">
         <v>1</v>
@@ -13025,718 +13416,718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8BE285-5D8E-4DFA-BA36-7C02503E1408}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="23.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>118.6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="13">
+        <v>118.62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="13">
+        <v>118.62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="13">
+        <v>202.32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="13">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="17">
-        <v>118.62</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D7" s="13">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="17">
-        <v>118.62</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D8" s="13">
+        <v>119.41764496915395</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="17">
-        <v>202.32</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D9" s="13">
+        <v>229.51879128207057</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="17">
-        <v>119.41764496915395</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="D10" s="13">
+        <v>229.51879128207057</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="17">
-        <v>119.41764496915395</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D11" s="13">
+        <v>229.51879128207057</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="17">
-        <v>119.41764496915395</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D12" s="13">
+        <v>214.12654767006592</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="17">
-        <v>229.51879128207057</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="17">
-        <v>229.51879128207057</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="17">
-        <v>229.51879128207057</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="17">
-        <v>214.12654767006592</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="17" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="17" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="17" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <f>118.6*0.05</f>
         <v>5.93</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>225</v>
+      <c r="E20" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <f>118.6*0.95</f>
         <v>112.66999999999999</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>225</v>
+      <c r="E21" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <f>118.6*0.05</f>
         <v>5.93</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>225</v>
+      <c r="E22" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="13">
         <f>118.6*0.95</f>
         <v>112.66999999999999</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>225</v>
+      <c r="E23" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="13">
         <f>118.6*0.03</f>
         <v>3.5579999999999998</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>225</v>
+      <c r="E24" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="13">
         <f>118.6*0.97</f>
         <v>115.04199999999999</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>225</v>
+      <c r="E25" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="13">
         <f>118.6*0.03</f>
         <v>3.5579999999999998</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" s="17"/>
+      <c r="E26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="13">
         <f>118.6*0.97</f>
         <v>115.04199999999999</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>225</v>
+      <c r="E27" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <f>202.32*0.05</f>
         <v>10.116</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="17"/>
+      <c r="E28" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="13">
         <f>202.32*0.95</f>
         <v>192.20399999999998</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>225</v>
+      <c r="E29" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="13">
         <f>202.32*0.01</f>
         <v>2.0232000000000001</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>225</v>
+      <c r="E30" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="13">
         <f>202.32*0.99</f>
         <v>200.29679999999999</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>225</v>
+      <c r="E31" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="D33" s="6">
         <f>-188.97*0.9</f>
         <v>-170.07300000000001</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>230</v>
+      <c r="E33" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="6">
         <f>188.97*0.9</f>
         <v>170.07300000000001</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>229</v>
+      <c r="E34" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="14">
+      <c r="C35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="6">
         <v>-1</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>228</v>
+      <c r="E35" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14078,7 +14469,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14117,7 +14508,7 @@
       <c r="B2" s="1">
         <v>2030</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D2" s="1">
@@ -14137,7 +14528,7 @@
       <c r="B3" s="1">
         <v>2035</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D3" s="1">
@@ -14157,7 +14548,7 @@
       <c r="B4" s="1">
         <v>2040</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D4" s="1">
@@ -14177,7 +14568,7 @@
       <c r="B5" s="1">
         <v>2045</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="1">
@@ -14197,7 +14588,7 @@
       <c r="B6" s="1">
         <v>2050</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D6" s="1">
@@ -14217,7 +14608,7 @@
       <c r="B7" s="1">
         <v>2023</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="1">
@@ -14227,7 +14618,7 @@
         <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -14237,7 +14628,7 @@
       <c r="B8" s="1">
         <v>2025</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D8" s="1">
@@ -14247,7 +14638,7 @@
         <v>147</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -14257,7 +14648,7 @@
       <c r="B9" s="1">
         <v>2030</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="1">
@@ -14267,7 +14658,7 @@
         <v>147</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14277,7 +14668,7 @@
       <c r="B10" s="1">
         <v>2035</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="1">
@@ -14287,7 +14678,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -14297,7 +14688,7 @@
       <c r="B11" s="1">
         <v>2040</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D11" s="1">
@@ -14307,7 +14698,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14317,7 +14708,7 @@
       <c r="B12" s="1">
         <v>2045</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D12" s="1">
@@ -14327,7 +14718,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -14337,7 +14728,7 @@
       <c r="B13" s="1">
         <v>2050</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D13" s="1">
@@ -14347,7 +14738,7 @@
         <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -16778,7 +17169,7 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD63"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19604,7 +19995,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>187</v>
@@ -19708,7 +20099,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>187</v>
@@ -19812,7 +20203,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>187</v>
@@ -19916,7 +20307,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>187</v>
@@ -20020,7 +20411,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>187</v>
@@ -20124,7 +20515,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>187</v>
@@ -20228,7 +20619,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>187</v>
@@ -20332,7 +20723,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>187</v>
@@ -20436,7 +20827,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>187</v>
@@ -20540,7 +20931,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>187</v>
@@ -20644,7 +21035,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>187</v>
@@ -20748,7 +21139,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>187</v>
@@ -20852,7 +21243,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>141</v>
@@ -20956,7 +21347,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>141</v>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFF29C-C61C-4D3C-B30B-3B44F2B92C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA6500-676B-4674-9BFC-8E98B76431FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="235">
   <si>
     <t>p</t>
   </si>
@@ -1019,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1048,21 +1048,6 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,7 +1383,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1434,7 +1419,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2770,389 +2756,390 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="15" customWidth="1"/>
+    <col min="1" max="7" width="15" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>2023</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>2025</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>2030</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>2035</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>2040</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>2045</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>2050</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <v>2023</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <v>2030</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15">
         <v>2035</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15">
         <v>2040</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15">
         <v>2045</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15">
         <v>2050</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>2025</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15">
         <v>2030</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="15">
         <v>2035</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15">
         <v>2040</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15">
         <v>2045</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15">
         <v>2050</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="15" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3686,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7429,6 +7416,9 @@
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
@@ -7439,97 +7429,128 @@
         <v>51</v>
       </c>
       <c r="H34" s="4">
-        <v>1</v>
+        <f>1/10.461</f>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
+        <f t="shared" ref="I34:AL35" si="0">1/10.461</f>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="K34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="L34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="M34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="N34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="O34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="P34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Q34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="R34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="S34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="T34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="U34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="V34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="W34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="X34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Y34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Z34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AA34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AB34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AC34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AD34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AE34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AF34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AG34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AH34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AI34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AJ34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AK34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AL34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -7539,6 +7560,9 @@
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>37</v>
       </c>
@@ -7549,97 +7573,128 @@
         <v>51</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <f>1/10.461</f>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="J35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="L35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="M35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="O35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="P35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Q35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="R35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="S35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="T35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="U35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="V35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="W35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="X35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Y35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="Z35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AA35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AB35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AC35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AD35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AE35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AF35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AG35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AH35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AI35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AJ35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AK35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
       <c r="AL35" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.5593155530064047E-2</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -7666,123 +7721,123 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36:AL36" si="0">1-0.021</f>
+        <f t="shared" ref="I36:AL36" si="1">1-0.021</f>
         <v>0.97899999999999998</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AA36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AC36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AF36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AH36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AI36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AJ36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AK36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="AL36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97899999999999998</v>
       </c>
     </row>
@@ -7810,123 +7865,123 @@
         <v>0.96787000000000001</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:AL37" si="1">(1-0.021*1.53)</f>
+        <f t="shared" ref="I37:AL37" si="2">(1-0.021*1.53)</f>
         <v>0.96787000000000001</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AF37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AI37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AJ37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96787000000000001</v>
       </c>
     </row>
@@ -11776,123 +11831,123 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="I71" s="9">
-        <f t="shared" ref="I71:AL71" si="2">1/7.2</f>
+        <f t="shared" ref="I71:AL71" si="3">1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="L71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="N71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="O71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="P71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="Q71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="R71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="S71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="T71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="U71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="V71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="W71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="X71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="Y71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="Z71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AA71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AC71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AD71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AE71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AF71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AG71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AH71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AI71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AJ71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AK71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="AL71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -11923,123 +11978,123 @@
         <v>0.1221538160852145</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" ref="I72:AL72" si="3">I71*1/1.137</f>
+        <f t="shared" ref="I72:AL72" si="4">I71*1/1.137</f>
         <v>0.1221538160852145</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="R72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="S72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="V72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="X72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="Y72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="Z72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AA72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AC72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AD72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AE72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AF72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AG72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AH72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AI72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AJ72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AK72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
       <c r="AL72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1221538160852145</v>
       </c>
     </row>
@@ -17168,7 +17223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA6500-676B-4674-9BFC-8E98B76431FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A58E9EC-07C8-4AFB-A4B9-CBCD6699FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13020" tabRatio="849" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="231">
   <si>
     <t>p</t>
   </si>
@@ -603,9 +603,6 @@
     <t>maxact_notes</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
@@ -748,15 +745,6 @@
   </si>
   <si>
     <t>stored Co2</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>GW</t>
   </si>
 </sst>
 </file>
@@ -769,7 +757,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,13 +957,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="MS Shell Dlg 2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,12 +992,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1360,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,10 +1395,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -2585,7 +2558,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="4">
         <v>0.64700000000000002</v>
@@ -2596,7 +2569,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="4">
         <v>0.64700000000000002</v>
@@ -2615,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2639,7 +2612,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1">
         <v>0.17</v>
@@ -2658,7 +2631,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2754,393 +2727,35 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="15" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2025</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2025</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +2769,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3225,142 +2840,142 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2">
         <v>124.06851712928901</v>
       </c>
       <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>124.06851712928901</v>
       </c>
       <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>2030</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4">
         <v>124.06851712928901</v>
       </c>
       <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>2035</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5">
         <v>124.06851712928901</v>
       </c>
       <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
         <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>2040</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>124.06851712928901</v>
       </c>
       <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>2045</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7">
         <v>124.06851712928901</v>
       </c>
       <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
         <v>184</v>
-      </c>
-      <c r="F7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>2050</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>124.06851712928901</v>
       </c>
       <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3501,13 +3116,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3523,57 +3138,57 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3622,46 +3237,46 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>202</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3437,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3938,7 +3553,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
@@ -4054,7 +3669,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>51</v>
@@ -4170,7 +3785,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>51</v>
@@ -4286,7 +3901,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>51</v>
@@ -4402,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>51</v>
@@ -4518,7 +4133,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>51</v>
@@ -5660,7 +5275,7 @@
         <v>83</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>51</v>
@@ -5770,7 +5385,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>51</v>
@@ -5880,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>51</v>
@@ -5990,7 +5605,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>51</v>
@@ -6100,7 +5715,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>51</v>
@@ -6210,7 +5825,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>51</v>
@@ -6320,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>51</v>
@@ -11818,10 +11433,10 @@
         <v>145</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>51</v>
@@ -11962,13 +11577,13 @@
         <v>119</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>51</v>
@@ -12106,19 +11721,19 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H73" s="4">
         <v>1</v>
@@ -12222,13 +11837,13 @@
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>60</v>
@@ -12335,16 +11950,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H75" s="4">
         <v>1</v>
@@ -12448,16 +12063,16 @@
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H76" s="4">
         <v>1</v>
@@ -12561,16 +12176,16 @@
         <v>6</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
@@ -12674,16 +12289,16 @@
         <v>6</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H78" s="4">
         <v>1</v>
@@ -12787,16 +12402,16 @@
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H79" s="4">
         <v>1</v>
@@ -12900,13 +12515,13 @@
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>56</v>
@@ -13013,13 +12628,13 @@
         <v>6</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>53</v>
@@ -13126,13 +12741,13 @@
         <v>6</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>62</v>
@@ -13239,13 +12854,13 @@
         <v>6</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>58</v>
@@ -13352,16 +12967,16 @@
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H84" s="4">
         <v>1</v>
@@ -13507,7 +13122,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>118</v>
@@ -13516,7 +13131,7 @@
         <v>118.6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13524,7 +13139,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>118</v>
@@ -13533,7 +13148,7 @@
         <v>118.62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13541,7 +13156,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>118</v>
@@ -13550,7 +13165,7 @@
         <v>118.62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13558,7 +13173,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>118</v>
@@ -13567,7 +13182,7 @@
         <v>202.32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13575,7 +13190,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>118</v>
@@ -13584,7 +13199,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13592,7 +13207,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>118</v>
@@ -13601,7 +13216,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13609,7 +13224,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>118</v>
@@ -13618,7 +13233,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13626,7 +13241,7 @@
         <v>121</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>118</v>
@@ -13635,7 +13250,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13643,7 +13258,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>118</v>
@@ -13652,7 +13267,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13660,7 +13275,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>118</v>
@@ -13669,7 +13284,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13677,7 +13292,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>118</v>
@@ -13686,7 +13301,7 @@
         <v>214.12654767006592</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13694,7 +13309,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>118</v>
@@ -13708,7 +13323,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>118</v>
@@ -13722,7 +13337,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>118</v>
@@ -13736,7 +13351,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>118</v>
@@ -13750,7 +13365,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>118</v>
@@ -13764,7 +13379,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>118</v>
@@ -13778,7 +13393,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>118</v>
@@ -13792,7 +13407,7 @@
         <v>109</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>118</v>
@@ -13802,7 +13417,7 @@
         <v>5.93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -13810,7 +13425,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>118</v>
@@ -13820,7 +13435,7 @@
         <v>112.66999999999999</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -13828,7 +13443,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>118</v>
@@ -13838,7 +13453,7 @@
         <v>5.93</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13846,7 +13461,7 @@
         <v>110</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>118</v>
@@ -13856,7 +13471,7 @@
         <v>112.66999999999999</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -13864,7 +13479,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>118</v>
@@ -13874,7 +13489,7 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -13882,7 +13497,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>118</v>
@@ -13892,7 +13507,7 @@
         <v>115.04199999999999</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -13900,7 +13515,7 @@
         <v>112</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>118</v>
@@ -13910,7 +13525,7 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K26" s="13"/>
     </row>
@@ -13919,7 +13534,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>118</v>
@@ -13929,7 +13544,7 @@
         <v>115.04199999999999</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -13937,7 +13552,7 @@
         <v>113</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>118</v>
@@ -13947,7 +13562,7 @@
         <v>10.116</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -13956,7 +13571,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>118</v>
@@ -13966,7 +13581,7 @@
         <v>192.20399999999998</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -13974,7 +13589,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>118</v>
@@ -13984,7 +13599,7 @@
         <v>2.0232000000000001</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -13992,7 +13607,7 @@
         <v>114</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>118</v>
@@ -14002,15 +13617,15 @@
         <v>200.29679999999999</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>118</v>
@@ -14021,10 +13636,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>118</v>
@@ -14034,15 +13649,15 @@
         <v>-170.07300000000001</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>118</v>
@@ -14052,24 +13667,24 @@
         <v>170.07300000000001</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="6">
         <v>-1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -14564,7 +14179,7 @@
         <v>2030</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1">
         <v>26505.0756</v>
@@ -14584,7 +14199,7 @@
         <v>2035</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1">
         <v>26505.0756</v>
@@ -14604,7 +14219,7 @@
         <v>2040</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1">
         <v>26505.0756</v>
@@ -14624,7 +14239,7 @@
         <v>2045</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1">
         <v>26505.0756</v>
@@ -14644,7 +14259,7 @@
         <v>2050</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -14664,7 +14279,7 @@
         <v>2023</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -14673,7 +14288,7 @@
         <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -14684,7 +14299,7 @@
         <v>2025</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -14693,7 +14308,7 @@
         <v>147</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -14704,7 +14319,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -14713,7 +14328,7 @@
         <v>147</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14724,7 +14339,7 @@
         <v>2035</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -14733,7 +14348,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -14744,7 +14359,7 @@
         <v>2040</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -14753,7 +14368,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14764,7 +14379,7 @@
         <v>2045</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -14773,7 +14388,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -14784,7 +14399,7 @@
         <v>2050</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -14793,7 +14408,7 @@
         <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -20050,10 +19665,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="6">
         <v>0.05</v>
@@ -20154,10 +19769,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="6">
         <v>0.05</v>
@@ -20258,10 +19873,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="6">
         <v>0.05</v>
@@ -20362,10 +19977,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="6">
         <v>0.05</v>
@@ -20466,10 +20081,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="6">
         <v>0.05</v>
@@ -20570,10 +20185,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="6">
         <v>0.05</v>
@@ -20674,10 +20289,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="6">
         <v>0.05</v>
@@ -20778,10 +20393,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="6">
         <v>0.05</v>
@@ -20882,10 +20497,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="6">
         <v>0.05</v>
@@ -20986,10 +20601,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="6">
         <v>0.05</v>
@@ -21090,10 +20705,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="6">
         <v>0.05</v>
@@ -21194,10 +20809,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D39" s="6">
         <v>0.05</v>
@@ -21298,7 +20913,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>141</v>
@@ -21402,7 +21017,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>141</v>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A58E9EC-07C8-4AFB-A4B9-CBCD6699FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A686D-9D79-46CD-9CD0-D21B45B74B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13020" tabRatio="849" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="225">
   <si>
     <t>p</t>
   </si>
@@ -667,24 +667,6 @@
   </si>
   <si>
     <t>CO2_Storage</t>
-  </si>
-  <si>
-    <t>FT_Hydro</t>
-  </si>
-  <si>
-    <t>FT_Solar_Res</t>
-  </si>
-  <si>
-    <t>FT_Solar_Com</t>
-  </si>
-  <si>
-    <t>FT_Solar_Utility</t>
-  </si>
-  <si>
-    <t>FT_WindOF</t>
-  </si>
-  <si>
-    <t>FT_WindON</t>
   </si>
   <si>
     <t>FT_NG</t>
@@ -2009,7 +1991,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2060,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46:C46"/>
     </sheetView>
   </sheetViews>
@@ -2558,7 +2540,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B45" s="4">
         <v>0.64700000000000002</v>
@@ -2569,7 +2551,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B46" s="4">
         <v>0.64700000000000002</v>
@@ -2588,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2846,7 +2828,7 @@
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D2">
         <v>124.06851712928901</v>
@@ -2866,7 +2848,7 @@
         <v>2025</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D3">
         <v>124.06851712928901</v>
@@ -2886,7 +2868,7 @@
         <v>2030</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D4">
         <v>124.06851712928901</v>
@@ -2906,7 +2888,7 @@
         <v>2035</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D5">
         <v>124.06851712928901</v>
@@ -2926,7 +2908,7 @@
         <v>2040</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D6">
         <v>124.06851712928901</v>
@@ -2946,7 +2928,7 @@
         <v>2045</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D7">
         <v>124.06851712928901</v>
@@ -2966,7 +2948,7 @@
         <v>2050</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D8">
         <v>124.06851712928901</v>
@@ -3024,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F4522F-FAB8-47C5-AC73-9230BD225687}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -3061,7 +3043,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3237,13 +3219,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3276,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3286,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL84"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A74:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3437,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -3553,7 +3535,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
@@ -3669,7 +3651,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>51</v>
@@ -3785,7 +3767,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>51</v>
@@ -3901,7 +3883,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>51</v>
@@ -4017,7 +3999,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>51</v>
@@ -4133,7 +4115,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>51</v>
@@ -11433,10 +11415,10 @@
         <v>145</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>51</v>
@@ -11577,13 +11559,13 @@
         <v>119</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>51</v>
@@ -11721,10 +11703,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>204</v>
@@ -11837,7 +11819,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>205</v>
@@ -11846,7 +11828,7 @@
         <v>187</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H74" s="4">
         <v>1</v>
@@ -11950,7 +11932,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>206</v>
@@ -11959,7 +11941,7 @@
         <v>187</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="H75" s="4">
         <v>1</v>
@@ -12063,7 +12045,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>207</v>
@@ -12072,7 +12054,7 @@
         <v>187</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="H76" s="4">
         <v>1</v>
@@ -12176,7 +12158,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>208</v>
@@ -12185,7 +12167,7 @@
         <v>187</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
@@ -12289,16 +12271,16 @@
         <v>6</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>187</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H78" s="4">
         <v>1</v>
@@ -12391,684 +12373,6 @@
         <v>1</v>
       </c>
       <c r="AL78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38">
-      <c r="A79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-      <c r="I79" s="4">
-        <v>1</v>
-      </c>
-      <c r="J79" s="4">
-        <v>1</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
-      </c>
-      <c r="L79" s="4">
-        <v>1</v>
-      </c>
-      <c r="M79" s="4">
-        <v>1</v>
-      </c>
-      <c r="N79" s="4">
-        <v>1</v>
-      </c>
-      <c r="O79" s="4">
-        <v>1</v>
-      </c>
-      <c r="P79" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>1</v>
-      </c>
-      <c r="R79" s="4">
-        <v>1</v>
-      </c>
-      <c r="S79" s="4">
-        <v>1</v>
-      </c>
-      <c r="T79" s="4">
-        <v>1</v>
-      </c>
-      <c r="U79" s="4">
-        <v>1</v>
-      </c>
-      <c r="V79" s="4">
-        <v>1</v>
-      </c>
-      <c r="W79" s="4">
-        <v>1</v>
-      </c>
-      <c r="X79" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:38">
-      <c r="A80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="4">
-        <v>1</v>
-      </c>
-      <c r="I80" s="4">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
-      </c>
-      <c r="L80" s="4">
-        <v>1</v>
-      </c>
-      <c r="M80" s="4">
-        <v>1</v>
-      </c>
-      <c r="N80" s="4">
-        <v>1</v>
-      </c>
-      <c r="O80" s="4">
-        <v>1</v>
-      </c>
-      <c r="P80" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="4">
-        <v>1</v>
-      </c>
-      <c r="R80" s="4">
-        <v>1</v>
-      </c>
-      <c r="S80" s="4">
-        <v>1</v>
-      </c>
-      <c r="T80" s="4">
-        <v>1</v>
-      </c>
-      <c r="U80" s="4">
-        <v>1</v>
-      </c>
-      <c r="V80" s="4">
-        <v>1</v>
-      </c>
-      <c r="W80" s="4">
-        <v>1</v>
-      </c>
-      <c r="X80" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK80" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38">
-      <c r="A81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H81" s="4">
-        <v>1</v>
-      </c>
-      <c r="I81" s="4">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4">
-        <v>1</v>
-      </c>
-      <c r="K81" s="4">
-        <v>1</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1</v>
-      </c>
-      <c r="M81" s="4">
-        <v>1</v>
-      </c>
-      <c r="N81" s="4">
-        <v>1</v>
-      </c>
-      <c r="O81" s="4">
-        <v>1</v>
-      </c>
-      <c r="P81" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>1</v>
-      </c>
-      <c r="R81" s="4">
-        <v>1</v>
-      </c>
-      <c r="S81" s="4">
-        <v>1</v>
-      </c>
-      <c r="T81" s="4">
-        <v>1</v>
-      </c>
-      <c r="U81" s="4">
-        <v>1</v>
-      </c>
-      <c r="V81" s="4">
-        <v>1</v>
-      </c>
-      <c r="W81" s="4">
-        <v>1</v>
-      </c>
-      <c r="X81" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y81" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK81" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38">
-      <c r="A82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="4">
-        <v>1</v>
-      </c>
-      <c r="I82" s="4">
-        <v>1</v>
-      </c>
-      <c r="J82" s="4">
-        <v>1</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1</v>
-      </c>
-      <c r="L82" s="4">
-        <v>1</v>
-      </c>
-      <c r="M82" s="4">
-        <v>1</v>
-      </c>
-      <c r="N82" s="4">
-        <v>1</v>
-      </c>
-      <c r="O82" s="4">
-        <v>1</v>
-      </c>
-      <c r="P82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>1</v>
-      </c>
-      <c r="R82" s="4">
-        <v>1</v>
-      </c>
-      <c r="S82" s="4">
-        <v>1</v>
-      </c>
-      <c r="T82" s="4">
-        <v>1</v>
-      </c>
-      <c r="U82" s="4">
-        <v>1</v>
-      </c>
-      <c r="V82" s="4">
-        <v>1</v>
-      </c>
-      <c r="W82" s="4">
-        <v>1</v>
-      </c>
-      <c r="X82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK82" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38">
-      <c r="A83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" s="4">
-        <v>1</v>
-      </c>
-      <c r="I83" s="4">
-        <v>1</v>
-      </c>
-      <c r="J83" s="4">
-        <v>1</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
-      </c>
-      <c r="L83" s="4">
-        <v>1</v>
-      </c>
-      <c r="M83" s="4">
-        <v>1</v>
-      </c>
-      <c r="N83" s="4">
-        <v>1</v>
-      </c>
-      <c r="O83" s="4">
-        <v>1</v>
-      </c>
-      <c r="P83" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>1</v>
-      </c>
-      <c r="R83" s="4">
-        <v>1</v>
-      </c>
-      <c r="S83" s="4">
-        <v>1</v>
-      </c>
-      <c r="T83" s="4">
-        <v>1</v>
-      </c>
-      <c r="U83" s="4">
-        <v>1</v>
-      </c>
-      <c r="V83" s="4">
-        <v>1</v>
-      </c>
-      <c r="W83" s="4">
-        <v>1</v>
-      </c>
-      <c r="X83" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y83" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38">
-      <c r="A84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
-        <v>1</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
-      </c>
-      <c r="L84" s="4">
-        <v>1</v>
-      </c>
-      <c r="M84" s="4">
-        <v>1</v>
-      </c>
-      <c r="N84" s="4">
-        <v>1</v>
-      </c>
-      <c r="O84" s="4">
-        <v>1</v>
-      </c>
-      <c r="P84" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="4">
-        <v>1</v>
-      </c>
-      <c r="R84" s="4">
-        <v>1</v>
-      </c>
-      <c r="S84" s="4">
-        <v>1</v>
-      </c>
-      <c r="T84" s="4">
-        <v>1</v>
-      </c>
-      <c r="U84" s="4">
-        <v>1</v>
-      </c>
-      <c r="V84" s="4">
-        <v>1</v>
-      </c>
-      <c r="W84" s="4">
-        <v>1</v>
-      </c>
-      <c r="X84" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL84" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13131,7 +12435,7 @@
         <v>118.6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13148,7 +12452,7 @@
         <v>118.62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13165,7 +12469,7 @@
         <v>118.62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13182,7 +12486,7 @@
         <v>202.32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13199,7 +12503,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13216,7 +12520,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13233,7 +12537,7 @@
         <v>119.41764496915395</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13250,7 +12554,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13267,7 +12571,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13284,7 +12588,7 @@
         <v>229.51879128207057</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13301,7 +12605,7 @@
         <v>214.12654767006592</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13417,7 +12721,7 @@
         <v>5.93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -13435,7 +12739,7 @@
         <v>112.66999999999999</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -13453,7 +12757,7 @@
         <v>5.93</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13471,7 +12775,7 @@
         <v>112.66999999999999</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -13489,7 +12793,7 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -13507,7 +12811,7 @@
         <v>115.04199999999999</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -13525,7 +12829,7 @@
         <v>3.5579999999999998</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K26" s="13"/>
     </row>
@@ -13544,7 +12848,7 @@
         <v>115.04199999999999</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -13562,7 +12866,7 @@
         <v>10.116</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -13581,7 +12885,7 @@
         <v>192.20399999999998</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -13599,7 +12903,7 @@
         <v>2.0232000000000001</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -13617,12 +12921,12 @@
         <v>200.29679999999999</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>201</v>
@@ -13636,7 +12940,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>201</v>
@@ -13649,12 +12953,12 @@
         <v>-170.07300000000001</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>200</v>
@@ -13667,7 +12971,7 @@
         <v>170.07300000000001</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -13678,13 +12982,13 @@
         <v>200</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D35" s="6">
         <v>-1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -14288,7 +13592,7 @@
         <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -14308,7 +13612,7 @@
         <v>147</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -14328,7 +13632,7 @@
         <v>147</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14348,7 +13652,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -14368,7 +13672,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -14388,7 +13692,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -14408,7 +13712,7 @@
         <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -16836,10 +16140,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+      <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19665,7 +18969,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>186</v>
@@ -19769,7 +19073,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>186</v>
@@ -19873,7 +19177,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>186</v>
@@ -19977,7 +19281,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>186</v>
@@ -20081,7 +19385,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>186</v>
@@ -20185,7 +19489,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>186</v>
@@ -20289,103 +19593,103 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I34" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J34" s="6">
-        <v>0.05</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K34" s="6">
-        <v>0.05</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L34" s="6">
-        <v>0.05</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M34" s="6">
-        <v>0.05</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH34" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -20393,726 +19697,102 @@
         <v>6</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="E35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="F35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="G35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="H35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="I35" s="6">
-        <v>0.05</v>
+        <v>5.7877100000000001E-2</v>
       </c>
       <c r="J35" s="6">
-        <v>0.05</v>
+        <v>5.8074927246929288E-2</v>
       </c>
       <c r="K35" s="6">
-        <v>0.05</v>
+        <v>5.8311333612130881E-2</v>
       </c>
       <c r="L35" s="6">
-        <v>0.05</v>
+        <v>5.8586319095604758E-2</v>
       </c>
       <c r="M35" s="6">
-        <v>0.05</v>
+        <v>5.8899883697350941E-2</v>
       </c>
       <c r="N35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG35" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH35" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AB36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AC36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AG36" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AH36" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="W37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AB37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AC37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AD37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AE37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AG37" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AH37" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="A38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="U38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Y38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AB38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AC38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AD38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AG38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AH38" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="T39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="U39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AA39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AB39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AC39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AD39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AG39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AH39" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
-      <c r="A40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I40" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J40" s="6">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K40" s="6">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L40" s="6">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M40" s="6">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH40" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
-      <c r="A41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I41" s="6">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J41" s="6">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K41" s="6">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L41" s="6">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M41" s="6">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG41" s="6">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH41" s="6">
         <v>5.9252027417369402E-2</v>
       </c>
     </row>
